--- a/dataset_2022/dataset_Vitas_plus_large.xlsx
+++ b/dataset_2022/dataset_Vitas_plus_large.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\6-VUI_problem\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\4-Elevate\GPT4_vitas\dataset_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D464C68D-D16E-4098-868B-5E11C7B5E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A772A6-4A56-4C12-ABCC-4993345FCEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="520" windowWidth="15110" windowHeight="14750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="520" windowWidth="15110" windowHeight="14750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elevate(large)" sheetId="1" r:id="rId1"/>
@@ -7419,7 +7419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -10900,8 +10900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/dataset_2022/dataset_Vitas_plus_large.xlsx
+++ b/dataset_2022/dataset_Vitas_plus_large.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\4-Elevate\GPT4_vitas\dataset_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\6-VUI_problem\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A772A6-4A56-4C12-ABCC-4993345FCEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668CB973-376B-4220-B247-AAE014636E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="520" windowWidth="15110" windowHeight="14750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="360" windowWidth="15110" windowHeight="14750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elevate(large)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="2344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="2331">
   <si>
     <t>category</t>
   </si>
@@ -1664,45 +1664,6 @@
   </si>
   <si>
     <t>{"0": "M13HGZVQ05PJ8Y"}</t>
-  </si>
-  <si>
-    <t>B07G76Y23G</t>
-  </si>
-  <si>
-    <t>Sports Quiz</t>
-  </si>
-  <si>
-    <t>Voxogenic</t>
-  </si>
-  <si>
-    <t>{"en-CA": ["\u201dAlexa, launch sports quiz\u201d", "\u201dAlexa, open sports quiz\u201d", "\u201dAlexa, start sports quiz\u201d"], "en-US": ["\u201dAlexa, launch sports quiz\u201d", "\u201dAlexa, start sports quiz\u201d", "\u201dAlexa, open sports quiz\u201d"], "en-IN": ["\u201dAlexa, launch sports quiz\u201d", "\u201dAlexa, open sports quiz\u201d", "\u201dAlexa, start sports quiz\u201d"], "en-AU": ["\u201dAlexa, launch sports quiz\u201d", "\u201dAlexa, start sports quiz\u201d", "\u201dAlexa, open sports quiz\u201d"], "en-GB": ["\u201dAlexa, launch sports quiz\u201d", "\u201dAlexa, open sports quiz\u201d", "\u201dAlexa, start sports quiz\u201d"]}</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71PQeQXcrmL.png</t>
-  </si>
-  <si>
-    <t>{"en-IN": "sports quiz", "en-AU": "sports quiz", "en-US": "sports quiz", "en-CA": "sports quiz", "en-GB": "sports quiz"}</t>
-  </si>
-  <si>
-    <t>{"en-IN": "Its a game or mind sport, in which the players attempt to answer questions correctly. It is a game to test your knowledge about different sports.Lets play!", "en-AU": "Its a game or mind sport, in which the players attempt to answer questions correctly. It is a game to test your knowledge about different sports.Lets play!", "en-CA": "Its a game or mind sport, in which the players attempt to answer questions correctly. It is a game to test your knowledge about different sports.Lets play!", "en-US": "Its a game or mind sport, in which the players attempt to answer questions correctly. It is a game to test your knowledge about different sports.Lets play!", "en-GB": "Its a game or mind sport, in which the players attempt to answer questions correctly. It is a game to test your knowledge about different sports.Lets play!"}</t>
-  </si>
-  <si>
-    <t>{"en-IN": "It is a game to test your knowledge about different sports.Lets play!", "en-AU": "It is a game to test your knowledge about different sports.Lets play!", "en-CA": "It is a game to test your knowledge about different sports.Lets play!", "en-US": "It is a game to test your knowledge about different sports.Lets play!", "en-GB": "It is a game to test your knowledge about different sports.Lets play!"}</t>
-  </si>
-  <si>
-    <t>It is a game to test your knowledge about different sports.Lets play!</t>
-  </si>
-  <si>
-    <t>2018-08-06T10:17:01Z</t>
-  </si>
-  <si>
-    <t>2018-08-06T07:21:25Z</t>
-  </si>
-  <si>
-    <t>{"en-IN": "Sports Quiz", "en-AU": "Sports Quiz", "en-CA": "Sports Quiz", "en-US": "Sports Quiz", "en-GB": "Sports Quiz"}</t>
-  </si>
-  <si>
-    <t>{"0": "M2DEE4IR33S3Q3"}</t>
   </si>
   <si>
     <t>B09BYXHHXP</t>
@@ -7092,12 +7053,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -7112,9 +7079,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7419,8 +7387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7431,7 +7399,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2343</v>
+        <v>2330</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7440,10 +7408,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2341</v>
+        <v>2328</v>
       </c>
       <c r="E1" t="s">
-        <v>2342</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7465,7 +7433,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2338</v>
+        <v>2325</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -8007,20 +7975,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
+      <c r="D35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10898,10 +10866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W153"/>
+  <dimension ref="A1:W152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10982,7 +10950,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2339</v>
+        <v>2326</v>
       </c>
       <c r="B2" t="s">
         <v>328</v>
@@ -11053,7 +11021,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2340</v>
+        <v>2327</v>
       </c>
       <c r="B3" t="s">
         <v>344</v>
@@ -12148,7 +12116,7 @@
         <v>401</v>
       </c>
       <c r="K18" t="s">
-        <v>348</v>
+        <v>508</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -12157,45 +12125,45 @@
         <v>549</v>
       </c>
       <c r="N18" t="s">
-        <v>327</v>
+        <v>550</v>
       </c>
       <c r="O18" t="s">
-        <v>327</v>
+        <v>551</v>
       </c>
       <c r="P18" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Q18" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R18" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="S18" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="T18" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="U18" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="V18" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W18" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B19" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C19" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -12210,28 +12178,28 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="I19" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J19" t="s">
         <v>401</v>
       </c>
       <c r="K19" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N19" t="s">
-        <v>563</v>
+        <v>327</v>
       </c>
       <c r="O19" t="s">
-        <v>564</v>
+        <v>327</v>
       </c>
       <c r="P19" t="s">
         <v>565</v>
@@ -12252,7 +12220,7 @@
         <v>570</v>
       </c>
       <c r="V19" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W19" t="s">
         <v>571</v>
@@ -12269,7 +12237,7 @@
         <v>574</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -12290,7 +12258,7 @@
         <v>401</v>
       </c>
       <c r="K20" t="s">
-        <v>493</v>
+        <v>326</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -12334,16 +12302,16 @@
         <v>585</v>
       </c>
       <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
         <v>586</v>
       </c>
-      <c r="C21" t="s">
-        <v>587</v>
-      </c>
       <c r="D21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>324</v>
@@ -12352,10 +12320,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>587</v>
+      </c>
+      <c r="I21" t="s">
         <v>588</v>
-      </c>
-      <c r="I21" t="s">
-        <v>589</v>
       </c>
       <c r="J21" t="s">
         <v>401</v>
@@ -12367,54 +12335,54 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
+        <v>589</v>
+      </c>
+      <c r="N21" t="s">
+        <v>327</v>
+      </c>
+      <c r="O21" t="s">
+        <v>327</v>
+      </c>
+      <c r="P21" t="s">
         <v>590</v>
       </c>
-      <c r="N21" t="s">
-        <v>327</v>
-      </c>
-      <c r="O21" t="s">
-        <v>327</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>591</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>592</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>593</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>594</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>595</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
+        <v>395</v>
+      </c>
+      <c r="W21" t="s">
         <v>596</v>
-      </c>
-      <c r="V21" t="s">
-        <v>342</v>
-      </c>
-      <c r="W21" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>597</v>
+      </c>
+      <c r="B22" t="s">
         <v>598</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>599</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>258</v>
       </c>
       <c r="F22" t="s">
         <v>324</v>
@@ -12429,16 +12397,16 @@
         <v>601</v>
       </c>
       <c r="J22" t="s">
-        <v>401</v>
+        <v>602</v>
       </c>
       <c r="K22" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N22" t="s">
         <v>327</v>
@@ -12447,45 +12415,45 @@
         <v>327</v>
       </c>
       <c r="P22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="R22" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="S22" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="U22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="V22" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B23" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D23">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>324</v>
@@ -12494,16 +12462,16 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I23" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="J23" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K23" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -12536,7 +12504,7 @@
         <v>622</v>
       </c>
       <c r="V23" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W23" t="s">
         <v>623</v>
@@ -12553,10 +12521,10 @@
         <v>626</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>324</v>
@@ -12571,10 +12539,10 @@
         <v>628</v>
       </c>
       <c r="J24" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K24" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -12624,10 +12592,10 @@
         <v>639</v>
       </c>
       <c r="D25">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>324</v>
@@ -12642,16 +12610,16 @@
         <v>641</v>
       </c>
       <c r="J25" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K25" t="s">
-        <v>348</v>
+        <v>642</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N25" t="s">
         <v>327</v>
@@ -12660,45 +12628,45 @@
         <v>327</v>
       </c>
       <c r="P25" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Q25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="R25" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="S25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="T25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="U25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="V25" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W25" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C26" t="s">
         <v>652</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
         <v>324</v>
@@ -12713,46 +12681,46 @@
         <v>654</v>
       </c>
       <c r="J26" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K26" t="s">
+        <v>348</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
         <v>655</v>
       </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
+        <v>327</v>
+      </c>
+      <c r="O26" t="s">
+        <v>327</v>
+      </c>
+      <c r="P26" t="s">
         <v>656</v>
       </c>
-      <c r="N26" t="s">
-        <v>327</v>
-      </c>
-      <c r="O26" t="s">
-        <v>327</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>657</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>658</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>659</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>660</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>661</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
+        <v>395</v>
+      </c>
+      <c r="W26" t="s">
         <v>662</v>
-      </c>
-      <c r="V26" t="s">
-        <v>342</v>
-      </c>
-      <c r="W26" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -12763,13 +12731,13 @@
         <v>665</v>
       </c>
       <c r="C27" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D27">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>324</v>
@@ -12778,13 +12746,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I27" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J27" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K27" t="s">
         <v>348</v>
@@ -12793,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N27" t="s">
         <v>327</v>
@@ -12802,28 +12770,28 @@
         <v>327</v>
       </c>
       <c r="P27" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="Q27" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="R27" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="S27" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="T27" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="U27" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="V27" t="s">
         <v>395</v>
       </c>
       <c r="W27" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -12837,10 +12805,10 @@
         <v>679</v>
       </c>
       <c r="D28">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>324</v>
@@ -12855,10 +12823,10 @@
         <v>681</v>
       </c>
       <c r="J28" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K28" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -12891,7 +12859,7 @@
         <v>688</v>
       </c>
       <c r="V28" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W28" t="s">
         <v>689</v>
@@ -12908,10 +12876,10 @@
         <v>692</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>324</v>
@@ -12926,7 +12894,7 @@
         <v>694</v>
       </c>
       <c r="J29" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K29" t="s">
         <v>326</v>
@@ -12979,10 +12947,10 @@
         <v>705</v>
       </c>
       <c r="D30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E30">
         <v>5</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>324</v>
@@ -12997,10 +12965,10 @@
         <v>707</v>
       </c>
       <c r="J30" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K30" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -13050,7 +13018,7 @@
         <v>718</v>
       </c>
       <c r="D31">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -13068,63 +13036,63 @@
         <v>720</v>
       </c>
       <c r="J31" t="s">
-        <v>615</v>
+        <v>721</v>
       </c>
       <c r="K31" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N31" t="s">
         <v>327</v>
       </c>
       <c r="O31" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P31" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q31" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="R31" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="S31" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="T31" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="U31" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="V31" t="s">
         <v>342</v>
       </c>
       <c r="W31" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B32" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D32">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>324</v>
@@ -13133,13 +13101,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I32" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J32" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K32" t="s">
         <v>326</v>
@@ -13151,10 +13119,10 @@
         <v>735</v>
       </c>
       <c r="N32" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="O32" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P32" t="s">
         <v>736</v>
@@ -13192,7 +13160,7 @@
         <v>745</v>
       </c>
       <c r="D33">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -13210,7 +13178,7 @@
         <v>747</v>
       </c>
       <c r="J33" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K33" t="s">
         <v>326</v>
@@ -13222,7 +13190,7 @@
         <v>748</v>
       </c>
       <c r="N33" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="O33" t="s">
         <v>327</v>
@@ -13246,7 +13214,7 @@
         <v>754</v>
       </c>
       <c r="V33" t="s">
-        <v>342</v>
+        <v>663</v>
       </c>
       <c r="W33" t="s">
         <v>755</v>
@@ -13263,10 +13231,10 @@
         <v>758</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
         <v>324</v>
@@ -13281,7 +13249,7 @@
         <v>760</v>
       </c>
       <c r="J34" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K34" t="s">
         <v>326</v>
@@ -13296,7 +13264,7 @@
         <v>327</v>
       </c>
       <c r="O34" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P34" t="s">
         <v>762</v>
@@ -13317,7 +13285,7 @@
         <v>767</v>
       </c>
       <c r="V34" t="s">
-        <v>676</v>
+        <v>342</v>
       </c>
       <c r="W34" t="s">
         <v>768</v>
@@ -13334,10 +13302,10 @@
         <v>771</v>
       </c>
       <c r="D35">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
         <v>324</v>
@@ -13352,10 +13320,10 @@
         <v>773</v>
       </c>
       <c r="J35" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K35" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -13367,7 +13335,7 @@
         <v>327</v>
       </c>
       <c r="O35" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s">
         <v>775</v>
@@ -13405,10 +13373,10 @@
         <v>784</v>
       </c>
       <c r="D36">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
         <v>324</v>
@@ -13423,7 +13391,7 @@
         <v>786</v>
       </c>
       <c r="J36" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K36" t="s">
         <v>348</v>
@@ -13435,51 +13403,51 @@
         <v>787</v>
       </c>
       <c r="N36" t="s">
-        <v>327</v>
+        <v>788</v>
       </c>
       <c r="O36" t="s">
-        <v>327</v>
+        <v>789</v>
       </c>
       <c r="P36" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="Q36" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="R36" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="S36" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="T36" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="U36" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="V36" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W36" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B37" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C37" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D37">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>324</v>
@@ -13488,13 +13456,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I37" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J37" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K37" t="s">
         <v>348</v>
@@ -13503,13 +13471,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="N37" t="s">
-        <v>801</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s">
-        <v>802</v>
+        <v>327</v>
       </c>
       <c r="P37" t="s">
         <v>803</v>
@@ -13530,7 +13498,7 @@
         <v>808</v>
       </c>
       <c r="V37" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W37" t="s">
         <v>809</v>
@@ -13547,10 +13515,10 @@
         <v>812</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="F38" t="s">
         <v>324</v>
@@ -13565,10 +13533,10 @@
         <v>814</v>
       </c>
       <c r="J38" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -13601,7 +13569,7 @@
         <v>821</v>
       </c>
       <c r="V38" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W38" t="s">
         <v>822</v>
@@ -13618,10 +13586,10 @@
         <v>825</v>
       </c>
       <c r="D39">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="E39">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>324</v>
@@ -13636,7 +13604,7 @@
         <v>827</v>
       </c>
       <c r="J39" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K39" t="s">
         <v>326</v>
@@ -13689,10 +13657,10 @@
         <v>838</v>
       </c>
       <c r="D40">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>324</v>
@@ -13707,7 +13675,7 @@
         <v>840</v>
       </c>
       <c r="J40" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K40" t="s">
         <v>326</v>
@@ -13722,7 +13690,7 @@
         <v>327</v>
       </c>
       <c r="O40" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P40" t="s">
         <v>842</v>
@@ -13743,7 +13711,7 @@
         <v>847</v>
       </c>
       <c r="V40" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W40" t="s">
         <v>848</v>
@@ -13760,10 +13728,10 @@
         <v>851</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
         <v>324</v>
@@ -13778,7 +13746,7 @@
         <v>853</v>
       </c>
       <c r="J41" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K41" t="s">
         <v>326</v>
@@ -13787,13 +13755,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
+        <v>722</v>
+      </c>
+      <c r="N41" t="s">
         <v>854</v>
       </c>
-      <c r="N41" t="s">
-        <v>327</v>
-      </c>
       <c r="O41" t="s">
-        <v>455</v>
+        <v>854</v>
       </c>
       <c r="P41" t="s">
         <v>855</v>
@@ -13831,10 +13799,10 @@
         <v>864</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
         <v>324</v>
@@ -13849,7 +13817,7 @@
         <v>866</v>
       </c>
       <c r="J42" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K42" t="s">
         <v>326</v>
@@ -13858,13 +13826,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>735</v>
+        <v>867</v>
       </c>
       <c r="N42" t="s">
-        <v>867</v>
+        <v>327</v>
       </c>
       <c r="O42" t="s">
-        <v>867</v>
+        <v>327</v>
       </c>
       <c r="P42" t="s">
         <v>868</v>
@@ -13902,10 +13870,10 @@
         <v>877</v>
       </c>
       <c r="D43">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>324</v>
@@ -13920,10 +13888,10 @@
         <v>879</v>
       </c>
       <c r="J43" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K43" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -13976,7 +13944,7 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>324</v>
@@ -13991,10 +13959,10 @@
         <v>892</v>
       </c>
       <c r="J44" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K44" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -14003,51 +13971,51 @@
         <v>893</v>
       </c>
       <c r="N44" t="s">
-        <v>327</v>
+        <v>894</v>
       </c>
       <c r="O44" t="s">
-        <v>327</v>
+        <v>894</v>
       </c>
       <c r="P44" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="Q44" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="R44" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="S44" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="T44" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="U44" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="V44" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W44" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B45" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C45" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>324</v>
@@ -14056,69 +14024,69 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I45" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="J45" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K45" t="s">
-        <v>326</v>
+        <v>907</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="N45" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="O45" t="s">
-        <v>907</v>
+        <v>327</v>
       </c>
       <c r="P45" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>911</v>
+      </c>
+      <c r="R45" t="s">
+        <v>912</v>
+      </c>
+      <c r="S45" t="s">
+        <v>913</v>
+      </c>
+      <c r="T45" t="s">
+        <v>914</v>
+      </c>
+      <c r="U45" t="s">
         <v>908</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>909</v>
-      </c>
-      <c r="R45" t="s">
-        <v>910</v>
-      </c>
-      <c r="S45" t="s">
-        <v>911</v>
-      </c>
-      <c r="T45" t="s">
-        <v>912</v>
-      </c>
-      <c r="U45" t="s">
-        <v>913</v>
       </c>
       <c r="V45" t="s">
         <v>395</v>
       </c>
       <c r="W45" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B46" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C46" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D46">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="F46" t="s">
         <v>324</v>
@@ -14127,25 +14095,25 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I46" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="J46" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K46" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N46" t="s">
-        <v>922</v>
+        <v>327</v>
       </c>
       <c r="O46" t="s">
         <v>327</v>
@@ -14166,30 +14134,30 @@
         <v>927</v>
       </c>
       <c r="U46" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="V46" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W46" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B47" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C47" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E47">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>324</v>
@@ -14198,16 +14166,16 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="I47" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="J47" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K47" t="s">
-        <v>934</v>
+        <v>348</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -14257,10 +14225,10 @@
         <v>945</v>
       </c>
       <c r="D48">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
         <v>324</v>
@@ -14275,7 +14243,7 @@
         <v>947</v>
       </c>
       <c r="J48" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K48" t="s">
         <v>348</v>
@@ -14287,51 +14255,51 @@
         <v>948</v>
       </c>
       <c r="N48" t="s">
-        <v>327</v>
+        <v>949</v>
       </c>
       <c r="O48" t="s">
-        <v>327</v>
+        <v>950</v>
       </c>
       <c r="P48" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="Q48" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="R48" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="S48" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="T48" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="U48" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="V48" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W48" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B49" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C49" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D49">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>324</v>
@@ -14340,69 +14308,69 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="I49" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J49" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K49" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N49" t="s">
-        <v>962</v>
+        <v>327</v>
       </c>
       <c r="O49" t="s">
+        <v>327</v>
+      </c>
+      <c r="P49" t="s">
         <v>963</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
+        <v>963</v>
+      </c>
+      <c r="R49" t="s">
         <v>964</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="S49" t="s">
         <v>965</v>
       </c>
-      <c r="R49" t="s">
+      <c r="T49" t="s">
         <v>966</v>
       </c>
-      <c r="S49" t="s">
+      <c r="U49" t="s">
         <v>967</v>
       </c>
-      <c r="T49" t="s">
+      <c r="V49" t="s">
+        <v>342</v>
+      </c>
+      <c r="W49" t="s">
         <v>968</v>
-      </c>
-      <c r="U49" t="s">
-        <v>961</v>
-      </c>
-      <c r="V49" t="s">
-        <v>395</v>
-      </c>
-      <c r="W49" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>969</v>
+      </c>
+      <c r="B50" t="s">
         <v>970</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>971</v>
       </c>
-      <c r="C50" t="s">
-        <v>972</v>
-      </c>
       <c r="D50">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
         <v>324</v>
@@ -14411,16 +14379,16 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
+        <v>972</v>
+      </c>
+      <c r="I50" t="s">
         <v>973</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
+        <v>721</v>
+      </c>
+      <c r="K50" t="s">
         <v>974</v>
-      </c>
-      <c r="J50" t="s">
-        <v>734</v>
-      </c>
-      <c r="K50" t="s">
-        <v>326</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -14438,42 +14406,42 @@
         <v>976</v>
       </c>
       <c r="Q50" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="R50" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="S50" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="T50" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="U50" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="V50" t="s">
         <v>342</v>
       </c>
       <c r="W50" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B51" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C51" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D51">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
         <v>324</v>
@@ -14482,16 +14450,16 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="I51" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="J51" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K51" t="s">
-        <v>987</v>
+        <v>348</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -14538,13 +14506,13 @@
         <v>997</v>
       </c>
       <c r="C52" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="D52">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
         <v>324</v>
@@ -14553,13 +14521,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
+        <v>998</v>
+      </c>
+      <c r="I52" t="s">
         <v>999</v>
       </c>
-      <c r="I52" t="s">
-        <v>1000</v>
-      </c>
       <c r="J52" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K52" t="s">
         <v>348</v>
@@ -14568,54 +14536,54 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N52" t="s">
+        <v>327</v>
+      </c>
+      <c r="O52" t="s">
+        <v>327</v>
+      </c>
+      <c r="P52" t="s">
         <v>1001</v>
       </c>
-      <c r="N52" t="s">
-        <v>327</v>
-      </c>
-      <c r="O52" t="s">
-        <v>327</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>1002</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>1003</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>1004</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>1005</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>1006</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
+        <v>395</v>
+      </c>
+      <c r="W52" t="s">
         <v>1007</v>
-      </c>
-      <c r="V52" t="s">
-        <v>342</v>
-      </c>
-      <c r="W52" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B53" t="s">
         <v>1009</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>1010</v>
       </c>
-      <c r="C53" t="s">
-        <v>998</v>
-      </c>
       <c r="D53">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E53">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
         <v>324</v>
@@ -14630,10 +14598,10 @@
         <v>1012</v>
       </c>
       <c r="J53" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K53" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -14683,10 +14651,10 @@
         <v>1023</v>
       </c>
       <c r="D54">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
         <v>324</v>
@@ -14701,7 +14669,7 @@
         <v>1025</v>
       </c>
       <c r="J54" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K54" t="s">
         <v>326</v>
@@ -14713,10 +14681,10 @@
         <v>1026</v>
       </c>
       <c r="N54" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="O54" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P54" t="s">
         <v>1027</v>
@@ -14737,7 +14705,7 @@
         <v>1032</v>
       </c>
       <c r="V54" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W54" t="s">
         <v>1033</v>
@@ -14754,10 +14722,10 @@
         <v>1036</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
         <v>324</v>
@@ -14772,7 +14740,7 @@
         <v>1038</v>
       </c>
       <c r="J55" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K55" t="s">
         <v>326</v>
@@ -14784,10 +14752,10 @@
         <v>1039</v>
       </c>
       <c r="N55" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="O55" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P55" t="s">
         <v>1040</v>
@@ -14825,10 +14793,10 @@
         <v>1049</v>
       </c>
       <c r="D56">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="E56">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>324</v>
@@ -14843,7 +14811,7 @@
         <v>1051</v>
       </c>
       <c r="J56" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K56" t="s">
         <v>326</v>
@@ -14855,51 +14823,51 @@
         <v>1052</v>
       </c>
       <c r="N56" t="s">
-        <v>327</v>
+        <v>1053</v>
       </c>
       <c r="O56" t="s">
         <v>327</v>
       </c>
       <c r="P56" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="Q56" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="R56" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="S56" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="T56" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="U56" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="V56" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W56" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B57" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C57" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D57">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>324</v>
@@ -14908,25 +14876,25 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I57" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="J57" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K57" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
       <c r="M57" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N57" t="s">
-        <v>1066</v>
+        <v>327</v>
       </c>
       <c r="O57" t="s">
         <v>327</v>
@@ -14967,10 +14935,10 @@
         <v>1076</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
         <v>324</v>
@@ -14985,10 +14953,10 @@
         <v>1078</v>
       </c>
       <c r="J58" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K58" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -15000,7 +14968,7 @@
         <v>327</v>
       </c>
       <c r="O58" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P58" t="s">
         <v>1080</v>
@@ -15038,10 +15006,10 @@
         <v>1089</v>
       </c>
       <c r="D59">
-        <v>4.0999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
         <v>324</v>
@@ -15056,7 +15024,7 @@
         <v>1091</v>
       </c>
       <c r="J59" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K59" t="s">
         <v>326</v>
@@ -15109,10 +15077,10 @@
         <v>1102</v>
       </c>
       <c r="D60">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>324</v>
@@ -15127,10 +15095,10 @@
         <v>1104</v>
       </c>
       <c r="J60" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K60" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -15142,7 +15110,7 @@
         <v>327</v>
       </c>
       <c r="O60" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P60" t="s">
         <v>1106</v>
@@ -15163,7 +15131,7 @@
         <v>1111</v>
       </c>
       <c r="V60" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W60" t="s">
         <v>1112</v>
@@ -15180,10 +15148,10 @@
         <v>1115</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
         <v>324</v>
@@ -15198,7 +15166,7 @@
         <v>1117</v>
       </c>
       <c r="J61" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K61" t="s">
         <v>348</v>
@@ -15234,7 +15202,7 @@
         <v>1124</v>
       </c>
       <c r="V61" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W61" t="s">
         <v>1125</v>
@@ -15251,10 +15219,10 @@
         <v>1128</v>
       </c>
       <c r="D62">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>324</v>
@@ -15269,10 +15237,10 @@
         <v>1130</v>
       </c>
       <c r="J62" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K62" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -15325,7 +15293,7 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>324</v>
@@ -15340,7 +15308,7 @@
         <v>1143</v>
       </c>
       <c r="J63" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K63" t="s">
         <v>326</v>
@@ -15376,7 +15344,7 @@
         <v>1150</v>
       </c>
       <c r="V63" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W63" t="s">
         <v>1151</v>
@@ -15390,13 +15358,13 @@
         <v>1153</v>
       </c>
       <c r="C64" t="s">
-        <v>1154</v>
+        <v>877</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
         <v>324</v>
@@ -15405,69 +15373,69 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I64" t="s">
         <v>1155</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
+        <v>721</v>
+      </c>
+      <c r="K64" t="s">
+        <v>493</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
         <v>1156</v>
       </c>
-      <c r="J64" t="s">
-        <v>734</v>
-      </c>
-      <c r="K64" t="s">
-        <v>326</v>
-      </c>
-      <c r="L64" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
+        <v>327</v>
+      </c>
+      <c r="O64" t="s">
+        <v>327</v>
+      </c>
+      <c r="P64" t="s">
         <v>1157</v>
       </c>
-      <c r="N64" t="s">
-        <v>327</v>
-      </c>
-      <c r="O64" t="s">
-        <v>327</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
+        <v>1157</v>
+      </c>
+      <c r="R64" t="s">
         <v>1158</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="S64" t="s">
         <v>1159</v>
       </c>
-      <c r="R64" t="s">
+      <c r="T64" t="s">
         <v>1160</v>
       </c>
-      <c r="S64" t="s">
+      <c r="U64" t="s">
         <v>1161</v>
-      </c>
-      <c r="T64" t="s">
-        <v>1162</v>
-      </c>
-      <c r="U64" t="s">
-        <v>1163</v>
       </c>
       <c r="V64" t="s">
         <v>342</v>
       </c>
       <c r="W64" t="s">
-        <v>1164</v>
+        <v>887</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B65" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C65" t="s">
-        <v>890</v>
+        <v>1164</v>
       </c>
       <c r="D65">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E65">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
         <v>324</v>
@@ -15476,52 +15444,52 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J65" t="s">
+        <v>721</v>
+      </c>
+      <c r="K65" t="s">
+        <v>348</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
         <v>1167</v>
       </c>
-      <c r="I65" t="s">
+      <c r="N65" t="s">
+        <v>327</v>
+      </c>
+      <c r="O65" t="s">
+        <v>327</v>
+      </c>
+      <c r="P65" t="s">
         <v>1168</v>
       </c>
-      <c r="J65" t="s">
-        <v>734</v>
-      </c>
-      <c r="K65" t="s">
-        <v>493</v>
-      </c>
-      <c r="L65" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="Q65" t="s">
         <v>1169</v>
       </c>
-      <c r="N65" t="s">
-        <v>327</v>
-      </c>
-      <c r="O65" t="s">
-        <v>327</v>
-      </c>
-      <c r="P65" t="s">
+      <c r="R65" t="s">
         <v>1170</v>
       </c>
-      <c r="Q65" t="s">
-        <v>1170</v>
-      </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>1171</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>1172</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>1173</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
+        <v>395</v>
+      </c>
+      <c r="W65" t="s">
         <v>1174</v>
-      </c>
-      <c r="V65" t="s">
-        <v>342</v>
-      </c>
-      <c r="W65" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -15535,10 +15503,10 @@
         <v>1177</v>
       </c>
       <c r="D66">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
         <v>324</v>
@@ -15553,10 +15521,10 @@
         <v>1179</v>
       </c>
       <c r="J66" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K66" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -15565,10 +15533,10 @@
         <v>1180</v>
       </c>
       <c r="N66" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="O66" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P66" t="s">
         <v>1181</v>
@@ -15589,7 +15557,7 @@
         <v>1186</v>
       </c>
       <c r="V66" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W66" t="s">
         <v>1187</v>
@@ -15606,10 +15574,10 @@
         <v>1190</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>324</v>
@@ -15624,7 +15592,7 @@
         <v>1192</v>
       </c>
       <c r="J67" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K67" t="s">
         <v>326</v>
@@ -15636,51 +15604,51 @@
         <v>1193</v>
       </c>
       <c r="N67" t="s">
-        <v>455</v>
+        <v>1194</v>
       </c>
       <c r="O67" t="s">
-        <v>455</v>
+        <v>1195</v>
       </c>
       <c r="P67" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="Q67" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="R67" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="S67" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="T67" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="U67" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="V67" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W67" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B68" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C68" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
         <v>324</v>
@@ -15689,28 +15657,28 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="I68" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="J68" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K68" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="N68" t="s">
-        <v>1207</v>
+        <v>327</v>
       </c>
       <c r="O68" t="s">
-        <v>1208</v>
+        <v>327</v>
       </c>
       <c r="P68" t="s">
         <v>1209</v>
@@ -15748,10 +15716,10 @@
         <v>1218</v>
       </c>
       <c r="D69">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>324</v>
@@ -15766,7 +15734,7 @@
         <v>1220</v>
       </c>
       <c r="J69" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K69" t="s">
         <v>348</v>
@@ -15778,51 +15746,51 @@
         <v>1221</v>
       </c>
       <c r="N69" t="s">
-        <v>327</v>
+        <v>1222</v>
       </c>
       <c r="O69" t="s">
-        <v>327</v>
+        <v>1222</v>
       </c>
       <c r="P69" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="Q69" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="R69" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="S69" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="T69" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="U69" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="V69" t="s">
         <v>395</v>
       </c>
       <c r="W69" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B70" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C70" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="F70" t="s">
         <v>324</v>
@@ -15831,69 +15799,69 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="I70" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="J70" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="K70" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="N70" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="O70" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="P70" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="Q70" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="R70" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="S70" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="T70" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="U70" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="V70" t="s">
         <v>395</v>
       </c>
       <c r="W70" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B71" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C71" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E71">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="F71" t="s">
         <v>324</v>
@@ -15902,69 +15870,69 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="I71" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="J71" t="s">
-        <v>734</v>
+        <v>170</v>
       </c>
       <c r="K71" t="s">
-        <v>493</v>
+        <v>348</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="N71" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="O71" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="P71" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="Q71" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="R71" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="S71" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="T71" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="U71" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="V71" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W71" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="B72" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C72" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D72">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>324</v>
@@ -15973,69 +15941,69 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>1260</v>
+        <v>839</v>
       </c>
       <c r="I72" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="J72" t="s">
         <v>170</v>
       </c>
       <c r="K72" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>1262</v>
+        <v>841</v>
       </c>
       <c r="N72" t="s">
+        <v>327</v>
+      </c>
+      <c r="O72" t="s">
+        <v>455</v>
+      </c>
+      <c r="P72" t="s">
         <v>1263</v>
       </c>
-      <c r="O72" t="s">
+      <c r="Q72" t="s">
+        <v>843</v>
+      </c>
+      <c r="R72" t="s">
+        <v>844</v>
+      </c>
+      <c r="S72" t="s">
         <v>1264</v>
       </c>
-      <c r="P72" t="s">
+      <c r="T72" t="s">
         <v>1265</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="U72" t="s">
         <v>1266</v>
-      </c>
-      <c r="R72" t="s">
-        <v>1267</v>
-      </c>
-      <c r="S72" t="s">
-        <v>1268</v>
-      </c>
-      <c r="T72" t="s">
-        <v>1269</v>
-      </c>
-      <c r="U72" t="s">
-        <v>1270</v>
       </c>
       <c r="V72" t="s">
         <v>342</v>
       </c>
       <c r="W72" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="B73" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C73" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>324</v>
@@ -16044,10 +16012,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>852</v>
+        <v>1271</v>
       </c>
       <c r="I73" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="J73" t="s">
         <v>170</v>
@@ -16059,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>854</v>
+        <v>1273</v>
       </c>
       <c r="N73" t="s">
         <v>327</v>
@@ -16068,13 +16036,13 @@
         <v>455</v>
       </c>
       <c r="P73" t="s">
+        <v>1274</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1275</v>
+      </c>
+      <c r="R73" t="s">
         <v>1276</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>856</v>
-      </c>
-      <c r="R73" t="s">
-        <v>857</v>
       </c>
       <c r="S73" t="s">
         <v>1277</v>
@@ -16097,16 +16065,16 @@
         <v>1281</v>
       </c>
       <c r="B74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
         <v>1282</v>
       </c>
-      <c r="C74" t="s">
-        <v>1283</v>
-      </c>
       <c r="D74">
+        <v>2.4</v>
+      </c>
+      <c r="E74">
         <v>4</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>324</v>
@@ -16115,16 +16083,16 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I74" t="s">
         <v>1284</v>
-      </c>
-      <c r="I74" t="s">
-        <v>1285</v>
       </c>
       <c r="J74" t="s">
         <v>170</v>
       </c>
       <c r="K74" t="s">
-        <v>326</v>
+        <v>1285</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -16133,51 +16101,51 @@
         <v>1286</v>
       </c>
       <c r="N74" t="s">
-        <v>327</v>
+        <v>1287</v>
       </c>
       <c r="O74" t="s">
-        <v>455</v>
+        <v>1287</v>
       </c>
       <c r="P74" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="Q74" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="R74" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="S74" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="T74" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="U74" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="V74" t="s">
         <v>342</v>
       </c>
       <c r="W74" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>1296</v>
       </c>
       <c r="C75" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D75">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>324</v>
@@ -16186,28 +16154,28 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="I75" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="J75" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K75" t="s">
-        <v>1298</v>
+        <v>921</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="N75" t="s">
-        <v>1300</v>
+        <v>327</v>
       </c>
       <c r="O75" t="s">
-        <v>1300</v>
+        <v>327</v>
       </c>
       <c r="P75" t="s">
         <v>1301</v>
@@ -16245,10 +16213,10 @@
         <v>1310</v>
       </c>
       <c r="D76">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>324</v>
@@ -16266,7 +16234,7 @@
         <v>176</v>
       </c>
       <c r="K76" t="s">
-        <v>934</v>
+        <v>326</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -16275,45 +16243,45 @@
         <v>1313</v>
       </c>
       <c r="N76" t="s">
-        <v>327</v>
+        <v>1314</v>
       </c>
       <c r="O76" t="s">
-        <v>327</v>
+        <v>1314</v>
       </c>
       <c r="P76" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="Q76" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="R76" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="S76" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="T76" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="U76" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="V76" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W76" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B77" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C77" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -16328,28 +16296,28 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="I77" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="J77" t="s">
         <v>176</v>
       </c>
       <c r="K77" t="s">
-        <v>326</v>
+        <v>921</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="N77" t="s">
-        <v>1327</v>
+        <v>327</v>
       </c>
       <c r="O77" t="s">
-        <v>1327</v>
+        <v>327</v>
       </c>
       <c r="P77" t="s">
         <v>1328</v>
@@ -16381,16 +16349,16 @@
         <v>1335</v>
       </c>
       <c r="B78" t="s">
+        <v>598</v>
+      </c>
+      <c r="C78" t="s">
         <v>1336</v>
       </c>
-      <c r="C78" t="s">
-        <v>1337</v>
-      </c>
       <c r="D78">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>324</v>
@@ -16399,25 +16367,25 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I78" t="s">
         <v>1338</v>
-      </c>
-      <c r="I78" t="s">
-        <v>1339</v>
       </c>
       <c r="J78" t="s">
         <v>176</v>
       </c>
       <c r="K78" t="s">
-        <v>934</v>
+        <v>326</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
       </c>
       <c r="M78" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N78" t="s">
         <v>1340</v>
-      </c>
-      <c r="N78" t="s">
-        <v>327</v>
       </c>
       <c r="O78" t="s">
         <v>327</v>
@@ -16452,16 +16420,16 @@
         <v>1348</v>
       </c>
       <c r="B79" t="s">
-        <v>611</v>
+        <v>1349</v>
       </c>
       <c r="C79" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D79">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
         <v>324</v>
@@ -16470,10 +16438,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I79" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="J79" t="s">
         <v>176</v>
@@ -16485,10 +16453,10 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="N79" t="s">
-        <v>1353</v>
+        <v>327</v>
       </c>
       <c r="O79" t="s">
         <v>327</v>
@@ -16529,10 +16497,10 @@
         <v>1363</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F80" t="s">
         <v>324</v>
@@ -16550,7 +16518,7 @@
         <v>176</v>
       </c>
       <c r="K80" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
@@ -16583,7 +16551,7 @@
         <v>1372</v>
       </c>
       <c r="V80" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W80" t="s">
         <v>1373</v>
@@ -16600,10 +16568,10 @@
         <v>1376</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>324</v>
@@ -16630,48 +16598,48 @@
         <v>1379</v>
       </c>
       <c r="N81" t="s">
-        <v>327</v>
+        <v>1380</v>
       </c>
       <c r="O81" t="s">
-        <v>327</v>
+        <v>1381</v>
       </c>
       <c r="P81" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="Q81" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="R81" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="S81" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="T81" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="U81" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="V81" t="s">
         <v>342</v>
       </c>
       <c r="W81" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B82" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C82" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -16683,69 +16651,69 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="I82" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="J82" t="s">
         <v>176</v>
       </c>
       <c r="K82" t="s">
-        <v>348</v>
+        <v>1394</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="N82" t="s">
-        <v>1393</v>
+        <v>327</v>
       </c>
       <c r="O82" t="s">
-        <v>1394</v>
+        <v>327</v>
       </c>
       <c r="P82" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="Q82" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="R82" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="S82" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="T82" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="U82" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="V82" t="s">
         <v>342</v>
       </c>
       <c r="W82" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B83" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C83" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
         <v>4</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>324</v>
@@ -16754,16 +16722,16 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="I83" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="J83" t="s">
         <v>176</v>
       </c>
       <c r="K83" t="s">
-        <v>1407</v>
+        <v>326</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
@@ -16813,10 +16781,10 @@
         <v>1418</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
         <v>324</v>
@@ -16867,7 +16835,7 @@
         <v>1427</v>
       </c>
       <c r="V84" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W84" t="s">
         <v>1428</v>
@@ -16884,10 +16852,10 @@
         <v>1431</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
         <v>324</v>
@@ -16905,7 +16873,7 @@
         <v>176</v>
       </c>
       <c r="K85" t="s">
-        <v>326</v>
+        <v>974</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -16938,7 +16906,7 @@
         <v>1440</v>
       </c>
       <c r="V85" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W85" t="s">
         <v>1441</v>
@@ -16955,10 +16923,10 @@
         <v>1444</v>
       </c>
       <c r="D86">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="E86">
-        <v>16</v>
+        <v>411</v>
       </c>
       <c r="F86" t="s">
         <v>324</v>
@@ -16976,7 +16944,7 @@
         <v>176</v>
       </c>
       <c r="K86" t="s">
-        <v>987</v>
+        <v>348</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -16994,42 +16962,42 @@
         <v>1448</v>
       </c>
       <c r="Q86" t="s">
+        <v>1448</v>
+      </c>
+      <c r="R86" t="s">
         <v>1449</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>1450</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>1451</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>1452</v>
-      </c>
-      <c r="U86" t="s">
-        <v>1453</v>
       </c>
       <c r="V86" t="s">
         <v>342</v>
       </c>
       <c r="W86" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B87" t="s">
         <v>1455</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>1456</v>
       </c>
-      <c r="C87" t="s">
-        <v>1457</v>
-      </c>
       <c r="D87">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>411</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>324</v>
@@ -17038,31 +17006,31 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I87" t="s">
         <v>1458</v>
-      </c>
-      <c r="I87" t="s">
-        <v>1459</v>
       </c>
       <c r="J87" t="s">
         <v>176</v>
       </c>
       <c r="K87" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
       </c>
       <c r="M87" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N87" t="s">
+        <v>327</v>
+      </c>
+      <c r="O87" t="s">
+        <v>327</v>
+      </c>
+      <c r="P87" t="s">
         <v>1460</v>
-      </c>
-      <c r="N87" t="s">
-        <v>327</v>
-      </c>
-      <c r="O87" t="s">
-        <v>327</v>
-      </c>
-      <c r="P87" t="s">
-        <v>1461</v>
       </c>
       <c r="Q87" t="s">
         <v>1461</v>
@@ -17080,7 +17048,7 @@
         <v>1465</v>
       </c>
       <c r="V87" t="s">
-        <v>342</v>
+        <v>663</v>
       </c>
       <c r="W87" t="s">
         <v>1466</v>
@@ -17097,10 +17065,10 @@
         <v>1469</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="F88" t="s">
         <v>324</v>
@@ -17130,7 +17098,7 @@
         <v>327</v>
       </c>
       <c r="O88" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P88" t="s">
         <v>1473</v>
@@ -17151,7 +17119,7 @@
         <v>1478</v>
       </c>
       <c r="V88" t="s">
-        <v>676</v>
+        <v>342</v>
       </c>
       <c r="W88" t="s">
         <v>1479</v>
@@ -17168,10 +17136,10 @@
         <v>1482</v>
       </c>
       <c r="D89">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E89">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>324</v>
@@ -17189,60 +17157,60 @@
         <v>176</v>
       </c>
       <c r="K89" t="s">
-        <v>326</v>
+        <v>1485</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="N89" t="s">
         <v>327</v>
       </c>
       <c r="O89" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P89" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="Q89" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="R89" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="S89" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="T89" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="U89" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="V89" t="s">
         <v>342</v>
       </c>
       <c r="W89" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B90" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C90" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D90">
-        <v>2.2999999999999998</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>324</v>
@@ -17251,16 +17219,16 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="I90" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="J90" t="s">
         <v>176</v>
       </c>
       <c r="K90" t="s">
-        <v>1498</v>
+        <v>326</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -17269,45 +17237,45 @@
         <v>1499</v>
       </c>
       <c r="N90" t="s">
-        <v>327</v>
+        <v>1500</v>
       </c>
       <c r="O90" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P90" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="Q90" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="R90" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="S90" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="T90" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="U90" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="V90" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W90" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B91" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C91" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -17322,28 +17290,28 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="I91" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="J91" t="s">
         <v>176</v>
       </c>
       <c r="K91" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="N91" t="s">
-        <v>1513</v>
+        <v>327</v>
       </c>
       <c r="O91" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P91" t="s">
         <v>1514</v>
@@ -17364,7 +17332,7 @@
         <v>1519</v>
       </c>
       <c r="V91" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W91" t="s">
         <v>1520</v>
@@ -17402,7 +17370,7 @@
         <v>176</v>
       </c>
       <c r="K92" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -17411,13 +17379,13 @@
         <v>1526</v>
       </c>
       <c r="N92" t="s">
-        <v>327</v>
+        <v>1527</v>
       </c>
       <c r="O92" t="s">
         <v>327</v>
       </c>
       <c r="P92" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="Q92" t="s">
         <v>1528</v>
@@ -17435,7 +17403,7 @@
         <v>1532</v>
       </c>
       <c r="V92" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W92" t="s">
         <v>1533</v>
@@ -17452,10 +17420,10 @@
         <v>1536</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>324</v>
@@ -17473,7 +17441,7 @@
         <v>176</v>
       </c>
       <c r="K93" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -17482,13 +17450,13 @@
         <v>1539</v>
       </c>
       <c r="N93" t="s">
+        <v>327</v>
+      </c>
+      <c r="O93" t="s">
+        <v>327</v>
+      </c>
+      <c r="P93" t="s">
         <v>1540</v>
-      </c>
-      <c r="O93" t="s">
-        <v>327</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1541</v>
       </c>
       <c r="Q93" t="s">
         <v>1541</v>
@@ -17506,7 +17474,7 @@
         <v>1545</v>
       </c>
       <c r="V93" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W93" t="s">
         <v>1546</v>
@@ -17523,10 +17491,10 @@
         <v>1549</v>
       </c>
       <c r="D94">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
         <v>324</v>
@@ -17544,7 +17512,7 @@
         <v>176</v>
       </c>
       <c r="K94" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -17553,51 +17521,51 @@
         <v>1552</v>
       </c>
       <c r="N94" t="s">
-        <v>327</v>
+        <v>1553</v>
       </c>
       <c r="O94" t="s">
-        <v>327</v>
+        <v>1553</v>
       </c>
       <c r="P94" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="Q94" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="R94" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="S94" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="T94" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="U94" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="V94" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W94" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B95" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C95" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D95">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="E95">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F95" t="s">
         <v>324</v>
@@ -17606,28 +17574,28 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="I95" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="J95" t="s">
         <v>176</v>
       </c>
       <c r="K95" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="L95" t="b">
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="N95" t="s">
-        <v>1566</v>
+        <v>327</v>
       </c>
       <c r="O95" t="s">
-        <v>1566</v>
+        <v>327</v>
       </c>
       <c r="P95" t="s">
         <v>1567</v>
@@ -17665,10 +17633,10 @@
         <v>1576</v>
       </c>
       <c r="D96">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>324</v>
@@ -17686,7 +17654,7 @@
         <v>176</v>
       </c>
       <c r="K96" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L96" t="b">
         <v>0</v>
@@ -17736,10 +17704,10 @@
         <v>1589</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
         <v>324</v>
@@ -17757,7 +17725,7 @@
         <v>176</v>
       </c>
       <c r="K97" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -17790,7 +17758,7 @@
         <v>1598</v>
       </c>
       <c r="V97" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W97" t="s">
         <v>1599</v>
@@ -17807,10 +17775,10 @@
         <v>1602</v>
       </c>
       <c r="D98">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="E98">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
         <v>324</v>
@@ -17825,16 +17793,16 @@
         <v>1604</v>
       </c>
       <c r="J98" t="s">
-        <v>176</v>
+        <v>1605</v>
       </c>
       <c r="K98" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="N98" t="s">
         <v>327</v>
@@ -17843,7 +17811,7 @@
         <v>327</v>
       </c>
       <c r="P98" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="Q98" t="s">
         <v>1607</v>
@@ -17861,7 +17829,7 @@
         <v>1611</v>
       </c>
       <c r="V98" t="s">
-        <v>342</v>
+        <v>663</v>
       </c>
       <c r="W98" t="s">
         <v>1612</v>
@@ -17872,16 +17840,16 @@
         <v>1613</v>
       </c>
       <c r="B99" t="s">
+        <v>717</v>
+      </c>
+      <c r="C99" t="s">
         <v>1614</v>
       </c>
-      <c r="C99" t="s">
-        <v>1615</v>
-      </c>
       <c r="D99">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F99" t="s">
         <v>324</v>
@@ -17890,69 +17858,69 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I99" t="s">
         <v>1616</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K99" t="s">
+        <v>348</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1249</v>
+      </c>
+      <c r="N99" t="s">
+        <v>327</v>
+      </c>
+      <c r="O99" t="s">
+        <v>327</v>
+      </c>
+      <c r="P99" t="s">
         <v>1617</v>
       </c>
-      <c r="J99" t="s">
+      <c r="Q99" t="s">
         <v>1618</v>
       </c>
-      <c r="K99" t="s">
-        <v>493</v>
-      </c>
-      <c r="L99" t="b">
-        <v>0</v>
-      </c>
-      <c r="M99" t="s">
+      <c r="R99" t="s">
         <v>1619</v>
       </c>
-      <c r="N99" t="s">
-        <v>327</v>
-      </c>
-      <c r="O99" t="s">
-        <v>327</v>
-      </c>
-      <c r="P99" t="s">
+      <c r="S99" t="s">
         <v>1620</v>
       </c>
-      <c r="Q99" t="s">
-        <v>1620</v>
-      </c>
-      <c r="R99" t="s">
+      <c r="T99" t="s">
         <v>1621</v>
       </c>
-      <c r="S99" t="s">
+      <c r="U99" t="s">
         <v>1622</v>
       </c>
-      <c r="T99" t="s">
+      <c r="V99" t="s">
+        <v>342</v>
+      </c>
+      <c r="W99" t="s">
         <v>1623</v>
-      </c>
-      <c r="U99" t="s">
-        <v>1624</v>
-      </c>
-      <c r="V99" t="s">
-        <v>676</v>
-      </c>
-      <c r="W99" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C100" t="s">
         <v>1626</v>
       </c>
-      <c r="B100" t="s">
-        <v>730</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1627</v>
-      </c>
       <c r="D100">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>324</v>
@@ -17961,13 +17929,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I100" t="s">
         <v>1628</v>
       </c>
-      <c r="I100" t="s">
-        <v>1629</v>
-      </c>
       <c r="J100" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K100" t="s">
         <v>348</v>
@@ -17976,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>1262</v>
+        <v>1629</v>
       </c>
       <c r="N100" t="s">
         <v>327</v>
@@ -17991,39 +17959,39 @@
         <v>1631</v>
       </c>
       <c r="R100" t="s">
+        <v>1625</v>
+      </c>
+      <c r="S100" t="s">
         <v>1632</v>
       </c>
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>1633</v>
       </c>
-      <c r="T100" t="s">
-        <v>1634</v>
-      </c>
       <c r="U100" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="V100" t="s">
         <v>342</v>
       </c>
       <c r="W100" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C101" t="s">
         <v>1637</v>
       </c>
-      <c r="B101" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1639</v>
-      </c>
       <c r="D101">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F101" t="s">
         <v>324</v>
@@ -18032,13 +18000,13 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="I101" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="J101" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K101" t="s">
         <v>348</v>
@@ -18047,34 +18015,34 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N101" t="s">
+        <v>327</v>
+      </c>
+      <c r="O101" t="s">
+        <v>327</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1641</v>
+      </c>
+      <c r="Q101" t="s">
         <v>1642</v>
       </c>
-      <c r="N101" t="s">
-        <v>327</v>
-      </c>
-      <c r="O101" t="s">
-        <v>327</v>
-      </c>
-      <c r="P101" t="s">
+      <c r="R101" t="s">
         <v>1643</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="S101" t="s">
         <v>1644</v>
       </c>
-      <c r="R101" t="s">
-        <v>1638</v>
-      </c>
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>1645</v>
       </c>
-      <c r="T101" t="s">
+      <c r="U101" t="s">
         <v>1646</v>
       </c>
-      <c r="U101" t="s">
-        <v>1644</v>
-      </c>
       <c r="V101" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W101" t="s">
         <v>1647</v>
@@ -18091,10 +18059,10 @@
         <v>1650</v>
       </c>
       <c r="D102">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
         <v>324</v>
@@ -18109,7 +18077,7 @@
         <v>1652</v>
       </c>
       <c r="J102" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K102" t="s">
         <v>348</v>
@@ -18145,7 +18113,7 @@
         <v>1659</v>
       </c>
       <c r="V102" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W102" t="s">
         <v>1660</v>
@@ -18162,10 +18130,10 @@
         <v>1663</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F103" t="s">
         <v>324</v>
@@ -18180,7 +18148,7 @@
         <v>1665</v>
       </c>
       <c r="J103" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K103" t="s">
         <v>348</v>
@@ -18233,10 +18201,10 @@
         <v>1676</v>
       </c>
       <c r="D104">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="E104">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F104" t="s">
         <v>324</v>
@@ -18251,7 +18219,7 @@
         <v>1678</v>
       </c>
       <c r="J104" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K104" t="s">
         <v>348</v>
@@ -18287,7 +18255,7 @@
         <v>1685</v>
       </c>
       <c r="V104" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W104" t="s">
         <v>1686</v>
@@ -18304,10 +18272,10 @@
         <v>1689</v>
       </c>
       <c r="D105">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F105" t="s">
         <v>324</v>
@@ -18322,10 +18290,10 @@
         <v>1691</v>
       </c>
       <c r="J105" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K105" t="s">
-        <v>348</v>
+        <v>921</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
@@ -18375,10 +18343,10 @@
         <v>1702</v>
       </c>
       <c r="D106">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
         <v>324</v>
@@ -18393,10 +18361,10 @@
         <v>1704</v>
       </c>
       <c r="J106" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K106" t="s">
-        <v>934</v>
+        <v>348</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -18446,10 +18414,10 @@
         <v>1715</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F107" t="s">
         <v>324</v>
@@ -18464,7 +18432,7 @@
         <v>1717</v>
       </c>
       <c r="J107" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K107" t="s">
         <v>348</v>
@@ -18500,7 +18468,7 @@
         <v>1724</v>
       </c>
       <c r="V107" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W107" t="s">
         <v>1725</v>
@@ -18514,13 +18482,13 @@
         <v>1727</v>
       </c>
       <c r="C108" t="s">
-        <v>1728</v>
+        <v>1310</v>
       </c>
       <c r="D108">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>324</v>
@@ -18529,13 +18497,13 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I108" t="s">
         <v>1729</v>
       </c>
-      <c r="I108" t="s">
-        <v>1730</v>
-      </c>
       <c r="J108" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K108" t="s">
         <v>348</v>
@@ -18544,54 +18512,54 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
+        <v>1730</v>
+      </c>
+      <c r="N108" t="s">
+        <v>327</v>
+      </c>
+      <c r="O108" t="s">
+        <v>327</v>
+      </c>
+      <c r="P108" t="s">
         <v>1731</v>
       </c>
-      <c r="N108" t="s">
-        <v>327</v>
-      </c>
-      <c r="O108" t="s">
-        <v>327</v>
-      </c>
-      <c r="P108" t="s">
+      <c r="Q108" t="s">
         <v>1732</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="R108" t="s">
         <v>1733</v>
       </c>
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>1734</v>
       </c>
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>1735</v>
       </c>
-      <c r="T108" t="s">
+      <c r="U108" t="s">
         <v>1736</v>
       </c>
-      <c r="U108" t="s">
+      <c r="V108" t="s">
+        <v>663</v>
+      </c>
+      <c r="W108" t="s">
         <v>1737</v>
-      </c>
-      <c r="V108" t="s">
-        <v>342</v>
-      </c>
-      <c r="W108" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B109" t="s">
         <v>1739</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>1740</v>
       </c>
-      <c r="C109" t="s">
-        <v>1323</v>
-      </c>
       <c r="D109">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
         <v>324</v>
@@ -18606,7 +18574,7 @@
         <v>1742</v>
       </c>
       <c r="J109" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K109" t="s">
         <v>348</v>
@@ -18642,7 +18610,7 @@
         <v>1749</v>
       </c>
       <c r="V109" t="s">
-        <v>676</v>
+        <v>342</v>
       </c>
       <c r="W109" t="s">
         <v>1750</v>
@@ -18659,10 +18627,10 @@
         <v>1753</v>
       </c>
       <c r="D110">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="E110">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F110" t="s">
         <v>324</v>
@@ -18677,7 +18645,7 @@
         <v>1755</v>
       </c>
       <c r="J110" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K110" t="s">
         <v>348</v>
@@ -18733,7 +18701,7 @@
         <v>5</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" t="s">
         <v>324</v>
@@ -18748,10 +18716,10 @@
         <v>1768</v>
       </c>
       <c r="J111" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K111" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L111" t="b">
         <v>0</v>
@@ -18801,10 +18769,10 @@
         <v>1779</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
         <v>324</v>
@@ -18819,10 +18787,10 @@
         <v>1781</v>
       </c>
       <c r="J112" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K112" t="s">
-        <v>326</v>
+        <v>493</v>
       </c>
       <c r="L112" t="b">
         <v>0</v>
@@ -18855,7 +18823,7 @@
         <v>1788</v>
       </c>
       <c r="V112" t="s">
-        <v>342</v>
+        <v>663</v>
       </c>
       <c r="W112" t="s">
         <v>1789</v>
@@ -18866,16 +18834,16 @@
         <v>1790</v>
       </c>
       <c r="B113" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" t="s">
         <v>1791</v>
       </c>
-      <c r="C113" t="s">
-        <v>1792</v>
-      </c>
       <c r="D113">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F113" t="s">
         <v>324</v>
@@ -18884,69 +18852,69 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I113" t="s">
         <v>1793</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K113" t="s">
+        <v>326</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
         <v>1794</v>
       </c>
-      <c r="J113" t="s">
-        <v>1618</v>
-      </c>
-      <c r="K113" t="s">
-        <v>493</v>
-      </c>
-      <c r="L113" t="b">
-        <v>0</v>
-      </c>
-      <c r="M113" t="s">
+      <c r="N113" t="s">
+        <v>327</v>
+      </c>
+      <c r="O113" t="s">
+        <v>327</v>
+      </c>
+      <c r="P113" t="s">
         <v>1795</v>
       </c>
-      <c r="N113" t="s">
-        <v>327</v>
-      </c>
-      <c r="O113" t="s">
-        <v>327</v>
-      </c>
-      <c r="P113" t="s">
+      <c r="Q113" t="s">
         <v>1796</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="R113" t="s">
         <v>1797</v>
       </c>
-      <c r="R113" t="s">
+      <c r="S113" t="s">
         <v>1798</v>
       </c>
-      <c r="S113" t="s">
+      <c r="T113" t="s">
         <v>1799</v>
       </c>
-      <c r="T113" t="s">
+      <c r="U113" t="s">
         <v>1800</v>
       </c>
-      <c r="U113" t="s">
+      <c r="V113" t="s">
+        <v>663</v>
+      </c>
+      <c r="W113" t="s">
         <v>1801</v>
-      </c>
-      <c r="V113" t="s">
-        <v>676</v>
-      </c>
-      <c r="W113" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B114" t="s">
         <v>1803</v>
-      </c>
-      <c r="B114" t="s">
-        <v>233</v>
       </c>
       <c r="C114" t="s">
         <v>1804</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
         <v>324</v>
@@ -18961,10 +18929,10 @@
         <v>1806</v>
       </c>
       <c r="J114" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K114" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L114" t="b">
         <v>0</v>
@@ -18997,7 +18965,7 @@
         <v>1813</v>
       </c>
       <c r="V114" t="s">
-        <v>676</v>
+        <v>342</v>
       </c>
       <c r="W114" t="s">
         <v>1814</v>
@@ -19014,7 +18982,7 @@
         <v>1817</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -19032,10 +19000,10 @@
         <v>1819</v>
       </c>
       <c r="J115" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K115" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L115" t="b">
         <v>0</v>
@@ -19047,7 +19015,7 @@
         <v>327</v>
       </c>
       <c r="O115" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P115" t="s">
         <v>1821</v>
@@ -19088,7 +19056,7 @@
         <v>5</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F116" t="s">
         <v>324</v>
@@ -19103,7 +19071,7 @@
         <v>1832</v>
       </c>
       <c r="J116" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K116" t="s">
         <v>326</v>
@@ -19118,7 +19086,7 @@
         <v>327</v>
       </c>
       <c r="O116" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P116" t="s">
         <v>1834</v>
@@ -19136,30 +19104,30 @@
         <v>1838</v>
       </c>
       <c r="U116" t="s">
+        <v>1833</v>
+      </c>
+      <c r="V116" t="s">
+        <v>395</v>
+      </c>
+      <c r="W116" t="s">
         <v>1839</v>
-      </c>
-      <c r="V116" t="s">
-        <v>342</v>
-      </c>
-      <c r="W116" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B117" t="s">
         <v>1841</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>1842</v>
       </c>
-      <c r="C117" t="s">
-        <v>1843</v>
-      </c>
       <c r="D117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F117" t="s">
         <v>324</v>
@@ -19168,13 +19136,13 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I117" t="s">
         <v>1844</v>
       </c>
-      <c r="I117" t="s">
-        <v>1845</v>
-      </c>
       <c r="J117" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K117" t="s">
         <v>326</v>
@@ -19183,34 +19151,34 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
+        <v>1845</v>
+      </c>
+      <c r="N117" t="s">
+        <v>327</v>
+      </c>
+      <c r="O117" t="s">
+        <v>327</v>
+      </c>
+      <c r="P117" t="s">
         <v>1846</v>
       </c>
-      <c r="N117" t="s">
-        <v>327</v>
-      </c>
-      <c r="O117" t="s">
-        <v>327</v>
-      </c>
-      <c r="P117" t="s">
+      <c r="Q117" t="s">
         <v>1847</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="R117" t="s">
         <v>1848</v>
       </c>
-      <c r="R117" t="s">
+      <c r="S117" t="s">
         <v>1849</v>
       </c>
-      <c r="S117" t="s">
+      <c r="T117" t="s">
         <v>1850</v>
       </c>
-      <c r="T117" t="s">
+      <c r="U117" t="s">
         <v>1851</v>
       </c>
-      <c r="U117" t="s">
-        <v>1846</v>
-      </c>
       <c r="V117" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W117" t="s">
         <v>1852</v>
@@ -19227,10 +19195,10 @@
         <v>1855</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F118" t="s">
         <v>324</v>
@@ -19245,16 +19213,16 @@
         <v>1857</v>
       </c>
       <c r="J118" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K118" t="s">
-        <v>326</v>
+        <v>1858</v>
       </c>
       <c r="L118" t="b">
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="N118" t="s">
         <v>327</v>
@@ -19263,22 +19231,22 @@
         <v>327</v>
       </c>
       <c r="P118" t="s">
+        <v>1860</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>1861</v>
+      </c>
+      <c r="R118" t="s">
+        <v>1862</v>
+      </c>
+      <c r="S118" t="s">
+        <v>1863</v>
+      </c>
+      <c r="T118" t="s">
+        <v>1864</v>
+      </c>
+      <c r="U118" t="s">
         <v>1859</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>1860</v>
-      </c>
-      <c r="R118" t="s">
-        <v>1861</v>
-      </c>
-      <c r="S118" t="s">
-        <v>1862</v>
-      </c>
-      <c r="T118" t="s">
-        <v>1863</v>
-      </c>
-      <c r="U118" t="s">
-        <v>1864</v>
       </c>
       <c r="V118" t="s">
         <v>342</v>
@@ -19298,10 +19266,10 @@
         <v>1868</v>
       </c>
       <c r="D119">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="E119">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
         <v>324</v>
@@ -19316,40 +19284,40 @@
         <v>1870</v>
       </c>
       <c r="J119" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K119" t="s">
+        <v>348</v>
+      </c>
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
         <v>1871</v>
       </c>
-      <c r="L119" t="b">
-        <v>0</v>
-      </c>
-      <c r="M119" t="s">
+      <c r="N119" t="s">
+        <v>327</v>
+      </c>
+      <c r="O119" t="s">
+        <v>327</v>
+      </c>
+      <c r="P119" t="s">
         <v>1872</v>
       </c>
-      <c r="N119" t="s">
-        <v>327</v>
-      </c>
-      <c r="O119" t="s">
-        <v>327</v>
-      </c>
-      <c r="P119" t="s">
+      <c r="Q119" t="s">
         <v>1873</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="R119" t="s">
         <v>1874</v>
       </c>
-      <c r="R119" t="s">
+      <c r="S119" t="s">
         <v>1875</v>
       </c>
-      <c r="S119" t="s">
+      <c r="T119" t="s">
         <v>1876</v>
       </c>
-      <c r="T119" t="s">
+      <c r="U119" t="s">
         <v>1877</v>
-      </c>
-      <c r="U119" t="s">
-        <v>1872</v>
       </c>
       <c r="V119" t="s">
         <v>342</v>
@@ -19369,10 +19337,10 @@
         <v>1881</v>
       </c>
       <c r="D120">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="E120">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
         <v>324</v>
@@ -19387,16 +19355,16 @@
         <v>1883</v>
       </c>
       <c r="J120" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K120" t="s">
-        <v>348</v>
+        <v>1884</v>
       </c>
       <c r="L120" t="b">
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="N120" t="s">
         <v>327</v>
@@ -19405,45 +19373,45 @@
         <v>327</v>
       </c>
       <c r="P120" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="Q120" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="R120" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="S120" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="T120" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="U120" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="V120" t="s">
-        <v>342</v>
+        <v>663</v>
       </c>
       <c r="W120" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B121" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C121" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="D121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E121">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F121" t="s">
         <v>324</v>
@@ -19452,16 +19420,16 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="I121" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="J121" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K121" t="s">
-        <v>1897</v>
+        <v>348</v>
       </c>
       <c r="L121" t="b">
         <v>0</v>
@@ -19494,7 +19462,7 @@
         <v>1904</v>
       </c>
       <c r="V121" t="s">
-        <v>676</v>
+        <v>342</v>
       </c>
       <c r="W121" t="s">
         <v>1905</v>
@@ -19529,7 +19497,7 @@
         <v>1910</v>
       </c>
       <c r="J122" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="K122" t="s">
         <v>348</v>
@@ -19582,10 +19550,10 @@
         <v>1921</v>
       </c>
       <c r="D123">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
         <v>324</v>
@@ -19600,10 +19568,10 @@
         <v>1923</v>
       </c>
       <c r="J123" t="s">
-        <v>1618</v>
+        <v>252</v>
       </c>
       <c r="K123" t="s">
-        <v>348</v>
+        <v>921</v>
       </c>
       <c r="L123" t="b">
         <v>0</v>
@@ -19612,51 +19580,51 @@
         <v>1924</v>
       </c>
       <c r="N123" t="s">
-        <v>327</v>
+        <v>1925</v>
       </c>
       <c r="O123" t="s">
         <v>327</v>
       </c>
       <c r="P123" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="Q123" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="R123" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="S123" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="T123" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="U123" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="V123" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W123" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B124" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C124" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
         <v>324</v>
@@ -19665,69 +19633,69 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="I124" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="J124" t="s">
         <v>252</v>
       </c>
       <c r="K124" t="s">
-        <v>934</v>
+        <v>348</v>
       </c>
       <c r="L124" t="b">
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="N124" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="O124" t="s">
         <v>327</v>
       </c>
       <c r="P124" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="Q124" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="R124" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="S124" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="T124" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="U124" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="V124" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W124" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B125" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C125" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F125" t="s">
         <v>324</v>
@@ -19736,10 +19704,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="I125" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="J125" t="s">
         <v>252</v>
@@ -19751,10 +19719,10 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="N125" t="s">
-        <v>1952</v>
+        <v>327</v>
       </c>
       <c r="O125" t="s">
         <v>327</v>
@@ -19795,10 +19763,10 @@
         <v>1962</v>
       </c>
       <c r="D126">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E126">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
         <v>324</v>
@@ -19866,10 +19834,10 @@
         <v>1975</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
         <v>324</v>
@@ -19887,7 +19855,7 @@
         <v>252</v>
       </c>
       <c r="K127" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L127" t="b">
         <v>0</v>
@@ -19896,42 +19864,42 @@
         <v>1978</v>
       </c>
       <c r="N127" t="s">
-        <v>327</v>
+        <v>1979</v>
       </c>
       <c r="O127" t="s">
-        <v>327</v>
+        <v>1979</v>
       </c>
       <c r="P127" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="Q127" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="R127" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="S127" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="T127" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="U127" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="V127" t="s">
         <v>342</v>
       </c>
       <c r="W127" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B128" t="s">
-        <v>1987</v>
+        <v>259</v>
       </c>
       <c r="C128" t="s">
         <v>1988</v>
@@ -19958,7 +19926,7 @@
         <v>252</v>
       </c>
       <c r="K128" t="s">
-        <v>326</v>
+        <v>1858</v>
       </c>
       <c r="L128" t="b">
         <v>0</v>
@@ -19970,48 +19938,48 @@
         <v>1992</v>
       </c>
       <c r="O128" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="P128" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="Q128" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="R128" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="S128" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="T128" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="U128" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="V128" t="s">
         <v>342</v>
       </c>
       <c r="W128" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>2002</v>
       </c>
       <c r="C129" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="F129" t="s">
         <v>324</v>
@@ -20020,69 +19988,69 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="I129" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="J129" t="s">
         <v>252</v>
       </c>
       <c r="K129" t="s">
-        <v>1871</v>
+        <v>348</v>
       </c>
       <c r="L129" t="b">
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="N129" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O129" t="s">
-        <v>2006</v>
+        <v>327</v>
       </c>
       <c r="P129" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="Q129" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="R129" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="S129" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="T129" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="U129" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="V129" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W129" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B130" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C130" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="E130">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
         <v>324</v>
@@ -20091,13 +20059,13 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="I130" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J130" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="K130" t="s">
         <v>348</v>
@@ -20106,10 +20074,10 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="N130" t="s">
-        <v>2020</v>
+        <v>327</v>
       </c>
       <c r="O130" t="s">
         <v>327</v>
@@ -20133,7 +20101,7 @@
         <v>2026</v>
       </c>
       <c r="V130" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W130" t="s">
         <v>2027</v>
@@ -20150,10 +20118,10 @@
         <v>2030</v>
       </c>
       <c r="D131">
-        <v>3.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E131">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F131" t="s">
         <v>324</v>
@@ -20171,7 +20139,7 @@
         <v>265</v>
       </c>
       <c r="K131" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L131" t="b">
         <v>0</v>
@@ -20180,51 +20148,51 @@
         <v>2033</v>
       </c>
       <c r="N131" t="s">
-        <v>327</v>
+        <v>2034</v>
       </c>
       <c r="O131" t="s">
         <v>327</v>
       </c>
       <c r="P131" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="Q131" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="R131" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="S131" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="T131" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="U131" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="V131" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W131" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B132" t="s">
-        <v>2042</v>
+        <v>268</v>
       </c>
       <c r="C132" t="s">
         <v>2043</v>
       </c>
       <c r="D132">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F132" t="s">
         <v>324</v>
@@ -20239,63 +20207,63 @@
         <v>2045</v>
       </c>
       <c r="J132" t="s">
-        <v>265</v>
+        <v>2046</v>
       </c>
       <c r="K132" t="s">
-        <v>326</v>
+        <v>2047</v>
       </c>
       <c r="L132" t="b">
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="N132" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="O132" t="s">
         <v>327</v>
       </c>
       <c r="P132" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="Q132" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="R132" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="S132" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="T132" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="U132" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="V132" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W132" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>2058</v>
       </c>
       <c r="C133" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E133">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
         <v>324</v>
@@ -20304,25 +20272,25 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="I133" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="J133" t="s">
-        <v>2059</v>
+        <v>271</v>
       </c>
       <c r="K133" t="s">
-        <v>2060</v>
+        <v>348</v>
       </c>
       <c r="L133" t="b">
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="N133" t="s">
-        <v>2062</v>
+        <v>327</v>
       </c>
       <c r="O133" t="s">
         <v>327</v>
@@ -20357,16 +20325,16 @@
         <v>2070</v>
       </c>
       <c r="B134" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" t="s">
         <v>2071</v>
       </c>
-      <c r="C134" t="s">
-        <v>2072</v>
-      </c>
       <c r="D134">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
         <v>324</v>
@@ -20375,69 +20343,69 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I134" t="s">
         <v>2073</v>
-      </c>
-      <c r="I134" t="s">
-        <v>2074</v>
       </c>
       <c r="J134" t="s">
         <v>271</v>
       </c>
       <c r="K134" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L134" t="b">
         <v>0</v>
       </c>
       <c r="M134" t="s">
+        <v>2074</v>
+      </c>
+      <c r="N134" t="s">
+        <v>327</v>
+      </c>
+      <c r="O134" t="s">
+        <v>327</v>
+      </c>
+      <c r="P134" t="s">
         <v>2075</v>
       </c>
-      <c r="N134" t="s">
-        <v>327</v>
-      </c>
-      <c r="O134" t="s">
-        <v>327</v>
-      </c>
-      <c r="P134" t="s">
+      <c r="Q134" t="s">
         <v>2076</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="R134" t="s">
         <v>2077</v>
       </c>
-      <c r="R134" t="s">
+      <c r="S134" t="s">
         <v>2078</v>
       </c>
-      <c r="S134" t="s">
+      <c r="T134" t="s">
         <v>2079</v>
       </c>
-      <c r="T134" t="s">
+      <c r="U134" t="s">
         <v>2080</v>
-      </c>
-      <c r="U134" t="s">
-        <v>2081</v>
       </c>
       <c r="V134" t="s">
         <v>342</v>
       </c>
       <c r="W134" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B135" t="s">
         <v>2083</v>
-      </c>
-      <c r="B135" t="s">
-        <v>274</v>
       </c>
       <c r="C135" t="s">
         <v>2084</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F135" t="s">
         <v>324</v>
@@ -20467,7 +20435,7 @@
         <v>327</v>
       </c>
       <c r="O135" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P135" t="s">
         <v>2088</v>
@@ -20505,10 +20473,10 @@
         <v>2097</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F136" t="s">
         <v>324</v>
@@ -20538,7 +20506,7 @@
         <v>327</v>
       </c>
       <c r="O136" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P136" t="s">
         <v>2101</v>
@@ -20559,7 +20527,7 @@
         <v>2106</v>
       </c>
       <c r="V136" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W136" t="s">
         <v>2107</v>
@@ -20576,10 +20544,10 @@
         <v>2110</v>
       </c>
       <c r="D137">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="E137">
-        <v>27</v>
+        <v>802</v>
       </c>
       <c r="F137" t="s">
         <v>324</v>
@@ -20597,7 +20565,7 @@
         <v>271</v>
       </c>
       <c r="K137" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L137" t="b">
         <v>0</v>
@@ -20606,51 +20574,51 @@
         <v>2113</v>
       </c>
       <c r="N137" t="s">
-        <v>327</v>
+        <v>2114</v>
       </c>
       <c r="O137" t="s">
-        <v>327</v>
+        <v>2115</v>
       </c>
       <c r="P137" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="Q137" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="R137" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="S137" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="T137" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="U137" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="V137" t="s">
         <v>395</v>
       </c>
       <c r="W137" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="B138" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="C138" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="D138">
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E138">
-        <v>802</v>
+        <v>6</v>
       </c>
       <c r="F138" t="s">
         <v>324</v>
@@ -20659,69 +20627,69 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="I138" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="J138" t="s">
         <v>271</v>
       </c>
       <c r="K138" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L138" t="b">
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="N138" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="O138" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="P138" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="Q138" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="R138" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="S138" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="T138" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="U138" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="V138" t="s">
         <v>395</v>
       </c>
       <c r="W138" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="B139" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="C139" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="D139">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="E139">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F139" t="s">
         <v>324</v>
@@ -20730,28 +20698,28 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="I139" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="J139" t="s">
         <v>271</v>
       </c>
       <c r="K139" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L139" t="b">
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="N139" t="s">
-        <v>2142</v>
+        <v>327</v>
       </c>
       <c r="O139" t="s">
-        <v>2143</v>
+        <v>327</v>
       </c>
       <c r="P139" t="s">
         <v>2144</v>
@@ -20789,10 +20757,10 @@
         <v>2153</v>
       </c>
       <c r="D140">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="E140">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F140" t="s">
         <v>324</v>
@@ -20810,7 +20778,7 @@
         <v>271</v>
       </c>
       <c r="K140" t="s">
-        <v>348</v>
+        <v>1394</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -20843,7 +20811,7 @@
         <v>2162</v>
       </c>
       <c r="V140" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W140" t="s">
         <v>2163</v>
@@ -20860,10 +20828,10 @@
         <v>2166</v>
       </c>
       <c r="D141">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="F141" t="s">
         <v>324</v>
@@ -20881,7 +20849,7 @@
         <v>271</v>
       </c>
       <c r="K141" t="s">
-        <v>1407</v>
+        <v>326</v>
       </c>
       <c r="L141" t="b">
         <v>0</v>
@@ -20893,7 +20861,7 @@
         <v>327</v>
       </c>
       <c r="O141" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P141" t="s">
         <v>2170</v>
@@ -20931,10 +20899,10 @@
         <v>2179</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F142" t="s">
         <v>324</v>
@@ -20949,10 +20917,10 @@
         <v>2181</v>
       </c>
       <c r="J142" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K142" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L142" t="b">
         <v>0</v>
@@ -20964,7 +20932,7 @@
         <v>327</v>
       </c>
       <c r="O142" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P142" t="s">
         <v>2183</v>
@@ -21002,10 +20970,10 @@
         <v>2192</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F143" t="s">
         <v>324</v>
@@ -21073,10 +21041,10 @@
         <v>2205</v>
       </c>
       <c r="D144">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F144" t="s">
         <v>324</v>
@@ -21144,10 +21112,10 @@
         <v>2218</v>
       </c>
       <c r="D145">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F145" t="s">
         <v>324</v>
@@ -21162,16 +21130,16 @@
         <v>2220</v>
       </c>
       <c r="J145" t="s">
-        <v>284</v>
+        <v>2221</v>
       </c>
       <c r="K145" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L145" t="b">
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="N145" t="s">
         <v>327</v>
@@ -21180,45 +21148,45 @@
         <v>327</v>
       </c>
       <c r="P145" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="Q145" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="R145" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="S145" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="T145" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="U145" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="V145" t="s">
         <v>342</v>
       </c>
       <c r="W145" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="B146" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="C146" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E146">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
         <v>324</v>
@@ -21227,16 +21195,16 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="I146" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="J146" t="s">
-        <v>2234</v>
+        <v>2221</v>
       </c>
       <c r="K146" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L146" t="b">
         <v>0</v>
@@ -21269,7 +21237,7 @@
         <v>2241</v>
       </c>
       <c r="V146" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W146" t="s">
         <v>2242</v>
@@ -21286,10 +21254,10 @@
         <v>2245</v>
       </c>
       <c r="D147">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F147" t="s">
         <v>324</v>
@@ -21304,10 +21272,10 @@
         <v>2247</v>
       </c>
       <c r="J147" t="s">
-        <v>2234</v>
+        <v>293</v>
       </c>
       <c r="K147" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L147" t="b">
         <v>0</v>
@@ -21316,51 +21284,51 @@
         <v>2248</v>
       </c>
       <c r="N147" t="s">
-        <v>327</v>
+        <v>2249</v>
       </c>
       <c r="O147" t="s">
-        <v>327</v>
+        <v>2250</v>
       </c>
       <c r="P147" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="Q147" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="R147" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="S147" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="T147" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="U147" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="V147" t="s">
         <v>395</v>
       </c>
       <c r="W147" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="B148" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="C148" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E148">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="F148" t="s">
         <v>324</v>
@@ -21369,28 +21337,28 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="I148" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="J148" t="s">
         <v>293</v>
       </c>
       <c r="K148" t="s">
-        <v>326</v>
+        <v>1394</v>
       </c>
       <c r="L148" t="b">
         <v>0</v>
       </c>
       <c r="M148" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="N148" t="s">
-        <v>2262</v>
+        <v>327</v>
       </c>
       <c r="O148" t="s">
-        <v>2263</v>
+        <v>327</v>
       </c>
       <c r="P148" t="s">
         <v>2264</v>
@@ -21411,7 +21379,7 @@
         <v>2269</v>
       </c>
       <c r="V148" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="W148" t="s">
         <v>2270</v>
@@ -21428,10 +21396,10 @@
         <v>2273</v>
       </c>
       <c r="D149">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E149">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="F149" t="s">
         <v>324</v>
@@ -21449,7 +21417,7 @@
         <v>293</v>
       </c>
       <c r="K149" t="s">
-        <v>1407</v>
+        <v>348</v>
       </c>
       <c r="L149" t="b">
         <v>0</v>
@@ -21499,10 +21467,10 @@
         <v>2286</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F150" t="s">
         <v>324</v>
@@ -21520,7 +21488,7 @@
         <v>293</v>
       </c>
       <c r="K150" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L150" t="b">
         <v>0</v>
@@ -21532,7 +21500,7 @@
         <v>327</v>
       </c>
       <c r="O150" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="P150" t="s">
         <v>2290</v>
@@ -21553,7 +21521,7 @@
         <v>2295</v>
       </c>
       <c r="V150" t="s">
-        <v>342</v>
+        <v>663</v>
       </c>
       <c r="W150" t="s">
         <v>2296</v>
@@ -21570,10 +21538,10 @@
         <v>2299</v>
       </c>
       <c r="D151">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="E151">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
         <v>324</v>
@@ -21588,7 +21556,7 @@
         <v>2301</v>
       </c>
       <c r="J151" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K151" t="s">
         <v>326</v>
@@ -21600,51 +21568,51 @@
         <v>2302</v>
       </c>
       <c r="N151" t="s">
-        <v>327</v>
+        <v>2303</v>
       </c>
       <c r="O151" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="P151" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="Q151" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="R151" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="S151" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="T151" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="U151" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="V151" t="s">
-        <v>676</v>
+        <v>342</v>
       </c>
       <c r="W151" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="B152" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="C152" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="D152">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="E152">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F152" t="s">
         <v>324</v>
@@ -21653,10 +21621,10 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="I152" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="J152" t="s">
         <v>299</v>
@@ -21668,108 +21636,37 @@
         <v>0</v>
       </c>
       <c r="M152" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="N152" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="O152" t="s">
         <v>327</v>
       </c>
       <c r="P152" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="Q152" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="R152" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="S152" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="T152" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="U152" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="V152" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="W152" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
         <v>2324</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2325</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2326</v>
-      </c>
-      <c r="D153">
-        <v>2.9</v>
-      </c>
-      <c r="E153">
-        <v>18</v>
-      </c>
-      <c r="F153" t="s">
-        <v>324</v>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
-      </c>
-      <c r="H153" t="s">
-        <v>2327</v>
-      </c>
-      <c r="I153" t="s">
-        <v>2328</v>
-      </c>
-      <c r="J153" t="s">
-        <v>299</v>
-      </c>
-      <c r="K153" t="s">
-        <v>326</v>
-      </c>
-      <c r="L153" t="b">
-        <v>0</v>
-      </c>
-      <c r="M153" t="s">
-        <v>2329</v>
-      </c>
-      <c r="N153" t="s">
-        <v>2330</v>
-      </c>
-      <c r="O153" t="s">
-        <v>327</v>
-      </c>
-      <c r="P153" t="s">
-        <v>2331</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>2332</v>
-      </c>
-      <c r="R153" t="s">
-        <v>2333</v>
-      </c>
-      <c r="S153" t="s">
-        <v>2334</v>
-      </c>
-      <c r="T153" t="s">
-        <v>2335</v>
-      </c>
-      <c r="U153" t="s">
-        <v>2336</v>
-      </c>
-      <c r="V153" t="s">
-        <v>395</v>
-      </c>
-      <c r="W153" t="s">
-        <v>2337</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_2022/dataset_Vitas_plus_large.xlsx
+++ b/dataset_2022/dataset_Vitas_plus_large.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\4-Elevate\GPT4_vitas\dataset_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\6-VUI_problem\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320FB8CD-663D-4FD1-9122-4B75D84C3DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92198FC-6EEE-43B8-8C74-C199BA722FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9980" yWindow="0" windowWidth="14360" windowHeight="15280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elevate(large)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="2161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="2059">
   <si>
     <t>skill name</t>
   </si>
@@ -2024,45 +2024,6 @@
     <t>{"0": "MOIMYTBBV21TO"}</t>
   </si>
   <si>
-    <t>B07Z8FL61S</t>
-  </si>
-  <si>
-    <t>Sourdough discard</t>
-  </si>
-  <si>
-    <t>Sergi Mola</t>
-  </si>
-  <si>
-    <t>{"en-US": ["\u201dAlexa ask sourdough discard ingredients\u201d", "\u201dAlexa tell sourdough discard begin cooking\u201d"]}</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61FHClfqzXL.png</t>
-  </si>
-  <si>
-    <t>{"en-US": "sourdough discard"}</t>
-  </si>
-  <si>
-    <t>{"en-US": "Sourdough discard will show you how to make Buttery Sourdough Sandwich Biscuits with discard sourdough from your regular feds.  You can ask for the list of ingredients, or just say begin cooking if you are ready to start."}</t>
-  </si>
-  <si>
-    <t>{"en-US": "Stop throwing away your sourdough discard. Just ask Sourdough discard what to make with it."}</t>
-  </si>
-  <si>
-    <t>Stop throwing away your sourdough discard. Just ask Sourdough discard what to make with it.</t>
-  </si>
-  <si>
-    <t>2019-10-17T19:25:22Z</t>
-  </si>
-  <si>
-    <t>2019-10-17T18:56:17Z</t>
-  </si>
-  <si>
-    <t>{"en-US": "Sourdough discard"}</t>
-  </si>
-  <si>
-    <t>{"0": "M1UMH1Z2A2HEJZ"}</t>
-  </si>
-  <si>
     <t>B01MUE6SDQ</t>
   </si>
   <si>
@@ -3485,45 +3446,6 @@
     <t>{"0": "M3FV3YR4TZXHG7"}</t>
   </si>
   <si>
-    <t>B07Q1N51C7</t>
-  </si>
-  <si>
-    <t>My birthday present</t>
-  </si>
-  <si>
-    <t>Packy76</t>
-  </si>
-  <si>
-    <t>{"en-US": ["\u201dAlexa, open my birthday\u201d", "\u201dAlexa, start my birthday\u201d"]}</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51Hn8WzxJML.png</t>
-  </si>
-  <si>
-    <t>{"en-US": "my birthday"}</t>
-  </si>
-  <si>
-    <t>{"en-US": "Celebrate special occasions with your loved ones. When you open the skill, Alexa will play a slideshow with rich images and audio. You can say \"Alexa, stop\" to exit anytime."}</t>
-  </si>
-  <si>
-    <t>{"en-US": "A special birthday card made just for a special someone."}</t>
-  </si>
-  <si>
-    <t>A special birthday card made just for a special someone.</t>
-  </si>
-  <si>
-    <t>2019-03-20T03:00:00Z</t>
-  </si>
-  <si>
-    <t>2019-03-19T09:25:42Z</t>
-  </si>
-  <si>
-    <t>{"en-US": "My birthday present"}</t>
-  </si>
-  <si>
-    <t>{"0": "M2NYFZ20P7ZGZU"}</t>
-  </si>
-  <si>
     <t>B078X6MB3R</t>
   </si>
   <si>
@@ -3566,45 +3488,6 @@
     <t>{"0": "M2RSY2GG6FPTZG"}</t>
   </si>
   <si>
-    <t>B01N4EKUOI</t>
-  </si>
-  <si>
-    <t>activity finder</t>
-  </si>
-  <si>
-    <t>greenspagetti</t>
-  </si>
-  <si>
-    <t>{"en-CA": ["\u201dalexa start activity finder\u201d", "\u201dalexa ask activity finder\u201d"], "en-US": ["\u201dalexa start activity finder\u201d", "\u201dalexa ask activity finder\u201d"], "en-IN": ["\u201dalexa start activity finder\u201d", "\u201dalexa ask activity finder\u201d"], "en-GB": ["\u201dalexa start activity finder\u201d", "\u201dalexa ask activity finder\u201d"]}</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/718enV9Up4L.png</t>
-  </si>
-  <si>
-    <t>{"en-IN": "activity finder", "en-US": "activity finder", "en-CA": "activity finder", "en-GB": "activity finder"}</t>
-  </si>
-  <si>
-    <t>{"en-IN": "If you are looking for something to do, let this skill give you some ideas.", "en-CA": "If you are looking for something to do, let this skill give you some ideas.", "en-US": "If you are looking for something to do, let this skill give you some ideas.", "en-GB": "If you are looking for something to do, let this skill give you some ideas."}</t>
-  </si>
-  <si>
-    <t>{"en-IN": "find a fun activity to do if you are bored", "en-CA": "find a fun activity to do if you are bored", "en-US": "find a fun activity to do if you are bored", "en-GB": "find a fun activity to do if you are bored"}</t>
-  </si>
-  <si>
-    <t>find a fun activity to do if you are bored</t>
-  </si>
-  <si>
-    <t>2016-12-17T08:11:53Z</t>
-  </si>
-  <si>
-    <t>2016-12-16T07:14:09Z</t>
-  </si>
-  <si>
-    <t>{"en-IN": "activity finder", "en-CA": "activity finder", "en-US": "activity finder", "en-GB": "activity finder"}</t>
-  </si>
-  <si>
-    <t>{"0": "M232TKLMSDFCD1"}</t>
-  </si>
-  <si>
     <t>B08BJYN2GJ</t>
   </si>
   <si>
@@ -4895,45 +4778,6 @@
     <t>{"0": "M1T4MESR9BRYCF"}</t>
   </si>
   <si>
-    <t>B08L9B1VHG</t>
-  </si>
-  <si>
-    <t>Roast me daddy</t>
-  </si>
-  <si>
-    <t>Jordan Morrill</t>
-  </si>
-  <si>
-    <t>{"en-US": ["\u201dAlexa, open the roast session\u201d", "\u201dAlexa, start the roast session\u201d", "\u201dAlexa, ask the roast session for a burn\u201d"]}</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51MxSdV3AmL.png</t>
-  </si>
-  <si>
-    <t>{"en-US": "the roast session"}</t>
-  </si>
-  <si>
-    <t>{"en-US": "Try these lighthearted burns to add more fun to your day. When using the skill, you can say \"Alexa, next\" to move to the next burn. At any point, you can say \"Alexa, stop\" to exit the skill.\nThis skill was created using a Skill Blueprint. Your requests to this skill are not shared with the skill developer."}</t>
-  </si>
-  <si>
-    <t>{"en-US": "In case you\u2019re feeling too good and need Alexa to destroy your self esteem"}</t>
-  </si>
-  <si>
-    <t>In case you鈥檙e feeling too good and need Alexa to destroy your self esteem</t>
-  </si>
-  <si>
-    <t>2020-10-16T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2020-10-15T22:07:20Z</t>
-  </si>
-  <si>
-    <t>{"en-US": "Roast me daddy"}</t>
-  </si>
-  <si>
-    <t>{"0": "M3F48G216TJ5EU"}</t>
-  </si>
-  <si>
     <t>B09NNQWKS4</t>
   </si>
   <si>
@@ -6059,45 +5903,6 @@
     <t>{"0": "M1WJSIKOU8IIAZ"}</t>
   </si>
   <si>
-    <t>B01DRPR82M</t>
-  </si>
-  <si>
-    <t>World Cup Soccer Trivia</t>
-  </si>
-  <si>
-    <t>OCAELS</t>
-  </si>
-  <si>
-    <t>{"en-CA": ["\u201dAlexa, start soccer trivia\u201d", "\u201dAlexa, launch soccer trivia\u201d", "\u201dAlexa, open soccer trivia\u201d"], "en-US": ["\u201dAlexa, start soccer trivia\u201d", "\u201dAlexa, launch soccer trivia\u201d", "\u201dAlexa, open soccer trivia\u201d"], "en-IN": ["\u201dAlexa, start soccer trivia\u201d", "\u201dAlexa, launch soccer trivia\u201d", "\u201dAlexa, open soccer trivia\u201d"], "en-AU": ["\u201dAlexa, start soccer trivia\u201d", "\u201dAlexa, launch soccer trivia\u201d", "\u201dAlexa, open soccer trivia\u201d"], "en-GB": ["\u201dAlexa, start soccer trivia\u201d", "\u201dAlexa, launch soccer trivia\u201d", "\u201dAlexa, open soccer trivia\u201d"]}</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/716km0i-IKL.png</t>
-  </si>
-  <si>
-    <t>{"en-IN": "soccer trivia", "en-AU": "soccer trivia", "en-US": "soccer trivia", "en-CA": "soccer trivia", "en-GB": "soccer trivia"}</t>
-  </si>
-  <si>
-    <t>{"en-IN": "If you are a soccer fan and you like keeping up to date with world cup tournaments and players, this is the quiz to put your knowledge to the test. \n\nIf you don't know that much, this quiz will help you to learn more about the world of soccer. In every quiz, you will get 5 questions to answer, testing your knowledge. \n\nKeep coming back for more, because each set of 5 questions are randomly selected from a large pool of questions!\n\nYou can answer the questions with phrases like:\n\"The answer is &lt;one&gt;\"\n\"My answer is &lt;two&gt;\"\n\"Is it &lt;three&gt;\"\n\"&lt;four&gt; is my answer\"", "en-AU": "If you are a soccer fan and you like keeping up to date with world cup tournaments and players, this is the quiz to put your knowledge to the test. \n\nIf you don't know that much, this quiz will help you to learn more about the world of soccer. In every quiz, you will get 5 questions to answer, testing your knowledge. \n\nKeep coming back for more, because each set of 5 questions are randomly selected from a large pool of questions!\n\nYou can answer the questions with phrases like:\n\"The answer is &lt;one&gt;\"\n\"My answer is &lt;two&gt;\"\n\"Is it &lt;three&gt;\"\n\"&lt;four&gt; is my answer\"", "en-CA": "If you are a soccer fan and you like keeping up to date with world cup tournaments and players, this is the quiz to put your knowledge to the test. \n\nIf you don't know that much, this quiz will help you to learn more about the world of soccer. In every quiz, you will get 5 questions to answer, testing your knowledge. \n\nKeep coming back for more, because each set of 5 questions are randomly selected from a large pool of questions!\n\nYou can answer the questions with phrases like:\n\"The answer is &lt;one&gt;\"\n\"My answer is &lt;two&gt;\"\n\"Is it &lt;three&gt;\"\n\"&lt;four&gt; is my answer\"", "en-US": "If you are a soccer fan and you like keeping up to date with world cup tournaments and players, this is the quiz to put your knowledge to the test. \n\nIf you don't know that much, this quiz will help you to learn more about the world of soccer. In every quiz, you will get 5 questions to answer, testing your knowledge. \n\nKeep coming back for more, because each set of 5 questions are randomly selected from a large pool of questions!\n\nYou can answer the questions with phrases like:\n\"The answer is &lt;one&gt;\"\n\"My answer is &lt;two&gt;\"\n\"Is it &lt;three&gt;\"\n\"&lt;four&gt; is my answer\"", "en-GB": "If you are a soccer fan and you like keeping up to date with world cup tournaments and players, this is the quiz to put your knowledge to the test. \n\nIf you don't know that much, this quiz will help you to learn more about the world of soccer. In every quiz, you will get 5 questions to answer, testing your knowledge. \n\nKeep coming back for more, because each set of 5 questions are randomly selected from a large pool of questions!\n\nYou can answer the questions with phrases like:\n\"The answer is &lt;one&gt;\"\n\"My answer is &lt;two&gt;\"\n\"Is it &lt;three&gt;\"\n\"&lt;four&gt; is my answer\""}</t>
-  </si>
-  <si>
-    <t>{"en-IN": "Test your  knowledge of soccer with a series of questions around the world cup and soccer players", "en-AU": "Test your  knowledge of soccer with a series of questions around the world cup and soccer players", "en-CA": "Test your  knowledge of soccer with a series of questions around the world cup and soccer players", "en-US": "Test your  knowledge of soccer with a series of questions around the world cup and soccer players", "en-GB": "Test your  knowledge of soccer with a series of questions around the world cup and soccer players"}</t>
-  </si>
-  <si>
-    <t>Test your knowledge of soccer with a series of questions around the world cup and soccer players</t>
-  </si>
-  <si>
-    <t>2016-04-07T08:22:31Z</t>
-  </si>
-  <si>
-    <t>2016-04-06T00:37:31Z</t>
-  </si>
-  <si>
-    <t>{"en-IN": "World Cup Soccer Trivia", "en-AU": "World Cup Soccer Trivia", "en-CA": "World Cup Soccer Trivia", "en-US": "World Cup Soccer Trivia", "en-GB": "World Cup Soccer Trivia"}</t>
-  </si>
-  <si>
-    <t>{"0": "M1ES40O91JLFLU"}</t>
-  </si>
-  <si>
     <t>B07K4CGBTX</t>
   </si>
   <si>
@@ -6338,48 +6143,6 @@
     <t>{"0": "MOOADHQJYFPBM"}</t>
   </si>
   <si>
-    <t>B074MDT4YG</t>
-  </si>
-  <si>
-    <t>Should I Wear Pants ?</t>
-  </si>
-  <si>
-    <t>John Van Dyke</t>
-  </si>
-  <si>
-    <t>{"en-US": ["\u201dAlexa launch Should I Wear pants\u201d", "\u201dAlexa, ask should i wear pants if i should wear pants in 10011\u201d"]}</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61KNEajG7NL.png</t>
-  </si>
-  <si>
-    <t>{"en-US": "should i wear pants"}</t>
-  </si>
-  <si>
-    <t>{"en-US": "https://sites.google.com/view/spantshouldi/home"}</t>
-  </si>
-  <si>
-    <t>{"en-US": "Alexa will tell you if you can wear pants today !, She will tell you localy and in a remote location"}</t>
-  </si>
-  <si>
-    <t>{"en-US": "Alexa will tell you if you can wear pants today !"}</t>
-  </si>
-  <si>
-    <t>Alexa will tell you if you can wear pants today !</t>
-  </si>
-  <si>
-    <t>2017-08-08T07:20:59Z</t>
-  </si>
-  <si>
-    <t>2017-08-07T16:13:56Z</t>
-  </si>
-  <si>
-    <t>{"en-US": "Should I Wear Pants ?"}</t>
-  </si>
-  <si>
-    <t>{"0": "M33DGSE0YKLV0W"}</t>
-  </si>
-  <si>
     <t>B071V65Y43</t>
   </si>
   <si>
@@ -6411,37 +6174,16 @@
   </si>
   <si>
     <t>{"0": "M25AUGUMTXDRV"}</t>
-  </si>
-  <si>
-    <t>B0BXZ91SH2</t>
-  </si>
-  <si>
-    <t>MyGPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peter Götz</t>
   </si>
   <si>
     <t>{"en-US": ["\u201dAlexa, open star gazing\u201d", "\u201dcan I view the sky tonight?\u201d", "\u201dis the sky clear tonight?\u201d"]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"en-US": ["\u201dAlexa, open my g. p. t.\u201d", "\u201dAlexa, ask my g. p. t. how tall the Eiffel Tower is\u201d"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51svHsDX+wL.png</t>
-  </si>
-  <si>
     <t>Weather</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Education &amp; Reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"en-US": "English (US)"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6454,86 +6196,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"en-IN": "my g. p. t.", "en-AU": "my g. p. t.", "en-US": "my g. p. t.", "en-CA": "my g. p. t.", "en-GB": "my g. p. t."}</t>
-  </si>
-  <si>
-    <t>{"en-IN": "my g. p. t.", "en-AU": "my g. p. t.", "en-US": "my g. p. t.", "en-CA": "my g. p. t.", "en-GB": "my g. p. t."}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"en-US": "http://alexastargazingprivacypolicy.s3-website-eu-west-1.amazonaws.com/"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"en-US": "https://www.amazon.com.au/Peter-G%C3%B6tz-MyGPT/dp/B0BXZ91SH2/ref=sr_1_3?dib=eyJ2IjoiMSJ9.LX8r9IsQrx2qS2s3ZTXiyKciY0W5XK6urIKFFGpumHULYWA7yzAusWKuhBX-bHffrbq5dynQvlChGcLPG9jk_OAAWTJyW9idmKxIIFSxmJU.UZrWQlroBxhwPscYPYxqoyyrO5jnxqReYBLVx9WKVpM&amp;dib_tag=se&amp;keywords=gpt&amp;qid=1723693609&amp;s=digital-skills&amp;sr=1-3#"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"en-US": "A likelihood estimator, to help you assess if tonight is ok for stargazing and astrophotography.\n\nLiving in a highly light-polluted city environment, especially in the highly-humid &amp; cloudy countries, makes checking the night suitability for stargazing, an unpleasant chore. This skill can estimate a \"star-gazing\" quality index for your location. This indicator is generated using various parameters, such as: cloud coverage, day of the week, humidity, moon phase, precipitation and son on.\n\nJust ask Alexa and you will learn:\n- How good it will be for stargazing, with a score out of 10.\n- Which constellations can you see.\n- Which planets are visible tonight.\n- The top brightest messier objects for this night."}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"en-US": "This skill uses OpenAI's ChatGPT, a modern artificial intelligence language model, to have conversations that mimic those of a human conversational partner. The skill can be used both as a source of knowledge and as a conversation partner for any topic. He can also tell jokes if you want.\n\nExample conversation:\n\nUser: Alexa, open MyGPT.\nMyGPT: Okay, let's get started.\nUser: In three words, how would you describe the world\nMyGPT: Diverse, complex, unpredictable.\nUser: Any other thoughts\nMyGPT: The world is also beautiful, fascinating, and full of opportunities. It is important to approach it with an open mind and a willingness to learn and grow.\n\nThis skill is not an \"official\" skill and is not affiliated with OpenAI. It just uses the API provided by OpenAI. Under the hood, this skill uses OpenAI's Chat API (https://platform.openai.com/docs/api-reference/chat) with the \"gpt-3.5-turbo\" model."}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This skill uses OpenAI's ChatGPT, a modern artificial intelligence language model, to have conversations that mimic those of a human conversational partner. The skill can be used both as a source of knowledge and as a conversation partner for any topic. He can also tell jokes if you want.
-Example conversation:
-User: Alexa, open MyGPT.
-MyGPT: Okay, let's get started.
-User: In three words, how would you describe the world?
-MyGPT: Diverse, complex, unpredictable.
-User: Any other thoughts?
-MyGPT: The world is also beautiful, fascinating, and full of opportunities. It is important to approach it with an open mind and a willingness to learn and grow.
-This skill is not an "official" skill and is not affiliated with OpenAI. It just uses the API provided by OpenAI. Under the hood, this skill uses OpenAI's Chat API (https://platform.openai.com/docs/api-reference/chat) with the "gpt-3.5-turbo" model.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"currentPriceWithoutTaxCurrency": "USD", "currentPriceAmount": "0.00", "listPriceWithoutTaxAmount": "0.00", "listPriceCurrency": "USD", "listPriceAmount": "0.00", "listPriceWithoutTaxCurrency": "USD", "currentPriceCurrency": "USD", "currentPriceWithoutTaxAmount": "0.00", "currentWithoutTaxAmount": "0.00"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guidance_suggested</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComplimenterGPT</t>
-  </si>
-  <si>
-    <t>B0767M3YVQ</t>
-  </si>
-  <si>
-    <t>BrowerPower Labs</t>
-  </si>
-  <si>
-    <t>{"en-US": ["\u201dAlexa, give me a compliment\u201d"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51AX0QC16JL.png</t>
-  </si>
-  <si>
-    <t>Lifestyle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"en-IN": "give me a compliment", "en-AU": "give me a compliment", "en-US": "give me a compliment", "en-CA": "give me a compliment", "en-GB": "give me a compliment"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"en-US": "https://www.amazon.com.au/BrowerPower-Labs-Complimenter/dp/B0767M3YVQ/#"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"en-US": "I will generate a compliment using GPT 3.5 Turbo and deliver it to you using Alexa!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I will generate a compliment using GPT 3.5 Turbo and deliver it to you using Alexa!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10531,10 +10202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W139"/>
+  <dimension ref="A1:W131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10718,7 +10389,7 @@
         <v>333</v>
       </c>
       <c r="K3" t="s">
-        <v>2139</v>
+        <v>2054</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -12401,10 +12072,10 @@
         <v>669</v>
       </c>
       <c r="D27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E27">
         <v>5</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>330</v>
@@ -12422,7 +12093,7 @@
         <v>580</v>
       </c>
       <c r="K27" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -12472,7 +12143,7 @@
         <v>682</v>
       </c>
       <c r="D28">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -12490,63 +12161,63 @@
         <v>684</v>
       </c>
       <c r="J28" t="s">
-        <v>580</v>
+        <v>685</v>
       </c>
       <c r="K28" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N28" t="s">
         <v>353</v>
       </c>
       <c r="O28" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="P28" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q28" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="R28" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="S28" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="T28" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="U28" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="V28" t="s">
         <v>344</v>
       </c>
       <c r="W28" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B29" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C29" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D29">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>330</v>
@@ -12555,13 +12226,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="I29" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J29" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K29" t="s">
         <v>399</v>
@@ -12573,10 +12244,10 @@
         <v>699</v>
       </c>
       <c r="N29" t="s">
+        <v>433</v>
+      </c>
+      <c r="O29" t="s">
         <v>353</v>
-      </c>
-      <c r="O29" t="s">
-        <v>433</v>
       </c>
       <c r="P29" t="s">
         <v>700</v>
@@ -12605,19 +12276,19 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B30" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C30" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
         <v>330</v>
@@ -12626,52 +12297,52 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="I30" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="J30" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K30" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N30" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="O30" t="s">
         <v>353</v>
       </c>
       <c r="P30" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Q30" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="R30" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="S30" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T30" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="U30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="V30" t="s">
         <v>344</v>
       </c>
       <c r="W30" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -12685,10 +12356,10 @@
         <v>723</v>
       </c>
       <c r="D31">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="E31">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>330</v>
@@ -12703,7 +12374,7 @@
         <v>725</v>
       </c>
       <c r="J31" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K31" t="s">
         <v>351</v>
@@ -12715,51 +12386,51 @@
         <v>726</v>
       </c>
       <c r="N31" t="s">
-        <v>353</v>
+        <v>727</v>
       </c>
       <c r="O31" t="s">
-        <v>353</v>
+        <v>728</v>
       </c>
       <c r="P31" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="Q31" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="R31" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="S31" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="T31" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="U31" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="V31" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W31" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B32" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C32" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D32">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>330</v>
@@ -12768,13 +12439,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="I32" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="J32" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K32" t="s">
         <v>351</v>
@@ -12783,13 +12454,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N32" t="s">
-        <v>740</v>
+        <v>353</v>
       </c>
       <c r="O32" t="s">
-        <v>741</v>
+        <v>353</v>
       </c>
       <c r="P32" t="s">
         <v>742</v>
@@ -12810,7 +12481,7 @@
         <v>747</v>
       </c>
       <c r="V32" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W32" t="s">
         <v>748</v>
@@ -12827,10 +12498,10 @@
         <v>751</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="F33" t="s">
         <v>330</v>
@@ -12845,10 +12516,10 @@
         <v>753</v>
       </c>
       <c r="J33" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K33" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -12881,7 +12552,7 @@
         <v>760</v>
       </c>
       <c r="V33" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W33" t="s">
         <v>761</v>
@@ -12898,10 +12569,10 @@
         <v>764</v>
       </c>
       <c r="D34">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>330</v>
@@ -12916,7 +12587,7 @@
         <v>766</v>
       </c>
       <c r="J34" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K34" t="s">
         <v>399</v>
@@ -12931,7 +12602,7 @@
         <v>353</v>
       </c>
       <c r="O34" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="P34" t="s">
         <v>768</v>
@@ -12952,7 +12623,7 @@
         <v>773</v>
       </c>
       <c r="V34" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W34" t="s">
         <v>774</v>
@@ -12969,10 +12640,10 @@
         <v>777</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>330</v>
@@ -12987,7 +12658,7 @@
         <v>779</v>
       </c>
       <c r="J35" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K35" t="s">
         <v>399</v>
@@ -12996,13 +12667,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
+        <v>686</v>
+      </c>
+      <c r="N35" t="s">
         <v>780</v>
       </c>
-      <c r="N35" t="s">
-        <v>353</v>
-      </c>
       <c r="O35" t="s">
-        <v>433</v>
+        <v>780</v>
       </c>
       <c r="P35" t="s">
         <v>781</v>
@@ -13040,10 +12711,10 @@
         <v>790</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
         <v>330</v>
@@ -13058,7 +12729,7 @@
         <v>792</v>
       </c>
       <c r="J36" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K36" t="s">
         <v>399</v>
@@ -13067,13 +12738,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>699</v>
+        <v>793</v>
       </c>
       <c r="N36" t="s">
-        <v>793</v>
+        <v>353</v>
       </c>
       <c r="O36" t="s">
-        <v>793</v>
+        <v>353</v>
       </c>
       <c r="P36" t="s">
         <v>794</v>
@@ -13111,10 +12782,10 @@
         <v>803</v>
       </c>
       <c r="D37">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>330</v>
@@ -13129,10 +12800,10 @@
         <v>805</v>
       </c>
       <c r="J37" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K37" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -13185,7 +12856,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>330</v>
@@ -13200,10 +12871,10 @@
         <v>818</v>
       </c>
       <c r="J38" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K38" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -13212,51 +12883,51 @@
         <v>819</v>
       </c>
       <c r="N38" t="s">
-        <v>353</v>
+        <v>820</v>
       </c>
       <c r="O38" t="s">
-        <v>353</v>
+        <v>820</v>
       </c>
       <c r="P38" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q38" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="R38" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="S38" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="T38" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="U38" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="V38" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W38" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B39" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C39" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>330</v>
@@ -13265,69 +12936,69 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="I39" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J39" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K39" t="s">
-        <v>399</v>
+        <v>833</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="N39" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="O39" t="s">
-        <v>833</v>
+        <v>353</v>
       </c>
       <c r="P39" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>837</v>
+      </c>
+      <c r="R39" t="s">
+        <v>838</v>
+      </c>
+      <c r="S39" t="s">
+        <v>839</v>
+      </c>
+      <c r="T39" t="s">
+        <v>840</v>
+      </c>
+      <c r="U39" t="s">
         <v>834</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>835</v>
-      </c>
-      <c r="R39" t="s">
-        <v>836</v>
-      </c>
-      <c r="S39" t="s">
-        <v>837</v>
-      </c>
-      <c r="T39" t="s">
-        <v>838</v>
-      </c>
-      <c r="U39" t="s">
-        <v>839</v>
       </c>
       <c r="V39" t="s">
         <v>400</v>
       </c>
       <c r="W39" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B40" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C40" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D40">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="F40" t="s">
         <v>330</v>
@@ -13336,25 +13007,25 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I40" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J40" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K40" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="N40" t="s">
-        <v>848</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s">
         <v>353</v>
@@ -13375,30 +13046,30 @@
         <v>853</v>
       </c>
       <c r="U40" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="V40" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W40" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B41" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C41" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E41">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>330</v>
@@ -13407,16 +13078,16 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I41" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J41" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K41" t="s">
-        <v>860</v>
+        <v>351</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -13466,10 +13137,10 @@
         <v>871</v>
       </c>
       <c r="D42">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
         <v>330</v>
@@ -13484,7 +13155,7 @@
         <v>873</v>
       </c>
       <c r="J42" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K42" t="s">
         <v>351</v>
@@ -13496,51 +13167,51 @@
         <v>874</v>
       </c>
       <c r="N42" t="s">
-        <v>353</v>
+        <v>875</v>
       </c>
       <c r="O42" t="s">
-        <v>353</v>
+        <v>876</v>
       </c>
       <c r="P42" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="Q42" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="R42" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="S42" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="T42" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="U42" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="V42" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W42" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B43" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C43" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D43">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>330</v>
@@ -13549,69 +13220,69 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="I43" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="J43" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K43" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N43" t="s">
-        <v>888</v>
+        <v>353</v>
       </c>
       <c r="O43" t="s">
+        <v>353</v>
+      </c>
+      <c r="P43" t="s">
         <v>889</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
+        <v>889</v>
+      </c>
+      <c r="R43" t="s">
         <v>890</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="S43" t="s">
         <v>891</v>
       </c>
-      <c r="R43" t="s">
+      <c r="T43" t="s">
         <v>892</v>
       </c>
-      <c r="S43" t="s">
+      <c r="U43" t="s">
         <v>893</v>
       </c>
-      <c r="T43" t="s">
+      <c r="V43" t="s">
+        <v>344</v>
+      </c>
+      <c r="W43" t="s">
         <v>894</v>
-      </c>
-      <c r="U43" t="s">
-        <v>887</v>
-      </c>
-      <c r="V43" t="s">
-        <v>400</v>
-      </c>
-      <c r="W43" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>895</v>
+      </c>
+      <c r="B44" t="s">
         <v>896</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>897</v>
       </c>
-      <c r="C44" t="s">
-        <v>898</v>
-      </c>
       <c r="D44">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
         <v>330</v>
@@ -13620,16 +13291,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
+        <v>898</v>
+      </c>
+      <c r="I44" t="s">
         <v>899</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
+        <v>685</v>
+      </c>
+      <c r="K44" t="s">
         <v>900</v>
-      </c>
-      <c r="J44" t="s">
-        <v>698</v>
-      </c>
-      <c r="K44" t="s">
-        <v>399</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -13647,42 +13318,42 @@
         <v>902</v>
       </c>
       <c r="Q44" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="R44" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="S44" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="T44" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="U44" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="V44" t="s">
         <v>344</v>
       </c>
       <c r="W44" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B45" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C45" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D45">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
         <v>330</v>
@@ -13691,16 +13362,16 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I45" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="J45" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K45" t="s">
-        <v>913</v>
+        <v>351</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -13747,13 +13418,13 @@
         <v>923</v>
       </c>
       <c r="C46" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="D46">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
         <v>330</v>
@@ -13762,13 +13433,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
+        <v>924</v>
+      </c>
+      <c r="I46" t="s">
         <v>925</v>
       </c>
-      <c r="I46" t="s">
-        <v>926</v>
-      </c>
       <c r="J46" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K46" t="s">
         <v>351</v>
@@ -13777,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N46" t="s">
         <v>353</v>
@@ -13786,45 +13457,45 @@
         <v>353</v>
       </c>
       <c r="P46" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q46" t="s">
         <v>928</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>929</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>930</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>931</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>932</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
+        <v>400</v>
+      </c>
+      <c r="W46" t="s">
         <v>933</v>
-      </c>
-      <c r="V46" t="s">
-        <v>344</v>
-      </c>
-      <c r="W46" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>934</v>
+      </c>
+      <c r="B47" t="s">
         <v>935</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>936</v>
       </c>
-      <c r="C47" t="s">
-        <v>924</v>
-      </c>
       <c r="D47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>330</v>
@@ -13839,10 +13510,10 @@
         <v>938</v>
       </c>
       <c r="J47" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K47" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -13851,10 +13522,10 @@
         <v>939</v>
       </c>
       <c r="N47" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="O47" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="P47" t="s">
         <v>940</v>
@@ -13875,7 +13546,7 @@
         <v>945</v>
       </c>
       <c r="V47" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W47" t="s">
         <v>946</v>
@@ -13892,10 +13563,10 @@
         <v>949</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
         <v>330</v>
@@ -13910,7 +13581,7 @@
         <v>951</v>
       </c>
       <c r="J48" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K48" t="s">
         <v>399</v>
@@ -13922,10 +13593,10 @@
         <v>952</v>
       </c>
       <c r="N48" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="O48" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="P48" t="s">
         <v>953</v>
@@ -13963,10 +13634,10 @@
         <v>962</v>
       </c>
       <c r="D49">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>330</v>
@@ -13981,10 +13652,10 @@
         <v>964</v>
       </c>
       <c r="J49" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K49" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -14017,7 +13688,7 @@
         <v>971</v>
       </c>
       <c r="V49" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W49" t="s">
         <v>972</v>
@@ -14034,10 +13705,10 @@
         <v>975</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
         <v>330</v>
@@ -14052,10 +13723,10 @@
         <v>977</v>
       </c>
       <c r="J50" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -14067,7 +13738,7 @@
         <v>353</v>
       </c>
       <c r="O50" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="P50" t="s">
         <v>979</v>
@@ -14105,10 +13776,10 @@
         <v>988</v>
       </c>
       <c r="D51">
-        <v>4.0999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
         <v>330</v>
@@ -14123,7 +13794,7 @@
         <v>990</v>
       </c>
       <c r="J51" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K51" t="s">
         <v>399</v>
@@ -14176,10 +13847,10 @@
         <v>1001</v>
       </c>
       <c r="D52">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>330</v>
@@ -14194,10 +13865,10 @@
         <v>1003</v>
       </c>
       <c r="J52" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K52" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -14209,7 +13880,7 @@
         <v>353</v>
       </c>
       <c r="O52" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="P52" t="s">
         <v>1005</v>
@@ -14230,7 +13901,7 @@
         <v>1010</v>
       </c>
       <c r="V52" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W52" t="s">
         <v>1011</v>
@@ -14247,10 +13918,10 @@
         <v>1014</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
         <v>330</v>
@@ -14265,7 +13936,7 @@
         <v>1016</v>
       </c>
       <c r="J53" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K53" t="s">
         <v>351</v>
@@ -14301,7 +13972,7 @@
         <v>1023</v>
       </c>
       <c r="V53" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W53" t="s">
         <v>1024</v>
@@ -14318,10 +13989,10 @@
         <v>1027</v>
       </c>
       <c r="D54">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>330</v>
@@ -14336,10 +14007,10 @@
         <v>1029</v>
       </c>
       <c r="J54" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K54" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -14392,7 +14063,7 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>330</v>
@@ -14407,7 +14078,7 @@
         <v>1042</v>
       </c>
       <c r="J55" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K55" t="s">
         <v>399</v>
@@ -14443,7 +14114,7 @@
         <v>1049</v>
       </c>
       <c r="V55" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W55" t="s">
         <v>1050</v>
@@ -14457,13 +14128,13 @@
         <v>1052</v>
       </c>
       <c r="C56" t="s">
-        <v>1053</v>
+        <v>803</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
         <v>330</v>
@@ -14472,22 +14143,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I56" t="s">
         <v>1054</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
+        <v>685</v>
+      </c>
+      <c r="K56" t="s">
+        <v>471</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
         <v>1055</v>
-      </c>
-      <c r="J56" t="s">
-        <v>698</v>
-      </c>
-      <c r="K56" t="s">
-        <v>399</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
-        <v>1056</v>
       </c>
       <c r="N56" t="s">
         <v>353</v>
@@ -14496,45 +14167,45 @@
         <v>353</v>
       </c>
       <c r="P56" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R56" t="s">
         <v>1057</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="S56" t="s">
         <v>1058</v>
       </c>
-      <c r="R56" t="s">
+      <c r="T56" t="s">
         <v>1059</v>
       </c>
-      <c r="S56" t="s">
+      <c r="U56" t="s">
         <v>1060</v>
-      </c>
-      <c r="T56" t="s">
-        <v>1061</v>
-      </c>
-      <c r="U56" t="s">
-        <v>1062</v>
       </c>
       <c r="V56" t="s">
         <v>344</v>
       </c>
       <c r="W56" t="s">
-        <v>1063</v>
+        <v>813</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B57" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C57" t="s">
-        <v>816</v>
+        <v>1063</v>
       </c>
       <c r="D57">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>330</v>
@@ -14543,52 +14214,52 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J57" t="s">
+        <v>685</v>
+      </c>
+      <c r="K57" t="s">
+        <v>399</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
         <v>1066</v>
       </c>
-      <c r="I57" t="s">
+      <c r="N57" t="s">
+        <v>433</v>
+      </c>
+      <c r="O57" t="s">
+        <v>433</v>
+      </c>
+      <c r="P57" t="s">
         <v>1067</v>
       </c>
-      <c r="J57" t="s">
-        <v>698</v>
-      </c>
-      <c r="K57" t="s">
-        <v>471</v>
-      </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
+      <c r="Q57" t="s">
         <v>1068</v>
       </c>
-      <c r="N57" t="s">
-        <v>353</v>
-      </c>
-      <c r="O57" t="s">
-        <v>353</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>1069</v>
       </c>
-      <c r="Q57" t="s">
-        <v>1069</v>
-      </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>1070</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>1071</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>1072</v>
-      </c>
-      <c r="U57" t="s">
-        <v>1073</v>
       </c>
       <c r="V57" t="s">
         <v>344</v>
       </c>
       <c r="W57" t="s">
-        <v>826</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -14602,10 +14273,10 @@
         <v>1076</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>330</v>
@@ -14620,7 +14291,7 @@
         <v>1078</v>
       </c>
       <c r="J58" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K58" t="s">
         <v>399</v>
@@ -14632,51 +14303,51 @@
         <v>1079</v>
       </c>
       <c r="N58" t="s">
-        <v>433</v>
+        <v>1080</v>
       </c>
       <c r="O58" t="s">
-        <v>433</v>
+        <v>1081</v>
       </c>
       <c r="P58" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="Q58" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="R58" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="S58" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="T58" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="U58" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="V58" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W58" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B59" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C59" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>330</v>
@@ -14685,69 +14356,69 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I59" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="J59" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K59" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="N59" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="O59" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="P59" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="Q59" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="R59" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="S59" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="T59" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="U59" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="V59" t="s">
         <v>400</v>
       </c>
       <c r="W59" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B60" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C60" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="F60" t="s">
         <v>330</v>
@@ -14756,69 +14427,69 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="I60" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="J60" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="K60" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N60" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O60" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="P60" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="Q60" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="R60" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="S60" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="T60" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="U60" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="V60" t="s">
         <v>400</v>
       </c>
       <c r="W60" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B61" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C61" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E61">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="F61" t="s">
         <v>330</v>
@@ -14827,69 +14498,69 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="I61" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J61" t="s">
-        <v>698</v>
+        <v>173</v>
       </c>
       <c r="K61" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="N61" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="O61" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="P61" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="Q61" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="R61" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="S61" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="T61" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="U61" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="V61" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W61" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B62" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C62" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D62">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>330</v>
@@ -14898,69 +14569,69 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>1133</v>
+        <v>765</v>
       </c>
       <c r="I62" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="J62" t="s">
         <v>173</v>
       </c>
       <c r="K62" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>1135</v>
+        <v>767</v>
       </c>
       <c r="N62" t="s">
+        <v>353</v>
+      </c>
+      <c r="O62" t="s">
+        <v>433</v>
+      </c>
+      <c r="P62" t="s">
         <v>1136</v>
       </c>
-      <c r="O62" t="s">
+      <c r="Q62" t="s">
+        <v>769</v>
+      </c>
+      <c r="R62" t="s">
+        <v>770</v>
+      </c>
+      <c r="S62" t="s">
         <v>1137</v>
       </c>
-      <c r="P62" t="s">
+      <c r="T62" t="s">
         <v>1138</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="U62" t="s">
         <v>1139</v>
-      </c>
-      <c r="R62" t="s">
-        <v>1140</v>
-      </c>
-      <c r="S62" t="s">
-        <v>1141</v>
-      </c>
-      <c r="T62" t="s">
-        <v>1142</v>
-      </c>
-      <c r="U62" t="s">
-        <v>1143</v>
       </c>
       <c r="V62" t="s">
         <v>344</v>
       </c>
       <c r="W62" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B63" t="s">
-        <v>1146</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>330</v>
@@ -14969,69 +14640,69 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>778</v>
+        <v>1143</v>
       </c>
       <c r="I63" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="J63" t="s">
         <v>173</v>
       </c>
       <c r="K63" t="s">
-        <v>399</v>
+        <v>1145</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>780</v>
+        <v>1146</v>
       </c>
       <c r="N63" t="s">
-        <v>353</v>
+        <v>1147</v>
       </c>
       <c r="O63" t="s">
-        <v>433</v>
+        <v>1147</v>
       </c>
       <c r="P63" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Q63" t="s">
         <v>1149</v>
       </c>
-      <c r="Q63" t="s">
-        <v>782</v>
-      </c>
       <c r="R63" t="s">
-        <v>783</v>
+        <v>1150</v>
       </c>
       <c r="S63" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="T63" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="U63" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="V63" t="s">
         <v>344</v>
       </c>
       <c r="W63" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B64" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C64" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>330</v>
@@ -15040,13 +14711,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="I64" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="J64" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K64" t="s">
         <v>399</v>
@@ -15055,54 +14726,54 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="N64" t="s">
-        <v>353</v>
+        <v>1161</v>
       </c>
       <c r="O64" t="s">
-        <v>433</v>
+        <v>1161</v>
       </c>
       <c r="P64" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="Q64" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="R64" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="S64" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="T64" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="U64" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="V64" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W64" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>1170</v>
       </c>
       <c r="C65" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="D65">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>330</v>
@@ -15111,66 +14782,66 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="I65" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="J65" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K65" t="s">
-        <v>1171</v>
+        <v>847</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="N65" t="s">
-        <v>1173</v>
+        <v>353</v>
       </c>
       <c r="O65" t="s">
-        <v>1173</v>
+        <v>353</v>
       </c>
       <c r="P65" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="Q65" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="R65" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="S65" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="T65" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="U65" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="V65" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W65" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B66" t="s">
-        <v>1182</v>
+        <v>576</v>
       </c>
       <c r="C66" t="s">
         <v>1183</v>
       </c>
       <c r="D66">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -15191,7 +14862,7 @@
         <v>179</v>
       </c>
       <c r="K66" t="s">
-        <v>860</v>
+        <v>399</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -15200,51 +14871,51 @@
         <v>1186</v>
       </c>
       <c r="N66" t="s">
-        <v>353</v>
+        <v>1187</v>
       </c>
       <c r="O66" t="s">
         <v>353</v>
       </c>
       <c r="P66" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="Q66" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="R66" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="S66" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="T66" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="U66" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="V66" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W66" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B67" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C67" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
         <v>330</v>
@@ -15253,10 +14924,10 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="I67" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J67" t="s">
         <v>179</v>
@@ -15268,13 +14939,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="N67" t="s">
-        <v>1200</v>
+        <v>353</v>
       </c>
       <c r="O67" t="s">
-        <v>1200</v>
+        <v>353</v>
       </c>
       <c r="P67" t="s">
         <v>1201</v>
@@ -15312,10 +14983,10 @@
         <v>1210</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F68" t="s">
         <v>330</v>
@@ -15333,7 +15004,7 @@
         <v>179</v>
       </c>
       <c r="K68" t="s">
-        <v>860</v>
+        <v>351</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
@@ -15366,7 +15037,7 @@
         <v>1219</v>
       </c>
       <c r="V68" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W68" t="s">
         <v>1220</v>
@@ -15377,16 +15048,16 @@
         <v>1221</v>
       </c>
       <c r="B69" t="s">
-        <v>576</v>
+        <v>1222</v>
       </c>
       <c r="C69" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D69">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>330</v>
@@ -15395,69 +15066,69 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="I69" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="J69" t="s">
         <v>179</v>
       </c>
       <c r="K69" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="N69" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="O69" t="s">
-        <v>353</v>
+        <v>1228</v>
       </c>
       <c r="P69" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="Q69" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="R69" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="S69" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="T69" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="U69" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="V69" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W69" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B70" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C70" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>330</v>
@@ -15466,22 +15137,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="I70" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="J70" t="s">
         <v>179</v>
       </c>
       <c r="K70" t="s">
-        <v>399</v>
+        <v>1241</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="N70" t="s">
         <v>353</v>
@@ -15490,45 +15161,45 @@
         <v>353</v>
       </c>
       <c r="P70" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="Q70" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="R70" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="S70" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="T70" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="U70" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="V70" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W70" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="B71" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="C71" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>330</v>
@@ -15537,22 +15208,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="I71" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="J71" t="s">
         <v>179</v>
       </c>
       <c r="K71" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="N71" t="s">
         <v>353</v>
@@ -15561,45 +15232,45 @@
         <v>353</v>
       </c>
       <c r="P71" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="Q71" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="R71" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="S71" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="T71" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="U71" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="V71" t="s">
         <v>344</v>
       </c>
       <c r="W71" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B72" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C72" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
         <v>330</v>
@@ -15608,69 +15279,69 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="I72" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="J72" t="s">
         <v>179</v>
       </c>
       <c r="K72" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="N72" t="s">
-        <v>1266</v>
+        <v>353</v>
       </c>
       <c r="O72" t="s">
-        <v>1267</v>
+        <v>353</v>
       </c>
       <c r="P72" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="Q72" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="R72" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="S72" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="T72" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="U72" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="V72" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W72" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B73" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C73" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
         <v>330</v>
@@ -15679,16 +15350,16 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="I73" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="J73" t="s">
         <v>179</v>
       </c>
       <c r="K73" t="s">
-        <v>1280</v>
+        <v>900</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -15738,10 +15409,10 @@
         <v>1291</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="F74" t="s">
         <v>330</v>
@@ -15759,7 +15430,7 @@
         <v>179</v>
       </c>
       <c r="K74" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -15777,42 +15448,42 @@
         <v>1295</v>
       </c>
       <c r="Q74" t="s">
+        <v>1295</v>
+      </c>
+      <c r="R74" t="s">
         <v>1296</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>1297</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>1298</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>1299</v>
-      </c>
-      <c r="U74" t="s">
-        <v>1300</v>
       </c>
       <c r="V74" t="s">
         <v>344</v>
       </c>
       <c r="W74" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B75" t="s">
         <v>1302</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>1303</v>
       </c>
-      <c r="C75" t="s">
-        <v>1304</v>
-      </c>
       <c r="D75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>330</v>
@@ -15821,10 +15492,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I75" t="s">
         <v>1305</v>
-      </c>
-      <c r="I75" t="s">
-        <v>1306</v>
       </c>
       <c r="J75" t="s">
         <v>179</v>
@@ -15836,13 +15507,13 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N75" t="s">
         <v>1307</v>
       </c>
-      <c r="N75" t="s">
-        <v>353</v>
-      </c>
       <c r="O75" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="P75" t="s">
         <v>1308</v>
@@ -15880,10 +15551,10 @@
         <v>1317</v>
       </c>
       <c r="D76">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>330</v>
@@ -15901,7 +15572,7 @@
         <v>179</v>
       </c>
       <c r="K76" t="s">
-        <v>913</v>
+        <v>399</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
@@ -15910,13 +15581,13 @@
         <v>1320</v>
       </c>
       <c r="N76" t="s">
-        <v>353</v>
+        <v>1321</v>
       </c>
       <c r="O76" t="s">
         <v>353</v>
       </c>
       <c r="P76" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="Q76" t="s">
         <v>1322</v>
@@ -15934,7 +15605,7 @@
         <v>1326</v>
       </c>
       <c r="V76" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W76" t="s">
         <v>1327</v>
@@ -15951,10 +15622,10 @@
         <v>1330</v>
       </c>
       <c r="D77">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="E77">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>330</v>
@@ -15990,42 +15661,42 @@
         <v>1334</v>
       </c>
       <c r="Q77" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="R77" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="S77" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="T77" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="U77" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="V77" t="s">
         <v>344</v>
       </c>
       <c r="W77" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B78" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C78" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
         <v>330</v>
@@ -16034,69 +15705,69 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="I78" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="J78" t="s">
         <v>179</v>
       </c>
       <c r="K78" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="N78" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="O78" t="s">
-        <v>433</v>
+        <v>1347</v>
       </c>
       <c r="P78" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="Q78" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="R78" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="S78" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="T78" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="U78" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="V78" t="s">
         <v>400</v>
       </c>
       <c r="W78" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B79" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C79" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F79" t="s">
         <v>330</v>
@@ -16105,25 +15776,25 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="I79" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="J79" t="s">
         <v>179</v>
       </c>
       <c r="K79" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="N79" t="s">
-        <v>1360</v>
+        <v>353</v>
       </c>
       <c r="O79" t="s">
         <v>353</v>
@@ -16132,42 +15803,42 @@
         <v>1361</v>
       </c>
       <c r="Q79" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="R79" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="S79" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="T79" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="U79" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="V79" t="s">
         <v>400</v>
       </c>
       <c r="W79" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B80" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C80" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D80">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>330</v>
@@ -16176,22 +15847,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="I80" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="J80" t="s">
         <v>179</v>
       </c>
       <c r="K80" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="N80" t="s">
         <v>353</v>
@@ -16200,45 +15871,45 @@
         <v>353</v>
       </c>
       <c r="P80" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="Q80" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="R80" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="S80" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="T80" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="U80" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="V80" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W80" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B81" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C81" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D81">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="E81">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
         <v>330</v>
@@ -16247,28 +15918,28 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="I81" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="J81" t="s">
         <v>179</v>
       </c>
       <c r="K81" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="N81" t="s">
-        <v>1386</v>
+        <v>353</v>
       </c>
       <c r="O81" t="s">
-        <v>1386</v>
+        <v>353</v>
       </c>
       <c r="P81" t="s">
         <v>1387</v>
@@ -16289,7 +15960,7 @@
         <v>1392</v>
       </c>
       <c r="V81" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W81" t="s">
         <v>1393</v>
@@ -16306,10 +15977,10 @@
         <v>1396</v>
       </c>
       <c r="D82">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="E82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>330</v>
@@ -16324,16 +15995,16 @@
         <v>1398</v>
       </c>
       <c r="J82" t="s">
-        <v>179</v>
+        <v>1399</v>
       </c>
       <c r="K82" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="N82" t="s">
         <v>353</v>
@@ -16342,7 +16013,7 @@
         <v>353</v>
       </c>
       <c r="P82" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="Q82" t="s">
         <v>1401</v>
@@ -16360,7 +16031,7 @@
         <v>1405</v>
       </c>
       <c r="V82" t="s">
-        <v>400</v>
+        <v>707</v>
       </c>
       <c r="W82" t="s">
         <v>1406</v>
@@ -16371,16 +16042,16 @@
         <v>1407</v>
       </c>
       <c r="B83" t="s">
+        <v>681</v>
+      </c>
+      <c r="C83" t="s">
         <v>1408</v>
       </c>
-      <c r="C83" t="s">
-        <v>1409</v>
-      </c>
       <c r="D83">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F83" t="s">
         <v>330</v>
@@ -16389,22 +16060,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I83" t="s">
         <v>1410</v>
       </c>
-      <c r="I83" t="s">
-        <v>1411</v>
-      </c>
       <c r="J83" t="s">
-        <v>179</v>
+        <v>1399</v>
       </c>
       <c r="K83" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>1412</v>
+        <v>1122</v>
       </c>
       <c r="N83" t="s">
         <v>353</v>
@@ -16413,45 +16084,45 @@
         <v>353</v>
       </c>
       <c r="P83" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1412</v>
+      </c>
+      <c r="R83" t="s">
         <v>1413</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="S83" t="s">
         <v>1414</v>
       </c>
-      <c r="R83" t="s">
+      <c r="T83" t="s">
         <v>1415</v>
       </c>
-      <c r="S83" t="s">
+      <c r="U83" t="s">
         <v>1416</v>
       </c>
-      <c r="T83" t="s">
+      <c r="V83" t="s">
+        <v>344</v>
+      </c>
+      <c r="W83" t="s">
         <v>1417</v>
-      </c>
-      <c r="U83" t="s">
-        <v>1418</v>
-      </c>
-      <c r="V83" t="s">
-        <v>400</v>
-      </c>
-      <c r="W83" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C84" t="s">
         <v>1420</v>
       </c>
-      <c r="B84" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1422</v>
-      </c>
       <c r="D84">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>330</v>
@@ -16460,13 +16131,13 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I84" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J84" t="s">
-        <v>179</v>
+        <v>1399</v>
       </c>
       <c r="K84" t="s">
         <v>351</v>
@@ -16475,7 +16146,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="N84" t="s">
         <v>353</v>
@@ -16484,45 +16155,45 @@
         <v>353</v>
       </c>
       <c r="P84" t="s">
+        <v>1424</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1425</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1419</v>
+      </c>
+      <c r="S84" t="s">
         <v>1426</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="T84" t="s">
         <v>1427</v>
       </c>
-      <c r="R84" t="s">
-        <v>1428</v>
-      </c>
-      <c r="S84" t="s">
-        <v>1429</v>
-      </c>
-      <c r="T84" t="s">
-        <v>1430</v>
-      </c>
       <c r="U84" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="V84" t="s">
         <v>344</v>
       </c>
       <c r="W84" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B85" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C85" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D85">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="E85">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
         <v>330</v>
@@ -16531,22 +16202,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="I85" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="J85" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K85" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="N85" t="s">
         <v>353</v>
@@ -16555,45 +16226,45 @@
         <v>353</v>
       </c>
       <c r="P85" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1436</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1437</v>
+      </c>
+      <c r="S85" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T85" t="s">
+        <v>1439</v>
+      </c>
+      <c r="U85" t="s">
         <v>1440</v>
       </c>
-      <c r="Q85" t="s">
-        <v>1440</v>
-      </c>
-      <c r="R85" t="s">
+      <c r="V85" t="s">
+        <v>400</v>
+      </c>
+      <c r="W85" t="s">
         <v>1441</v>
-      </c>
-      <c r="S85" t="s">
-        <v>1442</v>
-      </c>
-      <c r="T85" t="s">
-        <v>1443</v>
-      </c>
-      <c r="U85" t="s">
-        <v>1444</v>
-      </c>
-      <c r="V85" t="s">
-        <v>720</v>
-      </c>
-      <c r="W85" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="B86" t="s">
-        <v>694</v>
+        <v>1443</v>
       </c>
       <c r="C86" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D86">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>330</v>
@@ -16602,13 +16273,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="I86" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="J86" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K86" t="s">
         <v>351</v>
@@ -16617,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>1135</v>
+        <v>1447</v>
       </c>
       <c r="N86" t="s">
         <v>353</v>
@@ -16626,45 +16297,45 @@
         <v>353</v>
       </c>
       <c r="P86" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1449</v>
+      </c>
+      <c r="R86" t="s">
         <v>1450</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="S86" t="s">
         <v>1451</v>
       </c>
-      <c r="R86" t="s">
+      <c r="T86" t="s">
         <v>1452</v>
       </c>
-      <c r="S86" t="s">
+      <c r="U86" t="s">
         <v>1453</v>
-      </c>
-      <c r="T86" t="s">
-        <v>1454</v>
-      </c>
-      <c r="U86" t="s">
-        <v>1455</v>
       </c>
       <c r="V86" t="s">
         <v>344</v>
       </c>
       <c r="W86" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C87" t="s">
         <v>1457</v>
       </c>
-      <c r="B87" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1459</v>
-      </c>
       <c r="D87">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
         <v>330</v>
@@ -16673,13 +16344,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="I87" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="J87" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K87" t="s">
         <v>351</v>
@@ -16688,7 +16359,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="N87" t="s">
         <v>353</v>
@@ -16697,22 +16368,22 @@
         <v>353</v>
       </c>
       <c r="P87" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1462</v>
+      </c>
+      <c r="R87" t="s">
         <v>1463</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="S87" t="s">
         <v>1464</v>
       </c>
-      <c r="R87" t="s">
-        <v>1458</v>
-      </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>1465</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>1466</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1464</v>
       </c>
       <c r="V87" t="s">
         <v>344</v>
@@ -16732,10 +16403,10 @@
         <v>1470</v>
       </c>
       <c r="D88">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>330</v>
@@ -16750,7 +16421,7 @@
         <v>1472</v>
       </c>
       <c r="J88" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K88" t="s">
         <v>351</v>
@@ -16803,10 +16474,10 @@
         <v>1483</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F89" t="s">
         <v>330</v>
@@ -16821,10 +16492,10 @@
         <v>1485</v>
       </c>
       <c r="J89" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K89" t="s">
-        <v>351</v>
+        <v>847</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -16857,7 +16528,7 @@
         <v>1492</v>
       </c>
       <c r="V89" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W89" t="s">
         <v>1493</v>
@@ -16874,10 +16545,10 @@
         <v>1496</v>
       </c>
       <c r="D90">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>330</v>
@@ -16892,7 +16563,7 @@
         <v>1498</v>
       </c>
       <c r="J90" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K90" t="s">
         <v>351</v>
@@ -16928,7 +16599,7 @@
         <v>1505</v>
       </c>
       <c r="V90" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W90" t="s">
         <v>1506</v>
@@ -16945,10 +16616,10 @@
         <v>1509</v>
       </c>
       <c r="D91">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>330</v>
@@ -16963,7 +16634,7 @@
         <v>1511</v>
       </c>
       <c r="J91" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K91" t="s">
         <v>351</v>
@@ -16999,7 +16670,7 @@
         <v>1518</v>
       </c>
       <c r="V91" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W91" t="s">
         <v>1519</v>
@@ -17016,10 +16687,10 @@
         <v>1522</v>
       </c>
       <c r="D92">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
         <v>330</v>
@@ -17034,10 +16705,10 @@
         <v>1524</v>
       </c>
       <c r="J92" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K92" t="s">
-        <v>860</v>
+        <v>351</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -17070,7 +16741,7 @@
         <v>1531</v>
       </c>
       <c r="V92" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W92" t="s">
         <v>1532</v>
@@ -17087,7 +16758,7 @@
         <v>1535</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -17105,7 +16776,7 @@
         <v>1537</v>
       </c>
       <c r="J93" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K93" t="s">
         <v>351</v>
@@ -17141,7 +16812,7 @@
         <v>1544</v>
       </c>
       <c r="V93" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W93" t="s">
         <v>1545</v>
@@ -17158,10 +16829,10 @@
         <v>1548</v>
       </c>
       <c r="D94">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>330</v>
@@ -17176,10 +16847,10 @@
         <v>1550</v>
       </c>
       <c r="J94" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K94" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -17229,10 +16900,10 @@
         <v>1561</v>
       </c>
       <c r="D95">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
         <v>330</v>
@@ -17247,10 +16918,10 @@
         <v>1563</v>
       </c>
       <c r="J95" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K95" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="L95" t="b">
         <v>0</v>
@@ -17283,7 +16954,7 @@
         <v>1570</v>
       </c>
       <c r="V95" t="s">
-        <v>344</v>
+        <v>707</v>
       </c>
       <c r="W95" t="s">
         <v>1571</v>
@@ -17300,7 +16971,7 @@
         <v>1574</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -17318,7 +16989,7 @@
         <v>1576</v>
       </c>
       <c r="J96" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K96" t="s">
         <v>351</v>
@@ -17374,7 +17045,7 @@
         <v>5</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
         <v>330</v>
@@ -17389,7 +17060,7 @@
         <v>1589</v>
       </c>
       <c r="J97" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K97" t="s">
         <v>399</v>
@@ -17422,30 +17093,30 @@
         <v>1595</v>
       </c>
       <c r="U97" t="s">
+        <v>1590</v>
+      </c>
+      <c r="V97" t="s">
+        <v>400</v>
+      </c>
+      <c r="W97" t="s">
         <v>1596</v>
-      </c>
-      <c r="V97" t="s">
-        <v>344</v>
-      </c>
-      <c r="W97" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B98" t="s">
         <v>1598</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>1599</v>
       </c>
-      <c r="C98" t="s">
-        <v>1600</v>
-      </c>
       <c r="D98">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>330</v>
@@ -17454,22 +17125,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I98" t="s">
         <v>1601</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K98" t="s">
+        <v>399</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
         <v>1602</v>
-      </c>
-      <c r="J98" t="s">
-        <v>1438</v>
-      </c>
-      <c r="K98" t="s">
-        <v>471</v>
-      </c>
-      <c r="L98" t="b">
-        <v>0</v>
-      </c>
-      <c r="M98" t="s">
-        <v>1603</v>
       </c>
       <c r="N98" t="s">
         <v>353</v>
@@ -17478,45 +17149,45 @@
         <v>353</v>
       </c>
       <c r="P98" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Q98" t="s">
         <v>1604</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>1605</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>1606</v>
       </c>
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>1607</v>
       </c>
-      <c r="T98" t="s">
+      <c r="U98" t="s">
         <v>1608</v>
       </c>
-      <c r="U98" t="s">
+      <c r="V98" t="s">
+        <v>344</v>
+      </c>
+      <c r="W98" t="s">
         <v>1609</v>
-      </c>
-      <c r="V98" t="s">
-        <v>720</v>
-      </c>
-      <c r="W98" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B99" t="s">
         <v>1611</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>1612</v>
       </c>
-      <c r="C99" t="s">
-        <v>1613</v>
-      </c>
       <c r="D99">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F99" t="s">
         <v>330</v>
@@ -17525,16 +17196,16 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I99" t="s">
         <v>1614</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K99" t="s">
         <v>1615</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1438</v>
-      </c>
-      <c r="K99" t="s">
-        <v>351</v>
       </c>
       <c r="L99" t="b">
         <v>0</v>
@@ -17564,30 +17235,30 @@
         <v>1621</v>
       </c>
       <c r="U99" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="V99" t="s">
         <v>344</v>
       </c>
       <c r="W99" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B100" t="s">
         <v>1624</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>1625</v>
       </c>
-      <c r="C100" t="s">
-        <v>1626</v>
-      </c>
       <c r="D100">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F100" t="s">
         <v>330</v>
@@ -17596,69 +17267,69 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I100" t="s">
         <v>1627</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K100" t="s">
+        <v>351</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
         <v>1628</v>
-      </c>
-      <c r="J100" t="s">
-        <v>1438</v>
-      </c>
-      <c r="K100" t="s">
-        <v>399</v>
-      </c>
-      <c r="L100" t="b">
-        <v>0</v>
-      </c>
-      <c r="M100" t="s">
-        <v>1629</v>
       </c>
       <c r="N100" t="s">
         <v>353</v>
       </c>
       <c r="O100" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="P100" t="s">
+        <v>1629</v>
+      </c>
+      <c r="Q100" t="s">
         <v>1630</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="R100" t="s">
         <v>1631</v>
       </c>
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>1632</v>
       </c>
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>1633</v>
       </c>
-      <c r="T100" t="s">
+      <c r="U100" t="s">
         <v>1634</v>
-      </c>
-      <c r="U100" t="s">
-        <v>1635</v>
       </c>
       <c r="V100" t="s">
         <v>344</v>
       </c>
       <c r="W100" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B101" t="s">
         <v>1637</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>1638</v>
       </c>
-      <c r="C101" t="s">
-        <v>1639</v>
-      </c>
       <c r="D101">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
         <v>330</v>
@@ -17667,16 +17338,16 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I101" t="s">
         <v>1640</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K101" t="s">
         <v>1641</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1438</v>
-      </c>
-      <c r="K101" t="s">
-        <v>399</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -17706,30 +17377,30 @@
         <v>1647</v>
       </c>
       <c r="U101" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="V101" t="s">
-        <v>400</v>
+        <v>707</v>
       </c>
       <c r="W101" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B102" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C102" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
         <v>330</v>
@@ -17738,22 +17409,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="I102" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="J102" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K102" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="N102" t="s">
         <v>353</v>
@@ -17762,45 +17433,45 @@
         <v>353</v>
       </c>
       <c r="P102" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="Q102" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="R102" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="S102" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="T102" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="U102" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="V102" t="s">
         <v>344</v>
       </c>
       <c r="W102" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B103" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C103" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D103">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
         <v>330</v>
@@ -17809,16 +17480,16 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="I103" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="J103" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="K103" t="s">
-        <v>1667</v>
+        <v>351</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -17848,30 +17519,30 @@
         <v>1673</v>
       </c>
       <c r="U103" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="V103" t="s">
         <v>344</v>
       </c>
       <c r="W103" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B104" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C104" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="D104">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F104" t="s">
         <v>330</v>
@@ -17880,69 +17551,69 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="I104" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="J104" t="s">
-        <v>1438</v>
+        <v>255</v>
       </c>
       <c r="K104" t="s">
-        <v>351</v>
+        <v>847</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="N104" t="s">
-        <v>353</v>
+        <v>1682</v>
       </c>
       <c r="O104" t="s">
         <v>353</v>
       </c>
       <c r="P104" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="Q104" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="R104" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="S104" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="T104" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="U104" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="V104" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W104" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="B105" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="C105" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="D105">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>330</v>
@@ -17951,69 +17622,69 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="I105" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="J105" t="s">
-        <v>1438</v>
+        <v>255</v>
       </c>
       <c r="K105" t="s">
-        <v>1693</v>
+        <v>351</v>
       </c>
       <c r="L105" t="b">
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="N105" t="s">
-        <v>353</v>
+        <v>1696</v>
       </c>
       <c r="O105" t="s">
         <v>353</v>
       </c>
       <c r="P105" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="Q105" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="R105" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="S105" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="T105" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="U105" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="V105" t="s">
-        <v>720</v>
+        <v>344</v>
       </c>
       <c r="W105" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="B106" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="C106" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="D106">
         <v>3.6</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F106" t="s">
         <v>330</v>
@@ -18022,13 +17693,13 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="I106" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="J106" t="s">
-        <v>1438</v>
+        <v>255</v>
       </c>
       <c r="K106" t="s">
         <v>351</v>
@@ -18037,7 +17708,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="N106" t="s">
         <v>353</v>
@@ -18046,45 +17717,45 @@
         <v>353</v>
       </c>
       <c r="P106" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="Q106" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="R106" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="S106" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="T106" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="U106" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="V106" t="s">
         <v>344</v>
       </c>
       <c r="W106" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B107" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C107" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D107">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
         <v>330</v>
@@ -18093,13 +17764,13 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="I107" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="J107" t="s">
-        <v>1438</v>
+        <v>255</v>
       </c>
       <c r="K107" t="s">
         <v>351</v>
@@ -18108,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="N107" t="s">
         <v>353</v>
@@ -18117,45 +17788,45 @@
         <v>353</v>
       </c>
       <c r="P107" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="Q107" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="R107" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="S107" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="T107" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="U107" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="V107" t="s">
         <v>344</v>
       </c>
       <c r="W107" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="B108" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="C108" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
         <v>330</v>
@@ -18164,66 +17835,66 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="I108" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="J108" t="s">
         <v>255</v>
       </c>
       <c r="K108" t="s">
-        <v>860</v>
+        <v>399</v>
       </c>
       <c r="L108" t="b">
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="N108" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="O108" t="s">
-        <v>353</v>
+        <v>1736</v>
       </c>
       <c r="P108" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="Q108" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="R108" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="S108" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="T108" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="U108" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="V108" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W108" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="B109" t="s">
-        <v>1743</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -18235,69 +17906,69 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="I109" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="J109" t="s">
         <v>255</v>
       </c>
       <c r="K109" t="s">
-        <v>351</v>
+        <v>1615</v>
       </c>
       <c r="L109" t="b">
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="N109" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="O109" t="s">
-        <v>353</v>
+        <v>1750</v>
       </c>
       <c r="P109" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="Q109" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="R109" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="S109" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="T109" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="U109" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="V109" t="s">
         <v>344</v>
       </c>
       <c r="W109" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B110" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="C110" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="D110">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="E110">
-        <v>26</v>
+        <v>371</v>
       </c>
       <c r="F110" t="s">
         <v>330</v>
@@ -18306,10 +17977,10 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="I110" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="J110" t="s">
         <v>255</v>
@@ -18321,54 +17992,54 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="N110" t="s">
-        <v>353</v>
+        <v>1764</v>
       </c>
       <c r="O110" t="s">
         <v>353</v>
       </c>
       <c r="P110" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="Q110" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="R110" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="S110" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="T110" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="U110" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="V110" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W110" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B111" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="C111" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E111">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
         <v>330</v>
@@ -18377,13 +18048,13 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="I111" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="J111" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="K111" t="s">
         <v>351</v>
@@ -18392,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="N111" t="s">
         <v>353</v>
@@ -18401,45 +18072,45 @@
         <v>353</v>
       </c>
       <c r="P111" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="Q111" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="R111" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="S111" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="T111" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="U111" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="V111" t="s">
         <v>344</v>
       </c>
       <c r="W111" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="B112" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="C112" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>330</v>
@@ -18448,13 +18119,13 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="I112" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="J112" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="K112" t="s">
         <v>399</v>
@@ -18463,54 +18134,54 @@
         <v>0</v>
       </c>
       <c r="M112" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="N112" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="O112" t="s">
-        <v>1788</v>
+        <v>353</v>
       </c>
       <c r="P112" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="Q112" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="R112" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="S112" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="T112" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="U112" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="V112" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W112" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C113" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s">
         <v>330</v>
@@ -18519,69 +18190,69 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="I113" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="J113" t="s">
-        <v>255</v>
+        <v>1803</v>
       </c>
       <c r="K113" t="s">
-        <v>1667</v>
+        <v>1804</v>
       </c>
       <c r="L113" t="b">
         <v>0</v>
       </c>
       <c r="M113" t="s">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="N113" t="s">
-        <v>1801</v>
+        <v>1806</v>
       </c>
       <c r="O113" t="s">
-        <v>1802</v>
+        <v>353</v>
       </c>
       <c r="P113" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="Q113" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="R113" t="s">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="S113" t="s">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="T113" t="s">
-        <v>1807</v>
+        <v>1811</v>
       </c>
       <c r="U113" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="V113" t="s">
         <v>344</v>
       </c>
       <c r="W113" t="s">
-        <v>1809</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="B114" t="s">
-        <v>1811</v>
+        <v>1815</v>
       </c>
       <c r="C114" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D114">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="E114">
-        <v>371</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
         <v>330</v>
@@ -18590,13 +18261,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>1813</v>
+        <v>1817</v>
       </c>
       <c r="I114" t="s">
-        <v>1814</v>
+        <v>1818</v>
       </c>
       <c r="J114" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K114" t="s">
         <v>351</v>
@@ -18605,54 +18276,54 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="N114" t="s">
-        <v>1816</v>
+        <v>353</v>
       </c>
       <c r="O114" t="s">
         <v>353</v>
       </c>
       <c r="P114" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="Q114" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="R114" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="S114" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="T114" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="U114" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="V114" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W114" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="B115" t="s">
-        <v>1825</v>
+        <v>277</v>
       </c>
       <c r="C115" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="D115">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
         <v>330</v>
@@ -18661,22 +18332,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="I115" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="J115" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K115" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L115" t="b">
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="N115" t="s">
         <v>353</v>
@@ -18685,45 +18356,45 @@
         <v>353</v>
       </c>
       <c r="P115" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="Q115" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="R115" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="S115" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="T115" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="U115" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="V115" t="s">
         <v>344</v>
       </c>
       <c r="W115" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="B116" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="C116" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="D116">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="E116">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F116" t="s">
         <v>330</v>
@@ -18732,13 +18403,13 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="I116" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="J116" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K116" t="s">
         <v>399</v>
@@ -18747,54 +18418,54 @@
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="N116" t="s">
-        <v>1843</v>
+        <v>353</v>
       </c>
       <c r="O116" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="P116" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="Q116" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="R116" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="S116" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="T116" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="U116" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="V116" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W116" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B117" t="s">
-        <v>271</v>
+        <v>1853</v>
       </c>
       <c r="C117" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="E117">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F117" t="s">
         <v>330</v>
@@ -18803,16 +18474,16 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="I117" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="J117" t="s">
-        <v>1855</v>
+        <v>274</v>
       </c>
       <c r="K117" t="s">
-        <v>1856</v>
+        <v>399</v>
       </c>
       <c r="L117" t="b">
         <v>0</v>
@@ -18821,51 +18492,51 @@
         <v>1857</v>
       </c>
       <c r="N117" t="s">
-        <v>1858</v>
+        <v>353</v>
       </c>
       <c r="O117" t="s">
         <v>353</v>
       </c>
       <c r="P117" t="s">
+        <v>1858</v>
+      </c>
+      <c r="Q117" t="s">
         <v>1859</v>
       </c>
-      <c r="Q117" t="s">
+      <c r="R117" t="s">
         <v>1860</v>
       </c>
-      <c r="R117" t="s">
+      <c r="S117" t="s">
         <v>1861</v>
       </c>
-      <c r="S117" t="s">
+      <c r="T117" t="s">
         <v>1862</v>
       </c>
-      <c r="T117" t="s">
+      <c r="U117" t="s">
         <v>1863</v>
       </c>
-      <c r="U117" t="s">
+      <c r="V117" t="s">
+        <v>400</v>
+      </c>
+      <c r="W117" t="s">
         <v>1864</v>
-      </c>
-      <c r="V117" t="s">
-        <v>344</v>
-      </c>
-      <c r="W117" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B118" t="s">
         <v>1866</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>1867</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1868</v>
       </c>
       <c r="D118">
         <v>3.1</v>
       </c>
       <c r="E118">
-        <v>11</v>
+        <v>802</v>
       </c>
       <c r="F118" t="s">
         <v>330</v>
@@ -18874,69 +18545,69 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I118" t="s">
         <v>1869</v>
-      </c>
-      <c r="I118" t="s">
-        <v>1870</v>
       </c>
       <c r="J118" t="s">
         <v>274</v>
       </c>
       <c r="K118" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="L118" t="b">
         <v>0</v>
       </c>
       <c r="M118" t="s">
+        <v>1870</v>
+      </c>
+      <c r="N118" t="s">
         <v>1871</v>
       </c>
-      <c r="N118" t="s">
-        <v>353</v>
-      </c>
       <c r="O118" t="s">
-        <v>353</v>
+        <v>1872</v>
       </c>
       <c r="P118" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="Q118" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="R118" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="S118" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="T118" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="U118" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="V118" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W118" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>1881</v>
       </c>
       <c r="C119" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F119" t="s">
         <v>330</v>
@@ -18945,10 +18616,10 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="I119" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="J119" t="s">
         <v>274</v>
@@ -18960,54 +18631,54 @@
         <v>0</v>
       </c>
       <c r="M119" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="N119" t="s">
-        <v>353</v>
+        <v>1886</v>
       </c>
       <c r="O119" t="s">
-        <v>353</v>
+        <v>1887</v>
       </c>
       <c r="P119" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="Q119" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="R119" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="S119" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="T119" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="U119" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="V119" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W119" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="B120" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="C120" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="E120">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F120" t="s">
         <v>330</v>
@@ -19016,69 +18687,69 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="I120" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="J120" t="s">
         <v>274</v>
       </c>
       <c r="K120" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L120" t="b">
         <v>0</v>
       </c>
       <c r="M120" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="N120" t="s">
         <v>353</v>
       </c>
       <c r="O120" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="P120" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="Q120" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="R120" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="S120" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="T120" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="U120" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="V120" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W120" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="B121" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="C121" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="D121">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="E121">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F121" t="s">
         <v>330</v>
@@ -19087,22 +18758,22 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="I121" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="J121" t="s">
         <v>274</v>
       </c>
       <c r="K121" t="s">
-        <v>399</v>
+        <v>1241</v>
       </c>
       <c r="L121" t="b">
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="N121" t="s">
         <v>353</v>
@@ -19111,45 +18782,45 @@
         <v>353</v>
       </c>
       <c r="P121" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="Q121" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="R121" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="S121" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="T121" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="U121" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="V121" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W121" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="B122" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="C122" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="D122">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>802</v>
+        <v>7</v>
       </c>
       <c r="F122" t="s">
         <v>330</v>
@@ -19158,69 +18829,69 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="I122" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="J122" t="s">
         <v>274</v>
       </c>
       <c r="K122" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="L122" t="b">
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="N122" t="s">
-        <v>1923</v>
+        <v>353</v>
       </c>
       <c r="O122" t="s">
-        <v>1924</v>
+        <v>433</v>
       </c>
       <c r="P122" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="Q122" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="R122" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="S122" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="T122" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="U122" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="V122" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W122" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B123" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C123" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="D123">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
         <v>330</v>
@@ -19229,28 +18900,28 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="I123" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="J123" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="K123" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L123" t="b">
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="N123" t="s">
-        <v>1938</v>
+        <v>353</v>
       </c>
       <c r="O123" t="s">
-        <v>1939</v>
+        <v>353</v>
       </c>
       <c r="P123" t="s">
         <v>1940</v>
@@ -19271,7 +18942,7 @@
         <v>1945</v>
       </c>
       <c r="V123" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W123" t="s">
         <v>1946</v>
@@ -19288,10 +18959,10 @@
         <v>1949</v>
       </c>
       <c r="D124">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="E124">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
         <v>330</v>
@@ -19306,7 +18977,7 @@
         <v>1951</v>
       </c>
       <c r="J124" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="K124" t="s">
         <v>351</v>
@@ -19342,7 +19013,7 @@
         <v>1958</v>
       </c>
       <c r="V124" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="W124" t="s">
         <v>1959</v>
@@ -19359,10 +19030,10 @@
         <v>1962</v>
       </c>
       <c r="D125">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="F125" t="s">
         <v>330</v>
@@ -19377,16 +19048,16 @@
         <v>1964</v>
       </c>
       <c r="J125" t="s">
-        <v>274</v>
+        <v>1965</v>
       </c>
       <c r="K125" t="s">
-        <v>1280</v>
+        <v>399</v>
       </c>
       <c r="L125" t="b">
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="N125" t="s">
         <v>353</v>
@@ -19395,45 +19066,45 @@
         <v>353</v>
       </c>
       <c r="P125" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="Q125" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="R125" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="S125" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="T125" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="U125" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="V125" t="s">
         <v>344</v>
       </c>
       <c r="W125" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B126" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C126" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E126">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F126" t="s">
         <v>330</v>
@@ -19442,69 +19113,69 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="I126" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="J126" t="s">
-        <v>274</v>
+        <v>1965</v>
       </c>
       <c r="K126" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L126" t="b">
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="N126" t="s">
         <v>353</v>
       </c>
       <c r="O126" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="P126" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="Q126" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="R126" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="S126" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="T126" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="U126" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="V126" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W126" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B127" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C127" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F127" t="s">
         <v>330</v>
@@ -19513,69 +19184,69 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="I127" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="J127" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K127" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="L127" t="b">
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="N127" t="s">
-        <v>353</v>
+        <v>1993</v>
       </c>
       <c r="O127" t="s">
-        <v>353</v>
+        <v>1994</v>
       </c>
       <c r="P127" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="Q127" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="R127" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="S127" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="T127" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="U127" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="V127" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="W127" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="B128" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="C128" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D128">
         <v>3.1</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="F128" t="s">
         <v>330</v>
@@ -19584,22 +19255,22 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="I128" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J128" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K128" t="s">
-        <v>351</v>
+        <v>1241</v>
       </c>
       <c r="L128" t="b">
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="N128" t="s">
         <v>353</v>
@@ -19608,45 +19279,45 @@
         <v>353</v>
       </c>
       <c r="P128" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="Q128" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="R128" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="S128" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="T128" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="U128" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="V128" t="s">
         <v>344</v>
       </c>
       <c r="W128" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B129" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C129" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D129">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F129" t="s">
         <v>330</v>
@@ -19655,13 +19326,13 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="I129" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="J129" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K129" t="s">
         <v>351</v>
@@ -19670,7 +19341,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>2017</v>
+        <v>2055</v>
       </c>
       <c r="N129" t="s">
         <v>353</v>
@@ -19679,45 +19350,45 @@
         <v>353</v>
       </c>
       <c r="P129" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="Q129" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="R129" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="S129" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="T129" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="U129" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="V129" t="s">
         <v>344</v>
       </c>
       <c r="W129" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="B130" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="C130" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E130">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F130" t="s">
         <v>330</v>
@@ -19726,13 +19397,13 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="I130" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="J130" t="s">
-        <v>2030</v>
+        <v>296</v>
       </c>
       <c r="K130" t="s">
         <v>399</v>
@@ -19741,72 +19412,72 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="N130" t="s">
         <v>353</v>
       </c>
       <c r="O130" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="P130" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="Q130" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="R130" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="S130" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="T130" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="U130" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="V130" t="s">
-        <v>344</v>
+        <v>707</v>
       </c>
       <c r="W130" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B131" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C131" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="D131">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F131" t="s">
-        <v>330</v>
+        <v>2058</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>2042</v>
+        <v>2051</v>
       </c>
       <c r="I131" t="s">
         <v>2043</v>
       </c>
       <c r="J131" t="s">
-        <v>2030</v>
+        <v>2052</v>
       </c>
       <c r="K131" t="s">
-        <v>351</v>
+        <v>2053</v>
       </c>
       <c r="L131" t="b">
         <v>0</v>
@@ -19815,596 +19486,34 @@
         <v>2044</v>
       </c>
       <c r="N131" t="s">
-        <v>353</v>
+        <v>2056</v>
       </c>
       <c r="O131" t="s">
         <v>353</v>
       </c>
       <c r="P131" t="s">
+        <v>2057</v>
+      </c>
+      <c r="Q131" t="s">
         <v>2045</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="R131" t="s">
         <v>2046</v>
       </c>
-      <c r="R131" t="s">
+      <c r="S131" t="s">
         <v>2047</v>
       </c>
-      <c r="S131" t="s">
+      <c r="T131" t="s">
         <v>2048</v>
       </c>
-      <c r="T131" t="s">
+      <c r="U131" t="s">
         <v>2049</v>
-      </c>
-      <c r="U131" t="s">
-        <v>2050</v>
       </c>
       <c r="V131" t="s">
         <v>400</v>
       </c>
       <c r="W131" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2054</v>
-      </c>
-      <c r="D132">
-        <v>3</v>
-      </c>
-      <c r="E132">
-        <v>17</v>
-      </c>
-      <c r="F132" t="s">
-        <v>330</v>
-      </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" t="s">
-        <v>2055</v>
-      </c>
-      <c r="I132" t="s">
-        <v>2056</v>
-      </c>
-      <c r="J132" t="s">
-        <v>296</v>
-      </c>
-      <c r="K132" t="s">
-        <v>399</v>
-      </c>
-      <c r="L132" t="b">
-        <v>0</v>
-      </c>
-      <c r="M132" t="s">
-        <v>2057</v>
-      </c>
-      <c r="N132" t="s">
-        <v>2058</v>
-      </c>
-      <c r="O132" t="s">
-        <v>2059</v>
-      </c>
-      <c r="P132" t="s">
-        <v>2060</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>2061</v>
-      </c>
-      <c r="R132" t="s">
-        <v>2062</v>
-      </c>
-      <c r="S132" t="s">
-        <v>2063</v>
-      </c>
-      <c r="T132" t="s">
-        <v>2064</v>
-      </c>
-      <c r="U132" t="s">
-        <v>2065</v>
-      </c>
-      <c r="V132" t="s">
-        <v>400</v>
-      </c>
-      <c r="W132" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B133" t="s">
-        <v>2068</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D133">
-        <v>3.1</v>
-      </c>
-      <c r="E133">
-        <v>168</v>
-      </c>
-      <c r="F133" t="s">
-        <v>330</v>
-      </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" t="s">
-        <v>2070</v>
-      </c>
-      <c r="I133" t="s">
-        <v>2071</v>
-      </c>
-      <c r="J133" t="s">
-        <v>296</v>
-      </c>
-      <c r="K133" t="s">
-        <v>1280</v>
-      </c>
-      <c r="L133" t="b">
-        <v>0</v>
-      </c>
-      <c r="M133" t="s">
-        <v>2072</v>
-      </c>
-      <c r="N133" t="s">
-        <v>353</v>
-      </c>
-      <c r="O133" t="s">
-        <v>353</v>
-      </c>
-      <c r="P133" t="s">
-        <v>2073</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>2074</v>
-      </c>
-      <c r="R133" t="s">
-        <v>2075</v>
-      </c>
-      <c r="S133" t="s">
-        <v>2076</v>
-      </c>
-      <c r="T133" t="s">
-        <v>2077</v>
-      </c>
-      <c r="U133" t="s">
-        <v>2078</v>
-      </c>
-      <c r="V133" t="s">
-        <v>344</v>
-      </c>
-      <c r="W133" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>2080</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2081</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2082</v>
-      </c>
-      <c r="D134">
-        <v>3</v>
-      </c>
-      <c r="E134">
-        <v>5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>330</v>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" t="s">
-        <v>2083</v>
-      </c>
-      <c r="I134" t="s">
-        <v>2084</v>
-      </c>
-      <c r="J134" t="s">
-        <v>296</v>
-      </c>
-      <c r="K134" t="s">
-        <v>351</v>
-      </c>
-      <c r="L134" t="b">
-        <v>0</v>
-      </c>
-      <c r="M134" t="s">
-        <v>2140</v>
-      </c>
-      <c r="N134" t="s">
-        <v>353</v>
-      </c>
-      <c r="O134" t="s">
-        <v>353</v>
-      </c>
-      <c r="P134" t="s">
-        <v>2085</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>2086</v>
-      </c>
-      <c r="R134" t="s">
-        <v>2087</v>
-      </c>
-      <c r="S134" t="s">
-        <v>2088</v>
-      </c>
-      <c r="T134" t="s">
-        <v>2089</v>
-      </c>
-      <c r="U134" t="s">
-        <v>2090</v>
-      </c>
-      <c r="V134" t="s">
-        <v>344</v>
-      </c>
-      <c r="W134" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>2092</v>
-      </c>
-      <c r="B135" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2094</v>
-      </c>
-      <c r="D135">
-        <v>3.7</v>
-      </c>
-      <c r="E135">
-        <v>6</v>
-      </c>
-      <c r="F135" t="s">
-        <v>330</v>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" t="s">
-        <v>2095</v>
-      </c>
-      <c r="I135" t="s">
-        <v>2096</v>
-      </c>
-      <c r="J135" t="s">
-        <v>296</v>
-      </c>
-      <c r="K135" t="s">
-        <v>399</v>
-      </c>
-      <c r="L135" t="b">
-        <v>0</v>
-      </c>
-      <c r="M135" t="s">
-        <v>2097</v>
-      </c>
-      <c r="N135" t="s">
-        <v>353</v>
-      </c>
-      <c r="O135" t="s">
-        <v>433</v>
-      </c>
-      <c r="P135" t="s">
-        <v>2098</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>2099</v>
-      </c>
-      <c r="R135" t="s">
-        <v>2100</v>
-      </c>
-      <c r="S135" t="s">
-        <v>2101</v>
-      </c>
-      <c r="T135" t="s">
-        <v>2102</v>
-      </c>
-      <c r="U135" t="s">
-        <v>2103</v>
-      </c>
-      <c r="V135" t="s">
-        <v>720</v>
-      </c>
-      <c r="W135" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>2105</v>
-      </c>
-      <c r="B136" t="s">
-        <v>2106</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2107</v>
-      </c>
-      <c r="D136">
-        <v>3.4</v>
-      </c>
-      <c r="E136">
-        <v>32</v>
-      </c>
-      <c r="F136" t="s">
-        <v>330</v>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136" t="s">
-        <v>2108</v>
-      </c>
-      <c r="I136" t="s">
-        <v>2109</v>
-      </c>
-      <c r="J136" t="s">
-        <v>302</v>
-      </c>
-      <c r="K136" t="s">
-        <v>399</v>
-      </c>
-      <c r="L136" t="b">
-        <v>0</v>
-      </c>
-      <c r="M136" t="s">
-        <v>2110</v>
-      </c>
-      <c r="N136" t="s">
-        <v>2111</v>
-      </c>
-      <c r="O136" t="s">
-        <v>353</v>
-      </c>
-      <c r="P136" t="s">
-        <v>2112</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>2113</v>
-      </c>
-      <c r="R136" t="s">
-        <v>2114</v>
-      </c>
-      <c r="S136" t="s">
-        <v>2115</v>
-      </c>
-      <c r="T136" t="s">
-        <v>2116</v>
-      </c>
-      <c r="U136" t="s">
-        <v>2117</v>
-      </c>
-      <c r="V136" t="s">
-        <v>344</v>
-      </c>
-      <c r="W136" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>2119</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2121</v>
-      </c>
-      <c r="D137">
-        <v>2.9</v>
-      </c>
-      <c r="E137">
-        <v>18</v>
-      </c>
-      <c r="F137" t="s">
-        <v>2149</v>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" t="s">
-        <v>2133</v>
-      </c>
-      <c r="I137" t="s">
-        <v>2122</v>
-      </c>
-      <c r="J137" t="s">
-        <v>2136</v>
-      </c>
-      <c r="K137" t="s">
-        <v>2138</v>
-      </c>
-      <c r="L137" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137" t="s">
-        <v>2123</v>
-      </c>
-      <c r="N137" t="s">
-        <v>2143</v>
-      </c>
-      <c r="O137" t="s">
-        <v>353</v>
-      </c>
-      <c r="P137" t="s">
-        <v>2146</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>2124</v>
-      </c>
-      <c r="R137" t="s">
-        <v>2125</v>
-      </c>
-      <c r="S137" t="s">
-        <v>2126</v>
-      </c>
-      <c r="T137" t="s">
-        <v>2127</v>
-      </c>
-      <c r="U137" t="s">
-        <v>2128</v>
-      </c>
-      <c r="V137" t="s">
-        <v>400</v>
-      </c>
-      <c r="W137" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>2131</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="D138" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="E138" s="1">
-        <v>132</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G138" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>2134</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>2135</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>2137</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>2139</v>
-      </c>
-      <c r="L138" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>2142</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>2144</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>2145</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>2147</v>
-      </c>
-      <c r="Q138" s="1" t="s">
-        <v>2147</v>
-      </c>
-      <c r="R138" s="1" t="s">
-        <v>2148</v>
-      </c>
-      <c r="S138" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="T138" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="U138" s="1" t="s">
-        <v>2141</v>
-      </c>
-      <c r="V138" s="1" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>2151</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>2153</v>
-      </c>
-      <c r="D139" s="1">
-        <v>5</v>
-      </c>
-      <c r="E139" s="1">
-        <v>1</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G139" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>2154</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>2156</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L139" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>2145</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>2159</v>
-      </c>
-      <c r="Q139" s="1" t="s">
-        <v>2159</v>
-      </c>
-      <c r="R139" s="1" t="s">
-        <v>2160</v>
-      </c>
-      <c r="S139" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="T139" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="U139" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="V139" s="1" t="s">
-        <v>2150</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_2022/dataset_Vitas_plus_large.xlsx
+++ b/dataset_2022/dataset_Vitas_plus_large.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\4-Elevate\GPT4_vitas\dataset_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\6-VUI_problem\code\Vitas+\dataset_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE942D-6896-4786-9D1A-91836C87DC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AD23BB-3F19-4690-95AF-30744274E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7870" yWindow="1030" windowWidth="14360" windowHeight="15280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10110" yWindow="370" windowWidth="14360" windowHeight="15280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elevate(large)" sheetId="1" r:id="rId1"/>
@@ -1673,6 +1673,9 @@
     <t>B07QKVXCXW</t>
   </si>
   <si>
+    <t>White House History Guide</t>
+  </si>
+  <si>
     <t>White House Historical Association</t>
   </si>
   <si>
@@ -2228,6 +2231,9 @@
     <t>B07F33J2JX</t>
   </si>
   <si>
+    <t>Emotion Picker</t>
+  </si>
+  <si>
     <t>VipinKJonwal</t>
   </si>
   <si>
@@ -5079,9 +5085,6 @@
   </si>
   <si>
     <t>B07W9J4JZ2</t>
-  </si>
-  <si>
-    <t>I Am Rich</t>
   </si>
   <si>
     <t>Sleepy Sound</t>
@@ -5717,11 +5720,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Emotion Picker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White House History Guide</t>
+    <t>I Am Rich</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5745,18 +5744,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5771,10 +5764,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -9730,8 +9722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B113" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9817,7 +9809,7 @@
         <v>327</v>
       </c>
       <c r="B2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C2" t="s">
         <v>328</v>
@@ -9915,7 +9907,7 @@
         <v>332</v>
       </c>
       <c r="K3" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -10238,74 +10230,74 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2.6</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>230</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="2" t="s">
         <v>425</v>
       </c>
     </row>
@@ -10948,86 +10940,86 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D18" s="3">
+      <c r="C18" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="G18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="N18" s="3" t="s">
+      <c r="L18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q18" s="3" t="s">
+      <c r="P18" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="Q18" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="R18" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="S18" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="T18" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="U18" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>560</v>
+      <c r="W18" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -11042,10 +11034,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I19" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J19" t="s">
         <v>390</v>
@@ -11057,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N19" t="s">
         <v>352</v>
@@ -11066,39 +11058,39 @@
         <v>352</v>
       </c>
       <c r="P19" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="R19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="S19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="T19" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="U19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="V19" t="s">
         <v>399</v>
       </c>
       <c r="W19" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D20">
         <v>2.5</v>
@@ -11113,13 +11105,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I20" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K20" t="s">
         <v>350</v>
@@ -11128,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N20" t="s">
         <v>352</v>
@@ -11137,110 +11129,110 @@
         <v>352</v>
       </c>
       <c r="P20" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q20" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R20" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S20" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T20" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U20" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="V20" t="s">
         <v>343</v>
       </c>
       <c r="W20" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D21" s="3">
+      <c r="C21" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D21" s="2">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="G21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="I21" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="N21" s="3" t="s">
+      <c r="L21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="Q21" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="R21" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="S21" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="T21" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="U21" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>599</v>
+      <c r="W21" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B22" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C22" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D22">
         <v>3.5</v>
@@ -11255,13 +11247,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="J22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K22" t="s">
         <v>350</v>
@@ -11270,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N22" t="s">
         <v>352</v>
@@ -11279,39 +11271,39 @@
         <v>352</v>
       </c>
       <c r="P22" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="R22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="S22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="U22" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="V22" t="s">
         <v>399</v>
       </c>
       <c r="W22" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B23" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -11326,22 +11318,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I23" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J23" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K23" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N23" t="s">
         <v>352</v>
@@ -11350,39 +11342,39 @@
         <v>352</v>
       </c>
       <c r="P23" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q23" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="R23" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="S23" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T23" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="U23" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="V23" t="s">
         <v>343</v>
       </c>
       <c r="W23" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B24" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C24" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D24">
         <v>3.4</v>
@@ -11397,13 +11389,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I24" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J24" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K24" t="s">
         <v>350</v>
@@ -11412,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N24" t="s">
         <v>352</v>
@@ -11421,39 +11413,39 @@
         <v>352</v>
       </c>
       <c r="P24" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Q24" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="R24" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="S24" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="T24" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="U24" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="V24" t="s">
         <v>399</v>
       </c>
       <c r="W24" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C25" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D25">
         <v>3.8</v>
@@ -11468,13 +11460,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I25" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J25" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K25" t="s">
         <v>350</v>
@@ -11483,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N25" t="s">
         <v>352</v>
@@ -11492,252 +11484,252 @@
         <v>352</v>
       </c>
       <c r="P25" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q25" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="R25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="S25" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T25" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="U25" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="V25" t="s">
         <v>399</v>
       </c>
       <c r="W25" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="G26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="I26" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="N26" s="3" t="s">
+      <c r="L26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q26" s="3" t="s">
+      <c r="P26" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="Q26" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="R26" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="S26" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="T26" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="U26" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="V26" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="W26" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="D27" s="3">
+      <c r="C27" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D27" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>5</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="G27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="I27" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="N27" s="3" t="s">
+      <c r="L27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q27" s="3" t="s">
+      <c r="P27" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="Q27" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="R27" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="S27" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="T27" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="U27" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="V27" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="W27" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D28" s="2">
         <v>2.4</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>5</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="I28" s="3" t="s">
+      <c r="G28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="N28" s="3" t="s">
+      <c r="L28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="P28" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q28" s="3" t="s">
+      <c r="P28" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="Q28" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="R28" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="S28" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="T28" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="U28" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="V28" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W28" s="3" t="s">
-        <v>691</v>
+      <c r="W28" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B29" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C29" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D29">
         <v>3.3</v>
@@ -11752,13 +11744,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I29" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J29" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K29" t="s">
         <v>398</v>
@@ -11767,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N29" t="s">
         <v>432</v>
@@ -11776,39 +11768,39 @@
         <v>352</v>
       </c>
       <c r="P29" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q29" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="R29" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="S29" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T29" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="U29" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="V29" t="s">
         <v>343</v>
       </c>
       <c r="W29" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B30" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C30" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D30">
         <v>3.1</v>
@@ -11823,13 +11815,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="I30" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="J30" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K30" t="s">
         <v>350</v>
@@ -11838,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N30" t="s">
         <v>352</v>
@@ -11847,39 +11839,39 @@
         <v>352</v>
       </c>
       <c r="P30" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Q30" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="R30" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="S30" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="T30" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="U30" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="V30" t="s">
         <v>343</v>
       </c>
       <c r="W30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B31" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C31" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D31">
         <v>2.7</v>
@@ -11894,13 +11886,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I31" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J31" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K31" t="s">
         <v>350</v>
@@ -11909,119 +11901,119 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N31" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O31" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="P31" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Q31" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="R31" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="S31" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T31" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="U31" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="V31" t="s">
         <v>399</v>
       </c>
       <c r="W31" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="32" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D32" s="4">
+      <c r="B32" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D32" s="3">
         <v>4</v>
       </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="G32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="L32" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="N32" s="4" t="s">
+      <c r="L32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="R32" s="4" t="s">
+      <c r="P32" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="Q32" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="R32" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="S32" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="T32" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="W32" s="4" t="s">
-        <v>745</v>
+      <c r="W32" s="3" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B33" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C33" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D33">
         <v>2.5</v>
@@ -12036,13 +12028,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="I33" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="J33" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K33" t="s">
         <v>398</v>
@@ -12051,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N33" t="s">
         <v>352</v>
@@ -12060,110 +12052,110 @@
         <v>352</v>
       </c>
       <c r="P33" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="Q33" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="R33" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="S33" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="T33" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="U33" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="V33" t="s">
         <v>399</v>
       </c>
       <c r="W33" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="D34" s="3">
+      <c r="B34" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>8</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="G34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="Q34" s="3" t="s">
+      <c r="L34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="O34" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="Q34" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="R34" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="S34" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="T34" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="V34" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W34" s="3" t="s">
-        <v>775</v>
+      <c r="W34" s="2" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B35" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C35" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D35">
         <v>3.4</v>
@@ -12178,13 +12170,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="I35" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="J35" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K35" t="s">
         <v>398</v>
@@ -12193,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N35" t="s">
         <v>352</v>
@@ -12202,181 +12194,181 @@
         <v>352</v>
       </c>
       <c r="P35" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="Q35" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="R35" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="S35" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="T35" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="U35" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="V35" t="s">
         <v>343</v>
       </c>
       <c r="W35" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="B36" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="C36" s="3" t="s">
+    </row>
+    <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="D36" s="3">
+      <c r="B36" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D36" s="2">
         <v>5</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="G36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="N36" s="3" t="s">
+      <c r="L36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P36" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="R36" s="3" t="s">
+      <c r="P36" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="Q36" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="R36" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="S36" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="V36" s="3" t="s">
+      <c r="T36" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="V36" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W36" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="W36" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C37" s="3" t="s">
+    </row>
+    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="D37" s="3">
+      <c r="B37" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>4</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K37" s="3" t="s">
+      <c r="G37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="P37" s="3" t="s">
+      <c r="L37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="N37" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="O37" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="P37" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="Q37" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="R37" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="S37" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="T37" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="V37" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W37" s="3" t="s">
-        <v>815</v>
+      <c r="W37" s="2" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D38" s="2">
         <v>1.5</v>
@@ -12391,134 +12383,134 @@
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="L38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>352</v>
       </c>
       <c r="P38" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="U38" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>399</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="B39" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C39" s="3" t="s">
+    </row>
+    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="D39" s="3">
+      <c r="B39" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D39" s="2">
         <v>4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>191</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="G39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="L39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="J39" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="L39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P39" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="R39" s="3" t="s">
+      <c r="P39" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="Q39" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="R39" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="S39" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="V39" s="3" t="s">
+      <c r="T39" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="V39" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W39" s="3" t="s">
-        <v>843</v>
+      <c r="W39" s="2" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B40" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C40" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D40">
         <v>4.5</v>
@@ -12533,13 +12525,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="I40" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="J40" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K40" t="s">
         <v>350</v>
@@ -12548,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N40" t="s">
         <v>352</v>
@@ -12557,252 +12549,252 @@
         <v>352</v>
       </c>
       <c r="P40" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="Q40" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="R40" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="S40" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="T40" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="U40" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="V40" t="s">
         <v>343</v>
       </c>
       <c r="W40" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B41" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="D41" s="3">
+      <c r="B41" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D41" s="2">
         <v>2.9</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>43</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K41" s="3" t="s">
+      <c r="G41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="O41" s="3" t="s">
+      <c r="L41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="N41" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="O41" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="P41" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="Q41" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="R41" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="V41" s="3" t="s">
+      <c r="S41" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="V41" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="W41" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="D42" s="3">
+      <c r="B42" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D42" s="2">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="G42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="N42" s="3" t="s">
+      <c r="L42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="S42" s="3" t="s">
+      <c r="P42" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="Q42" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="S42" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="T42" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="V42" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="W42" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C43" s="3" t="s">
+    </row>
+    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D43" s="3">
+      <c r="B43" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D43" s="2">
         <v>2.4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>8</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="G43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="L43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="J43" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="L43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="R43" s="3" t="s">
+      <c r="P43" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="Q43" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="R43" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="S43" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="T43" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="V43" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>896</v>
+      <c r="W43" s="2" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B44" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C44" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D44">
         <v>2.9</v>
@@ -12817,13 +12809,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="I44" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="J44" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K44" t="s">
         <v>350</v>
@@ -12832,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N44" t="s">
         <v>352</v>
@@ -12841,39 +12833,39 @@
         <v>352</v>
       </c>
       <c r="P44" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="Q44" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="R44" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="S44" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="T44" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="U44" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="V44" t="s">
         <v>343</v>
       </c>
       <c r="W44" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B45" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C45" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -12888,13 +12880,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="I45" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="J45" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K45" t="s">
         <v>350</v>
@@ -12903,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="N45" t="s">
         <v>352</v>
@@ -12912,39 +12904,39 @@
         <v>352</v>
       </c>
       <c r="P45" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="Q45" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="R45" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="S45" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="T45" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="U45" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="V45" t="s">
         <v>399</v>
       </c>
       <c r="W45" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B46" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C46" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -12959,13 +12951,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I46" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="J46" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K46" t="s">
         <v>398</v>
@@ -12974,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="N46" t="s">
         <v>432</v>
@@ -12983,323 +12975,323 @@
         <v>432</v>
       </c>
       <c r="P46" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="Q46" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="R46" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="S46" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="T46" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="U46" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="V46" t="s">
         <v>343</v>
       </c>
       <c r="W46" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="B47" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="C47" s="3" t="s">
+    </row>
+    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="D47" s="3">
+      <c r="B47" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D47" s="2">
         <v>2.4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>17</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K47" s="3" t="s">
+      <c r="G47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="N47" s="3" t="s">
+      <c r="L47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="R47" s="3" t="s">
+      <c r="P47" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="Q47" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="R47" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="S47" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="T47" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="V47" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="W47" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row r="48" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="D48" s="3">
+      <c r="B48" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D48" s="2">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="G48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="N48" s="3" t="s">
+      <c r="L48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="R48" s="3" t="s">
+      <c r="P48" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="Q48" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="R48" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="S48" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="T48" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="V48" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="W48" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C49" s="3" t="s">
+    </row>
+    <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D49" s="3">
+      <c r="B49" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D49" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>8</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K49" s="3" t="s">
+      <c r="G49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="N49" s="3" t="s">
+      <c r="L49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="R49" s="3" t="s">
+      <c r="P49" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="Q49" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="R49" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="S49" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="T49" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="V49" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="W49" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="C50" s="3" t="s">
+    </row>
+    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="D50" s="3">
+      <c r="B50" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="D50" s="2">
         <v>2.9</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>47</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="G50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="N50" s="3" t="s">
+      <c r="L50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="P50" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="R50" s="3" t="s">
+      <c r="P50" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="S50" s="3" t="s">
+      <c r="Q50" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="T50" s="3" t="s">
+      <c r="R50" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="U50" s="3" t="s">
+      <c r="S50" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="V50" s="3" t="s">
+      <c r="T50" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="V50" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W50" s="3" t="s">
-        <v>986</v>
+      <c r="W50" s="2" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B51" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C51" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -13314,13 +13306,13 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="I51" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="J51" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K51" t="s">
         <v>350</v>
@@ -13329,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="N51" t="s">
         <v>352</v>
@@ -13338,39 +13330,39 @@
         <v>352</v>
       </c>
       <c r="P51" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="Q51" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="R51" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="S51" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="T51" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="U51" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="V51" t="s">
         <v>343</v>
       </c>
       <c r="W51" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B52" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C52" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D52">
         <v>4.5999999999999996</v>
@@ -13385,13 +13377,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="I52" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="J52" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K52" t="s">
         <v>350</v>
@@ -13400,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="N52" t="s">
         <v>352</v>
@@ -13409,39 +13401,39 @@
         <v>352</v>
       </c>
       <c r="P52" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="Q52" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="R52" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="S52" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="T52" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="U52" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="V52" t="s">
         <v>399</v>
       </c>
       <c r="W52" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -13456,13 +13448,13 @@
         <v>0</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>398</v>
@@ -13471,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>352</v>
@@ -13480,39 +13472,39 @@
         <v>352</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>399</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B54" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C54" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -13527,13 +13519,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="I54" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="J54" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K54" t="s">
         <v>398</v>
@@ -13542,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="N54" t="s">
         <v>352</v>
@@ -13551,323 +13543,323 @@
         <v>352</v>
       </c>
       <c r="P54" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="Q54" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="R54" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="S54" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="T54" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="U54" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="V54" t="s">
         <v>343</v>
       </c>
       <c r="W54" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B55" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D55" s="3">
+    </row>
+    <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D55" s="2">
         <v>3.2</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>42</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G55" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K55" s="3" t="s">
+      <c r="G55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L55" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N55" s="3" t="s">
+      <c r="L55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P55" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="S55" s="3" t="s">
+      <c r="P55" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="T55" s="3" t="s">
+      <c r="Q55" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R55" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="U55" s="3" t="s">
+      <c r="S55" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="V55" s="3" t="s">
+      <c r="T55" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="V55" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W55" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="W55" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G56" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="G56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L56" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N56" s="3" t="s">
+      <c r="L56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="P56" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="R56" s="3" t="s">
+      <c r="P56" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="S56" s="3" t="s">
+      <c r="Q56" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="T56" s="3" t="s">
+      <c r="R56" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="U56" s="3" t="s">
+      <c r="S56" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="V56" s="3" t="s">
+      <c r="T56" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="V56" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W56" s="3" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="W56" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="C57" s="3" t="s">
+    </row>
+    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="D57" s="3">
+      <c r="B57" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D57" s="2">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3" t="s">
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G57" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="G57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L57" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O57" s="3" t="s">
+      <c r="L57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="N57" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="O57" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="P57" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="Q57" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="R57" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="S57" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="T57" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="V57" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="W57" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="C58" s="3" t="s">
+    </row>
+    <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="D58" s="3">
+      <c r="B58" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D58" s="2">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>2</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="K58" s="3" t="s">
+      <c r="G58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="P58" s="3" t="s">
+      <c r="L58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="N58" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="O58" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P58" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="Q58" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="R58" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="S58" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="T58" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="V58" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>1090</v>
+      <c r="W58" s="2" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B59" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C59" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -13882,13 +13874,13 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="I59" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="J59" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K59" t="s">
         <v>470</v>
@@ -13897,48 +13889,48 @@
         <v>0</v>
       </c>
       <c r="M59" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="N59" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="O59" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="P59" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="Q59" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="R59" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="S59" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="T59" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="U59" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="V59" t="s">
         <v>399</v>
       </c>
       <c r="W59" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B60" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C60" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D60">
         <v>4.0999999999999996</v>
@@ -13953,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="I60" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="J60" t="s">
         <v>173</v>
@@ -13968,119 +13960,119 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="N60" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="O60" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="P60" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="Q60" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="R60" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="S60" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="T60" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="U60" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="V60" t="s">
         <v>343</v>
       </c>
       <c r="W60" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B61" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="C61" s="3" t="s">
+    </row>
+    <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G61" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="G61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L61" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="N61" s="3" t="s">
+      <c r="L61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="O61" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="P61" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="T61" s="3" t="s">
+      <c r="P61" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="U61" s="3" t="s">
+      <c r="Q61" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="S61" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="V61" s="3" t="s">
+      <c r="T61" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="V61" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W61" s="3" t="s">
-        <v>1128</v>
+      <c r="W61" s="2" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B62" t="s">
         <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D62">
         <v>2.4</v>
@@ -14095,63 +14087,63 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="I62" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="J62" t="s">
         <v>173</v>
       </c>
       <c r="K62" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="N62" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="O62" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="P62" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="Q62" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="R62" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="S62" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="T62" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U62" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="V62" t="s">
         <v>343</v>
       </c>
       <c r="W62" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D63" s="1">
         <v>5</v>
@@ -14166,22 +14158,22 @@
         <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>179</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>352</v>
@@ -14190,39 +14182,39 @@
         <v>352</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>399</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B64" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C64" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -14237,10 +14229,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="I64" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="J64" t="s">
         <v>179</v>
@@ -14252,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="N64" t="s">
         <v>352</v>
@@ -14261,181 +14253,181 @@
         <v>352</v>
       </c>
       <c r="P64" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="Q64" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="R64" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="S64" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="T64" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="U64" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="V64" t="s">
         <v>399</v>
       </c>
       <c r="W64" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B65" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="C65" s="3" t="s">
+    </row>
+    <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="D65" s="3">
+      <c r="B65" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D65" s="2">
         <v>3</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>20</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G65" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="G65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L65" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="N65" s="3" t="s">
+      <c r="L65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N65" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="O65" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P65" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="Q65" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="R65" s="3" t="s">
+      <c r="P65" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="S65" s="3" t="s">
+      <c r="Q65" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="T65" s="3" t="s">
+      <c r="R65" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="U65" s="3" t="s">
+      <c r="S65" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="V65" s="3" t="s">
+      <c r="T65" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="V65" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W65" s="3" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="W65" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="D66" s="3">
+    </row>
+    <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D66" s="2">
         <v>5</v>
       </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G66" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="G66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L66" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="O66" s="3" t="s">
+      <c r="L66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="N66" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="O66" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="R66" s="3" t="s">
+      <c r="P66" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="S66" s="3" t="s">
+      <c r="Q66" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="T66" s="3" t="s">
+      <c r="R66" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="U66" s="3" t="s">
+      <c r="S66" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="V66" s="3" t="s">
+      <c r="T66" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="V66" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>1182</v>
+      <c r="W66" s="2" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B67" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C67" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -14450,22 +14442,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I67" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="J67" t="s">
         <v>179</v>
       </c>
       <c r="K67" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="N67" t="s">
         <v>352</v>
@@ -14474,39 +14466,39 @@
         <v>352</v>
       </c>
       <c r="P67" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="Q67" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="R67" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="S67" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="T67" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="U67" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="V67" t="s">
         <v>343</v>
       </c>
       <c r="W67" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B68" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C68" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -14521,10 +14513,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="I68" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J68" t="s">
         <v>179</v>
@@ -14536,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="N68" t="s">
         <v>352</v>
@@ -14545,110 +14537,110 @@
         <v>352</v>
       </c>
       <c r="P68" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="Q68" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="R68" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="S68" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="T68" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="U68" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="V68" t="s">
         <v>343</v>
       </c>
       <c r="W68" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B69" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="C69" s="3" t="s">
+    </row>
+    <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="D69" s="3">
+      <c r="B69" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D69" s="2">
         <v>4</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>10</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G69" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J69" s="3" t="s">
+      <c r="G69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K69" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L69" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="N69" s="3" t="s">
+      <c r="L69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N69" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="O69" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P69" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="Q69" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="R69" s="3" t="s">
+      <c r="P69" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="S69" s="3" t="s">
+      <c r="Q69" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="T69" s="3" t="s">
+      <c r="R69" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="U69" s="3" t="s">
+      <c r="S69" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="V69" s="3" t="s">
+      <c r="T69" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="V69" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W69" s="3" t="s">
-        <v>1222</v>
+      <c r="W69" s="2" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B70" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C70" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D70">
         <v>2.6</v>
@@ -14663,22 +14655,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="I70" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="J70" t="s">
         <v>179</v>
       </c>
       <c r="K70" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="L70" t="b">
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="N70" t="s">
         <v>352</v>
@@ -14687,39 +14679,39 @@
         <v>352</v>
       </c>
       <c r="P70" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="Q70" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="R70" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="S70" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="T70" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="U70" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="V70" t="s">
         <v>343</v>
       </c>
       <c r="W70" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B71" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C71" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D71">
         <v>3.5</v>
@@ -14734,10 +14726,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="I71" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J71" t="s">
         <v>179</v>
@@ -14749,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="N71" t="s">
         <v>352</v>
@@ -14758,252 +14750,252 @@
         <v>352</v>
       </c>
       <c r="P71" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="Q71" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="R71" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="S71" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="T71" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="U71" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="V71" t="s">
         <v>343</v>
       </c>
       <c r="W71" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B72" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="C72" s="3" t="s">
+    </row>
+    <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="D72" s="3">
+      <c r="B72" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D72" s="2">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G72" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="G72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L72" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="O72" s="3" t="s">
+      <c r="L72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="O72" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="R72" s="3" t="s">
+      <c r="P72" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="Q72" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="R72" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="S72" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="T72" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="V72" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="W72" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="C73" s="3" t="s">
+    </row>
+    <row r="73" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="D73" s="3">
+      <c r="B73" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D73" s="2">
         <v>5</v>
       </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G73" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="G73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L73" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="O73" s="3" t="s">
+      <c r="L73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O73" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P73" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="Q73" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="R73" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="S73" s="3" t="s">
+      <c r="P73" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="T73" s="3" t="s">
+      <c r="Q73" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="R73" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="U73" s="3" t="s">
+      <c r="S73" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="V73" s="3" t="s">
+      <c r="T73" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="V73" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W73" s="3" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="W73" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="C74" s="3" t="s">
+    </row>
+    <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="D74" s="3">
+      <c r="B74" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D74" s="2">
         <v>3.3</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>3</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G74" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>1279</v>
-      </c>
-      <c r="J74" s="3" t="s">
+      <c r="G74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L74" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>1280</v>
-      </c>
-      <c r="N74" s="3" t="s">
+      <c r="L74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O74" s="3" t="s">
+      <c r="O74" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P74" s="3" t="s">
-        <v>1281</v>
-      </c>
-      <c r="Q74" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="R74" s="3" t="s">
+      <c r="P74" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="S74" s="3" t="s">
+      <c r="Q74" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="T74" s="3" t="s">
+      <c r="R74" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="U74" s="3" t="s">
+      <c r="S74" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="V74" s="3" t="s">
+      <c r="T74" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="V74" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W74" s="3" t="s">
-        <v>1287</v>
+      <c r="W74" s="2" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="B75" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C75" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D75">
         <v>2.8</v>
@@ -15018,10 +15010,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="I75" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="J75" t="s">
         <v>179</v>
@@ -15033,48 +15025,48 @@
         <v>0</v>
       </c>
       <c r="M75" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="N75" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="O75" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="P75" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="Q75" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="R75" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="S75" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="T75" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="U75" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="V75" t="s">
         <v>399</v>
       </c>
       <c r="W75" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B76" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C76" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -15089,10 +15081,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="I76" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="J76" t="s">
         <v>179</v>
@@ -15104,7 +15096,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="N76" t="s">
         <v>352</v>
@@ -15113,39 +15105,39 @@
         <v>352</v>
       </c>
       <c r="P76" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="Q76" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="R76" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="S76" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="T76" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="U76" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="V76" t="s">
         <v>399</v>
       </c>
       <c r="W76" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B77" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C77" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D77">
         <v>2.6</v>
@@ -15160,10 +15152,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="I77" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="J77" t="s">
         <v>179</v>
@@ -15175,7 +15167,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="N77" t="s">
         <v>352</v>
@@ -15184,110 +15176,110 @@
         <v>352</v>
       </c>
       <c r="P77" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="Q77" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="R77" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="S77" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="T77" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="U77" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="V77" t="s">
         <v>343</v>
       </c>
       <c r="W77" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="B78" s="3" t="s">
+    </row>
+    <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3" t="s">
+      <c r="K78" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R78" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="L78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="Q78" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="R78" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="T78" s="3" t="s">
+      <c r="S78" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="U78" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="U78" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="V78" s="3" t="s">
+      <c r="V78" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W78" s="3" t="s">
-        <v>1339</v>
+      <c r="W78" s="2" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="B79" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="C79" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D79">
         <v>3.3</v>
@@ -15302,13 +15294,13 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="I79" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="J79" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="K79" t="s">
         <v>350</v>
@@ -15317,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="N79" t="s">
         <v>352</v>
@@ -15326,110 +15318,110 @@
         <v>352</v>
       </c>
       <c r="P79" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="Q79" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="R79" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="S79" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="T79" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="U79" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="V79" t="s">
         <v>399</v>
       </c>
       <c r="W79" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B80" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="C80" s="3" t="s">
+    </row>
+    <row r="80" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="D80" s="3">
+      <c r="B80" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D80" s="2">
         <v>5</v>
       </c>
-      <c r="E80" s="3">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G80" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K80" s="3" t="s">
+      <c r="G80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L80" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="N80" s="3" t="s">
+      <c r="L80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O80" s="3" t="s">
+      <c r="O80" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P80" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="R80" s="3" t="s">
+      <c r="P80" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="S80" s="3" t="s">
+      <c r="Q80" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="T80" s="3" t="s">
+      <c r="R80" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="U80" s="3" t="s">
+      <c r="S80" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="V80" s="3" t="s">
+      <c r="T80" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="V80" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W80" s="3" t="s">
-        <v>1365</v>
+      <c r="W80" s="2" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B81" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C81" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D81">
         <v>3.1</v>
@@ -15444,13 +15436,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="I81" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="J81" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="K81" t="s">
         <v>350</v>
@@ -15459,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="N81" t="s">
         <v>352</v>
@@ -15468,252 +15460,252 @@
         <v>352</v>
       </c>
       <c r="P81" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="Q81" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="R81" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="S81" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="T81" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="U81" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="V81" t="s">
         <v>343</v>
       </c>
       <c r="W81" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B82" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="C82" s="3" t="s">
+    </row>
+    <row r="82" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="D82" s="3">
+      <c r="B82" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D82" s="2">
         <v>4</v>
       </c>
-      <c r="E82" s="3">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G82" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K82" s="3" t="s">
+      <c r="G82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L82" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="N82" s="3" t="s">
+      <c r="L82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O82" s="3" t="s">
+      <c r="O82" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P82" s="3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="Q82" s="3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="R82" s="3" t="s">
+      <c r="P82" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="S82" s="3" t="s">
+      <c r="Q82" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="T82" s="3" t="s">
+      <c r="R82" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="U82" s="3" t="s">
+      <c r="S82" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="V82" s="3" t="s">
+      <c r="T82" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="V82" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W82" s="3" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="W82" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="83" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="D83" s="3">
+      <c r="B83" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D83" s="2">
         <v>2.9</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <v>3</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G83" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="G83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K83" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L83" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="N83" s="3" t="s">
+      <c r="L83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="N83" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="O83" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>1399</v>
-      </c>
-      <c r="R83" s="3" t="s">
+      <c r="P83" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="S83" s="3" t="s">
+      <c r="Q83" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="T83" s="3" t="s">
+      <c r="R83" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="S83" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="V83" s="3" t="s">
+      <c r="T83" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="V83" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="W83" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="C84" s="3" t="s">
+    </row>
+    <row r="84" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="D84" s="3">
+      <c r="B84" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D84" s="2">
         <v>3.7</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>12</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G84" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K84" s="3" t="s">
+      <c r="G84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K84" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L84" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="N84" s="3" t="s">
+      <c r="L84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O84" s="3" t="s">
+      <c r="O84" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P84" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="Q84" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="R84" s="3" t="s">
+      <c r="P84" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="S84" s="3" t="s">
+      <c r="Q84" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="T84" s="3" t="s">
+      <c r="R84" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="U84" s="3" t="s">
+      <c r="S84" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="V84" s="3" t="s">
+      <c r="T84" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="V84" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W84" s="3" t="s">
-        <v>1417</v>
+      <c r="W84" s="2" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="B85" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C85" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -15728,13 +15720,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="I85" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="J85" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="K85" t="s">
         <v>350</v>
@@ -15743,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="N85" t="s">
         <v>352</v>
@@ -15752,39 +15744,39 @@
         <v>352</v>
       </c>
       <c r="P85" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="Q85" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="R85" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="S85" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="T85" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="U85" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="V85" t="s">
         <v>343</v>
       </c>
       <c r="W85" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B86" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C86" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -15799,13 +15791,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="I86" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="J86" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="K86" t="s">
         <v>398</v>
@@ -15814,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="N86" t="s">
         <v>352</v>
@@ -15823,39 +15815,39 @@
         <v>352</v>
       </c>
       <c r="P86" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="Q86" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="R86" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="S86" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="T86" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="U86" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="V86" t="s">
         <v>343</v>
       </c>
       <c r="W86" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B87" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C87" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D87">
         <v>3.3</v>
@@ -15870,13 +15862,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="I87" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="J87" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="K87" t="s">
         <v>470</v>
@@ -15885,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="N87" t="s">
         <v>352</v>
@@ -15894,39 +15886,39 @@
         <v>352</v>
       </c>
       <c r="P87" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="Q87" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="R87" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="S87" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="T87" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="U87" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="V87" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="W87" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="B88" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C88" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -15941,13 +15933,13 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="I88" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="J88" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="K88" t="s">
         <v>350</v>
@@ -15956,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="N88" t="s">
         <v>352</v>
@@ -15965,39 +15957,39 @@
         <v>352</v>
       </c>
       <c r="P88" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="Q88" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="R88" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="S88" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="T88" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="U88" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="V88" t="s">
         <v>343</v>
       </c>
       <c r="W88" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="B89" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C89" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -16012,13 +16004,13 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="I89" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="J89" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="K89" t="s">
         <v>398</v>
@@ -16027,7 +16019,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="N89" t="s">
         <v>352</v>
@@ -16036,39 +16028,39 @@
         <v>352</v>
       </c>
       <c r="P89" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="Q89" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="R89" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="S89" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="T89" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="U89" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="V89" t="s">
         <v>343</v>
       </c>
       <c r="W89" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="B90" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="C90" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D90">
         <v>3.1</v>
@@ -16083,13 +16075,13 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="I90" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="J90" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="K90" t="s">
         <v>350</v>
@@ -16098,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="N90" t="s">
         <v>352</v>
@@ -16107,39 +16099,39 @@
         <v>352</v>
       </c>
       <c r="P90" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="Q90" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="R90" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="S90" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="T90" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="U90" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="V90" t="s">
         <v>343</v>
       </c>
       <c r="W90" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="B91" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="C91" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D91">
         <v>3.4</v>
@@ -16154,22 +16146,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="I91" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="J91" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="K91" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="N91" t="s">
         <v>352</v>
@@ -16178,181 +16170,181 @@
         <v>352</v>
       </c>
       <c r="P91" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="Q91" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="R91" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="S91" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="T91" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="U91" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="V91" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="W91" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B92" s="3" t="s">
         <v>1511</v>
       </c>
-      <c r="C92" s="3" t="s">
+    </row>
+    <row r="92" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="D92" s="3">
+      <c r="B92" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D92" s="2">
         <v>3.6</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <v>4</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G92" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>1513</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>1514</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K92" s="3" t="s">
+      <c r="G92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L92" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>1515</v>
-      </c>
-      <c r="N92" s="3" t="s">
+      <c r="L92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O92" s="3" t="s">
+      <c r="O92" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P92" s="3" t="s">
-        <v>1516</v>
-      </c>
-      <c r="Q92" s="3" t="s">
-        <v>1517</v>
-      </c>
-      <c r="R92" s="3" t="s">
+      <c r="P92" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="S92" s="3" t="s">
+      <c r="Q92" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="T92" s="3" t="s">
+      <c r="R92" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="U92" s="3" t="s">
+      <c r="S92" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="V92" s="3" t="s">
+      <c r="T92" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="V92" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W92" s="3" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="W92" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="C93" s="3" t="s">
+    </row>
+    <row r="93" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="D93" s="3">
+      <c r="B93" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D93" s="2">
         <v>3.6</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>4</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G93" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>1526</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="K93" s="3" t="s">
+      <c r="G93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L93" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="N93" s="3" t="s">
+      <c r="L93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O93" s="3" t="s">
+      <c r="O93" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P93" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="Q93" s="3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="R93" s="3" t="s">
+      <c r="P93" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="S93" s="3" t="s">
+      <c r="Q93" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="T93" s="3" t="s">
+      <c r="R93" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="U93" s="3" t="s">
+      <c r="S93" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="V93" s="3" t="s">
+      <c r="T93" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="V93" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W93" s="3" t="s">
-        <v>1535</v>
+      <c r="W93" s="2" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B94" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C94" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -16367,63 +16359,63 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="I94" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="J94" t="s">
         <v>255</v>
       </c>
       <c r="K94" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
       </c>
       <c r="M94" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="N94" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="O94" t="s">
         <v>352</v>
       </c>
       <c r="P94" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="Q94" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="R94" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="S94" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="T94" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="U94" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="V94" t="s">
         <v>399</v>
       </c>
       <c r="W94" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="B95" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C95" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -16438,10 +16430,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="I95" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="J95" t="s">
         <v>255</v>
@@ -16453,261 +16445,261 @@
         <v>0</v>
       </c>
       <c r="M95" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="N95" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="O95" t="s">
         <v>352</v>
       </c>
       <c r="P95" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="Q95" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="R95" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="S95" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="T95" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="U95" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="V95" t="s">
         <v>343</v>
       </c>
       <c r="W95" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B96" s="3" t="s">
         <v>1565</v>
       </c>
-      <c r="C96" s="3" t="s">
+    </row>
+    <row r="96" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="D96" s="3">
+      <c r="B96" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D96" s="2">
         <v>3</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <v>40</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G96" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="J96" s="3" t="s">
+      <c r="G96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K96" s="3" t="s">
+      <c r="K96" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L96" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="N96" s="3" t="s">
+      <c r="L96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O96" s="3" t="s">
+      <c r="O96" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P96" s="3" t="s">
-        <v>1570</v>
-      </c>
-      <c r="Q96" s="3" t="s">
-        <v>1571</v>
-      </c>
-      <c r="R96" s="3" t="s">
+      <c r="P96" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="S96" s="3" t="s">
+      <c r="Q96" s="2" t="s">
         <v>1573</v>
       </c>
-      <c r="T96" s="3" t="s">
+      <c r="R96" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="U96" s="3" t="s">
+      <c r="S96" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="V96" s="3" t="s">
+      <c r="T96" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="V96" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W96" s="3" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="W96" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="D97" s="3">
+    </row>
+    <row r="97" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D97" s="2">
         <v>5</v>
       </c>
-      <c r="E97" s="3">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G97" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>1580</v>
-      </c>
-      <c r="J97" s="3" t="s">
+      <c r="G97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="K97" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L97" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>1581</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>1582</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>1582</v>
-      </c>
-      <c r="P97" s="3" t="s">
+      <c r="L97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="Q97" s="3" t="s">
+      <c r="N97" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="R97" s="3" t="s">
+      <c r="O97" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P97" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="S97" s="3" t="s">
+      <c r="Q97" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="T97" s="3" t="s">
+      <c r="R97" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="U97" s="3" t="s">
+      <c r="S97" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="V97" s="3" t="s">
+      <c r="T97" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="V97" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W97" s="3" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="W97" s="2" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D98" s="3">
+      <c r="C98" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D98" s="2">
         <v>5</v>
       </c>
-      <c r="E98" s="3">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G98" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>1593</v>
-      </c>
-      <c r="J98" s="3" t="s">
+      <c r="G98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K98" s="3" t="s">
-        <v>1482</v>
-      </c>
-      <c r="L98" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>1594</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>1595</v>
-      </c>
-      <c r="O98" s="3" t="s">
+      <c r="K98" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="L98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="P98" s="3" t="s">
+      <c r="N98" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="Q98" s="3" t="s">
+      <c r="O98" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="R98" s="3" t="s">
+      <c r="P98" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="S98" s="3" t="s">
+      <c r="Q98" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="T98" s="3" t="s">
+      <c r="R98" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="U98" s="3" t="s">
+      <c r="S98" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="V98" s="3" t="s">
+      <c r="T98" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="V98" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W98" s="3" t="s">
-        <v>1603</v>
+      <c r="W98" s="2" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B99" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C99" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="D99">
         <v>3.8</v>
@@ -16722,10 +16714,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="I99" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="J99" t="s">
         <v>255</v>
@@ -16737,48 +16729,48 @@
         <v>0</v>
       </c>
       <c r="M99" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="N99" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="O99" t="s">
         <v>352</v>
       </c>
       <c r="P99" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="Q99" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="R99" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="S99" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="T99" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="U99" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="V99" t="s">
         <v>399</v>
       </c>
       <c r="W99" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B100" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C100" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D100">
         <v>3.4</v>
@@ -16793,10 +16785,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="I100" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="J100" t="s">
         <v>268</v>
@@ -16808,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="N100" t="s">
         <v>352</v>
@@ -16817,39 +16809,39 @@
         <v>352</v>
       </c>
       <c r="P100" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="Q100" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="R100" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="S100" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="T100" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="U100" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="V100" t="s">
         <v>343</v>
       </c>
       <c r="W100" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="B101" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="C101" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D101">
         <v>2.2000000000000002</v>
@@ -16864,10 +16856,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="I101" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="J101" t="s">
         <v>268</v>
@@ -16879,48 +16871,48 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="N101" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="O101" t="s">
         <v>352</v>
       </c>
       <c r="P101" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="Q101" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="R101" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="S101" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="T101" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="U101" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="V101" t="s">
         <v>399</v>
       </c>
       <c r="W101" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B102" t="s">
         <v>271</v>
       </c>
       <c r="C102" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -16935,276 +16927,276 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="I102" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="J102" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="K102" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
       </c>
       <c r="M102" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="N102" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="O102" t="s">
         <v>352</v>
       </c>
       <c r="P102" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="Q102" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="R102" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="S102" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="T102" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="U102" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="V102" t="s">
         <v>343</v>
       </c>
       <c r="W102" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B103" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="C103" s="3" t="s">
+    </row>
+    <row r="103" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="D103" s="3">
+      <c r="B103" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D103" s="2">
         <v>3.1</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="2">
         <v>11</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G103" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>1663</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>1664</v>
-      </c>
-      <c r="J103" s="3" t="s">
+      <c r="G103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="K103" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L103" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>1665</v>
-      </c>
-      <c r="N103" s="3" t="s">
+      <c r="L103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N103" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O103" s="3" t="s">
+      <c r="O103" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P103" s="3" t="s">
-        <v>1666</v>
-      </c>
-      <c r="Q103" s="3" t="s">
-        <v>1667</v>
-      </c>
-      <c r="R103" s="3" t="s">
+      <c r="P103" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="S103" s="3" t="s">
+      <c r="Q103" s="2" t="s">
         <v>1669</v>
       </c>
-      <c r="T103" s="3" t="s">
+      <c r="R103" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="U103" s="3" t="s">
+      <c r="S103" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="V103" s="3" t="s">
+      <c r="T103" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="V103" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W103" s="3" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="W103" s="2" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D104" s="3">
+      <c r="C104" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D104" s="2">
         <v>2</v>
       </c>
-      <c r="E104" s="3">
-        <v>1</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G104" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>1675</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="J104" s="3" t="s">
+      <c r="G104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K104" s="3" t="s">
+      <c r="K104" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L104" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="N104" s="3" t="s">
+      <c r="L104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N104" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O104" s="3" t="s">
+      <c r="O104" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P104" s="3" t="s">
-        <v>1678</v>
-      </c>
-      <c r="Q104" s="3" t="s">
-        <v>1679</v>
-      </c>
-      <c r="R104" s="3" t="s">
+      <c r="P104" s="2" t="s">
         <v>1680</v>
       </c>
-      <c r="S104" s="3" t="s">
+      <c r="Q104" s="2" t="s">
         <v>1681</v>
       </c>
-      <c r="T104" s="3" t="s">
+      <c r="R104" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="U104" s="3" t="s">
+      <c r="S104" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="V104" s="3" t="s">
+      <c r="T104" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="V104" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W104" s="3" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B105" s="3" t="s">
+      <c r="W104" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="C105" s="3" t="s">
+    </row>
+    <row r="105" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="D105" s="3">
+      <c r="B105" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D105" s="2">
         <v>4</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="2">
         <v>3</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G105" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>1688</v>
-      </c>
-      <c r="I105" s="3" t="s">
+      <c r="G105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>1689</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="I105" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J105" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="K105" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L105" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>1690</v>
-      </c>
-      <c r="N105" s="3" t="s">
+      <c r="L105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="N105" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O105" s="3" t="s">
+      <c r="O105" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="P105" s="3" t="s">
-        <v>1691</v>
-      </c>
-      <c r="Q105" s="3" t="s">
+      <c r="P105" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="R105" s="3" t="s">
+      <c r="Q105" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="S105" s="3" t="s">
+      <c r="R105" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="T105" s="3" t="s">
+      <c r="S105" s="2" t="s">
         <v>1695</v>
       </c>
-      <c r="U105" s="3" t="s">
+      <c r="T105" s="2" t="s">
         <v>1696</v>
       </c>
-      <c r="V105" s="3" t="s">
+      <c r="U105" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="V105" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W105" s="3" t="s">
-        <v>1697</v>
+      <c r="W105" s="2" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B106" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C106" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D106">
         <v>2.7</v>
@@ -17219,10 +17211,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="I106" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="J106" t="s">
         <v>274</v>
@@ -17234,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="N106" t="s">
         <v>352</v>
@@ -17243,39 +17235,39 @@
         <v>352</v>
       </c>
       <c r="P106" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="Q106" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="R106" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="S106" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="T106" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="U106" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="V106" t="s">
         <v>399</v>
       </c>
       <c r="W106" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B107" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C107" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D107">
         <v>3.1</v>
@@ -17290,10 +17282,10 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="I107" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="J107" t="s">
         <v>274</v>
@@ -17305,48 +17297,48 @@
         <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="N107" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="O107" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="P107" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="Q107" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="R107" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="S107" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="T107" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="U107" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="V107" t="s">
         <v>399</v>
       </c>
       <c r="W107" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B108" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C108" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D108">
         <v>3.3</v>
@@ -17361,10 +17353,10 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="I108" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="J108" t="s">
         <v>274</v>
@@ -17376,7 +17368,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="N108" t="s">
         <v>352</v>
@@ -17385,181 +17377,181 @@
         <v>352</v>
       </c>
       <c r="P108" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="Q108" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="R108" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="S108" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="T108" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="U108" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="V108" t="s">
         <v>399</v>
       </c>
       <c r="W108" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
         <v>1739</v>
       </c>
-      <c r="B109" s="3" t="s">
+    </row>
+    <row r="109" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="D109" s="3">
+      <c r="C109" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D109" s="2">
         <v>2.9</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="2">
         <v>125</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G109" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>1742</v>
-      </c>
-      <c r="I109" s="3" t="s">
+      <c r="G109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="I109" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J109" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K109" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L109" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M109" s="3" t="s">
-        <v>1744</v>
-      </c>
-      <c r="N109" s="3" t="s">
+      <c r="K109" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="N109" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O109" s="3" t="s">
+      <c r="O109" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P109" s="3" t="s">
-        <v>1745</v>
-      </c>
-      <c r="Q109" s="3" t="s">
+      <c r="P109" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="R109" s="3" t="s">
+      <c r="Q109" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="S109" s="3" t="s">
+      <c r="R109" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="T109" s="3" t="s">
+      <c r="S109" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="U109" s="3" t="s">
+      <c r="T109" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="V109" s="3" t="s">
+      <c r="U109" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="V109" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W109" s="3" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="W109" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="B110" s="3" t="s">
+    </row>
+    <row r="110" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="D110" s="3">
+      <c r="C110" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D110" s="2">
         <v>5</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="2">
         <v>2</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G110" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>1755</v>
-      </c>
-      <c r="I110" s="3" t="s">
+      <c r="G110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="I110" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K110" s="3" t="s">
+      <c r="K110" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="L110" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>1757</v>
-      </c>
-      <c r="N110" s="3" t="s">
+      <c r="L110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="N110" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O110" s="3" t="s">
+      <c r="O110" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P110" s="3" t="s">
-        <v>1758</v>
-      </c>
-      <c r="Q110" s="3" t="s">
+      <c r="P110" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="R110" s="3" t="s">
+      <c r="Q110" s="2" t="s">
         <v>1760</v>
       </c>
-      <c r="S110" s="3" t="s">
+      <c r="R110" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="T110" s="3" t="s">
+      <c r="S110" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="U110" s="3" t="s">
+      <c r="T110" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="V110" s="3" t="s">
+      <c r="U110" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="V110" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W110" s="3" t="s">
-        <v>1764</v>
+      <c r="W110" s="2" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B111" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C111" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D111">
         <v>3.1</v>
@@ -17574,10 +17566,10 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="I111" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="J111" t="s">
         <v>287</v>
@@ -17589,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="N111" t="s">
         <v>352</v>
@@ -17598,181 +17590,181 @@
         <v>352</v>
       </c>
       <c r="P111" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="Q111" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="R111" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="S111" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="T111" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="U111" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="V111" t="s">
         <v>343</v>
       </c>
       <c r="W111" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
         <v>1778</v>
       </c>
-      <c r="B112" s="3" t="s">
+    </row>
+    <row r="112" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>1779</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="D112" s="3">
+      <c r="C112" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D112" s="2">
         <v>3</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="2">
         <v>17</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G112" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>1781</v>
-      </c>
-      <c r="I112" s="3" t="s">
+      <c r="G112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="I112" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="K112" s="3" t="s">
+      <c r="J112" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L112" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M112" s="3" t="s">
+      <c r="L112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="U112" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="V112" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="W112" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E113" s="2">
+        <v>2</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J113" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="N112" s="3" t="s">
+      <c r="K113" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O112" s="3" t="s">
+      <c r="O113" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P112" s="3" t="s">
-        <v>1785</v>
-      </c>
-      <c r="Q112" s="3" t="s">
-        <v>1786</v>
-      </c>
-      <c r="R112" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="S112" s="3" t="s">
-        <v>1788</v>
-      </c>
-      <c r="T112" s="3" t="s">
-        <v>1789</v>
-      </c>
-      <c r="U112" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="V112" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="W112" s="3" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D113" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E113" s="3">
-        <v>2</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G113" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>1795</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>1796</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>1783</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="L113" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>1797</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="O113" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>1798</v>
-      </c>
-      <c r="Q113" s="3" t="s">
+      <c r="P113" s="2" t="s">
         <v>1799</v>
       </c>
-      <c r="R113" s="3" t="s">
+      <c r="Q113" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="S113" s="3" t="s">
+      <c r="R113" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="T113" s="3" t="s">
+      <c r="S113" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="U113" s="3" t="s">
+      <c r="T113" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="V113" s="3" t="s">
+      <c r="U113" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="V113" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="W113" s="3" t="s">
-        <v>1804</v>
+      <c r="W113" s="2" t="s">
+        <v>1805</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B114" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C114" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -17787,10 +17779,10 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="I114" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="J114" t="s">
         <v>296</v>
@@ -17802,119 +17794,119 @@
         <v>0</v>
       </c>
       <c r="M114" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="N114" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="O114" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="P114" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="Q114" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="R114" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="S114" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="T114" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="U114" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="V114" t="s">
         <v>399</v>
       </c>
       <c r="W114" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
         <v>1820</v>
       </c>
-      <c r="B115" s="3" t="s">
+    </row>
+    <row r="115" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>1821</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="D115" s="3">
+      <c r="C115" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D115" s="2">
         <v>3.1</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="2">
         <v>168</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G115" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>1823</v>
-      </c>
-      <c r="I115" s="3" t="s">
+      <c r="G115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="I115" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J115" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="K115" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="L115" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M115" s="3" t="s">
-        <v>1825</v>
-      </c>
-      <c r="N115" s="3" t="s">
+      <c r="K115" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="O115" s="3" t="s">
+      <c r="O115" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P115" s="3" t="s">
-        <v>1826</v>
-      </c>
-      <c r="Q115" s="3" t="s">
+      <c r="P115" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="R115" s="3" t="s">
+      <c r="Q115" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="S115" s="3" t="s">
+      <c r="R115" s="2" t="s">
         <v>1829</v>
       </c>
-      <c r="T115" s="3" t="s">
+      <c r="S115" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="U115" s="3" t="s">
+      <c r="T115" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="V115" s="3" t="s">
+      <c r="U115" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="V115" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W115" s="3" t="s">
-        <v>1832</v>
+      <c r="W115" s="2" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B116" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C116" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -17929,10 +17921,10 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="I116" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="J116" t="s">
         <v>296</v>
@@ -17944,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="N116" t="s">
         <v>352</v>
@@ -17953,39 +17945,39 @@
         <v>352</v>
       </c>
       <c r="P116" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="Q116" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="R116" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="S116" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="T116" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="U116" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="V116" t="s">
         <v>343</v>
       </c>
       <c r="W116" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B117" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="C117" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D117">
         <v>3.7</v>
@@ -18000,10 +17992,10 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="I117" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="J117" t="s">
         <v>296</v>
@@ -18015,7 +18007,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="N117" t="s">
         <v>352</v>
@@ -18024,99 +18016,99 @@
         <v>432</v>
       </c>
       <c r="P117" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="Q117" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="R117" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="S117" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="T117" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="U117" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="V117" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="W117" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
         <v>1858</v>
       </c>
-      <c r="B118" s="3" t="s">
+    </row>
+    <row r="118" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="D118" s="3">
+      <c r="C118" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D118" s="2">
         <v>2.9</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="2">
         <v>18</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="L118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="P118" s="2" t="s">
         <v>1876</v>
       </c>
-      <c r="G118" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118" s="3" t="s">
+      <c r="Q118" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="U118" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="W118" s="2" t="s">
         <v>1869</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>1861</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>1870</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>1871</v>
-      </c>
-      <c r="L118" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M118" s="3" t="s">
-        <v>1862</v>
-      </c>
-      <c r="N118" s="3" t="s">
-        <v>1874</v>
-      </c>
-      <c r="O118" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="P118" s="3" t="s">
-        <v>1875</v>
-      </c>
-      <c r="Q118" s="3" t="s">
-        <v>1863</v>
-      </c>
-      <c r="R118" s="3" t="s">
-        <v>1864</v>
-      </c>
-      <c r="S118" s="3" t="s">
-        <v>1865</v>
-      </c>
-      <c r="T118" s="3" t="s">
-        <v>1866</v>
-      </c>
-      <c r="U118" s="3" t="s">
-        <v>1867</v>
-      </c>
-      <c r="V118" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="W118" s="3" t="s">
-        <v>1868</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_2022/dataset_Vitas_plus_large.xlsx
+++ b/dataset_2022/dataset_Vitas_plus_large.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\6-VUI_problem\code\Vitas+\dataset_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\4-Elevate\GPT4_vitas\dataset_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AD23BB-3F19-4690-95AF-30744274E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB217C-68AD-430F-AA74-A8E051A97C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="370" windowWidth="14360" windowHeight="15280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9590" yWindow="1260" windowWidth="14360" windowHeight="15280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elevate(large)" sheetId="1" r:id="rId1"/>
@@ -5744,12 +5744,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5764,11 +5770,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9722,8 +9729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10514,74 +10521,74 @@
         <v>464</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="4" t="s">
         <v>479</v>
       </c>
     </row>
@@ -10656,74 +10663,74 @@
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="4" t="s">
         <v>506</v>
       </c>
     </row>
@@ -10798,74 +10805,74 @@
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="4" t="s">
         <v>535</v>
       </c>
     </row>
@@ -11721,74 +11728,74 @@
         <v>692</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>3.3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="L29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T29" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" s="4" t="s">
         <v>705</v>
       </c>
     </row>
@@ -11863,74 +11870,74 @@
         <v>719</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>2.7</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>54</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="L31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U31" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="V31" t="s">
+      <c r="V31" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" s="4" t="s">
         <v>734</v>
       </c>
     </row>
@@ -12431,74 +12438,74 @@
         <v>831</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <v>191</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="L39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2" t="s">
+      <c r="L39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N39" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P39" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R39" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="S39" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T39" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="U39" s="2" t="s">
+      <c r="U39" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="V39" s="2" t="s">
+      <c r="V39" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="W39" s="2" t="s">
+      <c r="W39" s="4" t="s">
         <v>845</v>
       </c>
     </row>
@@ -13780,74 +13787,74 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="4">
         <v>5</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="4">
         <v>2</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="G58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="L58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2" t="s">
+      <c r="L58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="N58" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="O58" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="P58" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="Q58" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="R58" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="S58" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="T58" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="U58" s="2" t="s">
+      <c r="U58" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="V58" s="2" t="s">
+      <c r="V58" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="W58" s="2" t="s">
+      <c r="W58" s="4" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -14490,74 +14497,74 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>1200</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>1201</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="4">
         <v>3</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <v>4</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>1202</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="L68" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
+      <c r="L68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="Q68" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="R68" t="s">
+      <c r="R68" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="S68" t="s">
+      <c r="S68" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="T68" t="s">
+      <c r="T68" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="U68" t="s">
+      <c r="U68" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="V68" t="s">
+      <c r="V68" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="W68" t="s">
+      <c r="W68" s="4" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -14987,74 +14994,74 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>1291</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>1292</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="4">
         <v>2.8</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="4">
         <v>36</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="L75" t="b">
-        <v>0</v>
-      </c>
-      <c r="M75" t="s">
+      <c r="L75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O75" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="4" t="s">
         <v>1297</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="Q75" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="R75" t="s">
+      <c r="R75" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="S75" t="s">
+      <c r="S75" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="T75" t="s">
+      <c r="T75" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="U75" t="s">
+      <c r="U75" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="V75" t="s">
+      <c r="V75" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="W75" t="s">
+      <c r="W75" s="4" t="s">
         <v>1303</v>
       </c>
     </row>
@@ -15981,74 +15988,74 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>1471</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>1472</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>1473</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="4">
         <v>2</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="4">
         <v>2</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="G89" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="4" t="s">
         <v>1475</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="L89" t="b">
-        <v>0</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="L89" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="4" t="s">
         <v>1476</v>
       </c>
-      <c r="N89" t="s">
+      <c r="N89" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="O89" t="s">
+      <c r="O89" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="P89" t="s">
+      <c r="P89" s="4" t="s">
         <v>1477</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="Q89" s="4" t="s">
         <v>1478</v>
       </c>
-      <c r="R89" t="s">
+      <c r="R89" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="S89" t="s">
+      <c r="S89" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="T89" t="s">
+      <c r="T89" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="U89" t="s">
+      <c r="U89" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="V89" t="s">
+      <c r="V89" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="W89" t="s">
+      <c r="W89" s="4" t="s">
         <v>1483</v>
       </c>
     </row>
@@ -16975,74 +16982,74 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>1662</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="4" t="s">
         <v>1663</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="4" t="s">
         <v>1664</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="4">
         <v>3.1</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="4">
         <v>11</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" s="2" t="s">
+      <c r="G103" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="4" t="s">
         <v>1665</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="I103" s="4" t="s">
         <v>1666</v>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="J103" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="L103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M103" s="2" t="s">
+      <c r="L103" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" s="4" t="s">
         <v>1667</v>
       </c>
-      <c r="N103" s="2" t="s">
+      <c r="N103" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="O103" s="2" t="s">
+      <c r="O103" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="P103" s="2" t="s">
+      <c r="P103" s="4" t="s">
         <v>1668</v>
       </c>
-      <c r="Q103" s="2" t="s">
+      <c r="Q103" s="4" t="s">
         <v>1669</v>
       </c>
-      <c r="R103" s="2" t="s">
+      <c r="R103" s="4" t="s">
         <v>1670</v>
       </c>
-      <c r="S103" s="2" t="s">
+      <c r="S103" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="T103" s="2" t="s">
+      <c r="T103" s="4" t="s">
         <v>1672</v>
       </c>
-      <c r="U103" s="2" t="s">
+      <c r="U103" s="4" t="s">
         <v>1673</v>
       </c>
-      <c r="V103" s="2" t="s">
+      <c r="V103" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="W103" s="2" t="s">
+      <c r="W103" s="4" t="s">
         <v>1674</v>
       </c>
     </row>
@@ -17259,74 +17266,74 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>1712</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>1713</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>1714</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="4">
         <v>3.1</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="4">
         <v>802</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="G107" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>1715</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="4" t="s">
         <v>1716</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K107" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="L107" t="b">
-        <v>0</v>
-      </c>
-      <c r="M107" t="s">
+      <c r="L107" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" s="4" t="s">
         <v>1717</v>
       </c>
-      <c r="N107" t="s">
+      <c r="N107" s="4" t="s">
         <v>1718</v>
       </c>
-      <c r="O107" t="s">
+      <c r="O107" s="4" t="s">
         <v>1719</v>
       </c>
-      <c r="P107" t="s">
+      <c r="P107" s="4" t="s">
         <v>1720</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="Q107" s="4" t="s">
         <v>1721</v>
       </c>
-      <c r="R107" t="s">
+      <c r="R107" s="4" t="s">
         <v>1722</v>
       </c>
-      <c r="S107" t="s">
+      <c r="S107" s="4" t="s">
         <v>1723</v>
       </c>
-      <c r="T107" t="s">
+      <c r="T107" s="4" t="s">
         <v>1724</v>
       </c>
-      <c r="U107" t="s">
+      <c r="U107" s="4" t="s">
         <v>1725</v>
       </c>
-      <c r="V107" t="s">
+      <c r="V107" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="W107" t="s">
+      <c r="W107" s="4" t="s">
         <v>1726</v>
       </c>
     </row>
@@ -17401,74 +17408,74 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>1740</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="4" t="s">
         <v>1741</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="4" t="s">
         <v>1742</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="4">
         <v>2.9</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="4">
         <v>125</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" s="2" t="s">
+      <c r="G109" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>1743</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I109" s="4" t="s">
         <v>1744</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="L109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M109" s="2" t="s">
+      <c r="L109" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" s="4" t="s">
         <v>1745</v>
       </c>
-      <c r="N109" s="2" t="s">
+      <c r="N109" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="O109" s="2" t="s">
+      <c r="O109" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="P109" s="2" t="s">
+      <c r="P109" s="4" t="s">
         <v>1746</v>
       </c>
-      <c r="Q109" s="2" t="s">
+      <c r="Q109" s="4" t="s">
         <v>1747</v>
       </c>
-      <c r="R109" s="2" t="s">
+      <c r="R109" s="4" t="s">
         <v>1748</v>
       </c>
-      <c r="S109" s="2" t="s">
+      <c r="S109" s="4" t="s">
         <v>1749</v>
       </c>
-      <c r="T109" s="2" t="s">
+      <c r="T109" s="4" t="s">
         <v>1750</v>
       </c>
-      <c r="U109" s="2" t="s">
+      <c r="U109" s="4" t="s">
         <v>1751</v>
       </c>
-      <c r="V109" s="2" t="s">
+      <c r="V109" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="W109" s="2" t="s">
+      <c r="W109" s="4" t="s">
         <v>1752</v>
       </c>
     </row>
